--- a/docs/srs/fbt_srs.xlsx
+++ b/docs/srs/fbt_srs.xlsx
@@ -1,22 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\kjy\fbt\docs\srs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Socio_02\Desktop\kjy\fbt\docs\srs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{304F1CF0-95D5-421A-A1F6-240760FE00ED}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{959729FC-D6E5-49A0-925F-867657FCA245}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{2F0AD6B2-A8A2-4F73-BAF4-7193D3382EE1}"/>
+    <workbookView xWindow="720" yWindow="1170" windowWidth="21600" windowHeight="11385" xr2:uid="{2F0AD6B2-A8A2-4F73-BAF4-7193D3382EE1}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="요구사항명세서" sheetId="1" r:id="rId1"/>
+    <sheet name="TestCase_시나리오" sheetId="2" r:id="rId2"/>
+    <sheet name="TestCase_SQL" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$B$7:$H$41</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">요구사항명세서!$B$8:$H$42</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -29,7 +31,6 @@
         <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="972" uniqueCount="178">
   <si>
     <t>요구사항 정의서</t>
   </si>
@@ -223,10 +224,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>경기 일정 출력</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>참여하기로 한 경기 일정 최신순으로 출력</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -235,10 +232,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>개인 알림 출력</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>개인에게 부여된 알림 출력</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -333,10 +326,6 @@
   </si>
   <si>
     <t>V006</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>투표 자동화 설정</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
@@ -1680,6 +1669,727 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
+    <t>A001</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>양도 등록하기</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>A002</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>양도 글</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>등록</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>양도 글</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Nanum Gothic"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> 삭제</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>양도</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Nanum Gothic"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>글 삭제하기</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>A003</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>양도글 끌어올리기</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>양도 글의 등록 시점 최신화</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>A004</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>자기 양도글 보이기</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>해당 팀이 올린 양도글 출력</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>A005</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>양도</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>신청</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>출력</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>양도 글에 대한 신청글 출력</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>A006</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>양도 수락</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>투표</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>클릭</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>시</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>투표</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>내용</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>출력</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Nanum Gothic"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> : V001과 같아짐</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>팀</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>팀별 회원</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>무소속 회원</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>VALUES(</t>
+  </si>
+  <si>
+    <t>VALUES(</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>,</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>user(email, pass, name, phone_num, user_reg_date, recent_login,</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">INSERT INTO </t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> main_foot, position, api_key, height, weight, was_pro, gender, born_date) </t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>'1234'</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>'010-1234-5678'</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>sysdate()</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>'왼발'</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>'FW'</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>null</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>'1995-06-01'</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>);</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>'bioman</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>@gmail.com'</t>
+  </si>
+  <si>
+    <t>'오른발'</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>'MF'</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>'DF'</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>'</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">team(team_name, emblem, area, stadium_info, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">uniform_color, uniform_type, founding_date, team_reg_date, account, bank) </t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>'왕십리FC</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>201018.jpg'</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>'성동구'</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>'성동구 구장'</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>'red'</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>'2016-01-01'</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>',</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>'기업'</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>'답십리FC</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>'대구FC</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>'달서구'</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>'응봉동 구장'</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>'달서구 구장'</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>'blue'</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>'green'</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>'2017-01-01'</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>'2018-01-01'</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>'하나'</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>team_member(member_reg_date, member_level, reg_status, team_id, email, nick_name)</t>
+  </si>
+  <si>
+    <t>'nick</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>');</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>S - 일정관련 기능</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>S001</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>개인</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>알림</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>출력</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>개인 경기</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>일정</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>출력</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>팀 경기</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>일정</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>등록</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>팀</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>경기</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>일정</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>등록
+경기 투표 자동 추가(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Nanum Gothic"/>
+        <family val="3"/>
+      </rPr>
+      <t>V005)</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="10"/>
@@ -1764,7 +2474,17 @@
         <family val="3"/>
         <charset val="129"/>
       </rPr>
-      <t>입력하기</t>
+      <t>입력하기
+팀 경기 일정 자동 추가(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Nanum Gothic"/>
+        <family val="3"/>
+      </rPr>
+      <t>S001)</t>
     </r>
     <r>
       <rPr>
@@ -1872,30 +2592,29 @@
       </rPr>
       <t>T003)</t>
     </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>A001</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>양도 등록하기</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>A002</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>양도 글</t>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Nanum Gothic"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">
+투표 설정(V006)</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>투표</t>
     </r>
     <r>
       <rPr>
@@ -1914,263 +2633,8 @@
         <family val="3"/>
         <charset val="129"/>
       </rPr>
-      <t>등록</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>양도 글</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Nanum Gothic"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> 삭제</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>양도</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Nanum Gothic"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>글 삭제하기</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>A003</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>양도글 끌어올리기</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>양도 글의 등록 시점 최신화</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>A004</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>자기 양도글 보이기</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>해당 팀이 올린 양도글 출력</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>A005</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>양도</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>신청</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>출력</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>양도 글에 대한 신청글 출력</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>A006</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>양도 수락</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>투표</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>클릭</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>시</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>투표</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>내용</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>출력</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Nanum Gothic"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> : V001과 같아짐</t>
+      <t>설정 등록
+(자동화)</t>
     </r>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -2398,7 +2862,348 @@
         <charset val="129"/>
       </rPr>
       <t xml:space="preserve">
-- 지인 초청하기</t>
+- </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>지인</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">초청하기
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Nanum Gothic"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">type
+0 : </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">수동
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">1 : </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>자체</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>양도</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> : self_min_num, self_max_num
+2 : </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>자체</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>용병</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> : cancel_num, self_min_num, self_max_num, emp_due_date
+3. : </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>자체</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>양도</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>용병</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> :  cancel_num, self_min_num, self_max_num, emp_due_date
+4 : </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>상대</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>양도</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> : away_min_num, self_min_num, self_max_num, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Nanum Gothic"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">away_due_date
+5 : </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>상대</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>용병</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> : cancel_num, away_min_num, emp_min_num, self_min_num, self_max_num, emp_due_date
+6 : </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>상대</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>양도</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>용병</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> : cancel_num, away_min_num, emp_min_num, self_min_num, self_max_num, emp_due_date, away_due_date</t>
     </r>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -2407,7 +3212,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="19">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2535,8 +3340,17 @@
       <family val="2"/>
       <charset val="129"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="13">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2581,12 +3395,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFF2CC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFD9D2E9"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -2609,8 +3417,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="9">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -2722,13 +3542,25 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2753,10 +3585,7 @@
     <xf numFmtId="0" fontId="6" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2795,16 +3624,10 @@
     <xf numFmtId="0" fontId="11" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2825,9 +3648,37 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="1" quotePrefix="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
+    <cellStyle name="하이퍼링크" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -3139,36 +3990,35 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60EA499F-775F-49C1-B26C-B60E223B5AF8}">
-  <sheetPr filterMode="1"/>
-  <dimension ref="B1:H41"/>
+  <dimension ref="B1:H42"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="5" topLeftCell="B6" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="6" topLeftCell="B15" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="D21" sqref="D21"/>
+      <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
+      <selection pane="bottomRight" activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="4.19921875" customWidth="1"/>
+    <col min="1" max="1" width="4.25" customWidth="1"/>
     <col min="2" max="2" width="12.5" customWidth="1"/>
     <col min="3" max="3" width="19" customWidth="1"/>
     <col min="4" max="4" width="44" customWidth="1"/>
-    <col min="5" max="5" width="15.8984375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="22.09765625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.69921875" customWidth="1"/>
+    <col min="5" max="5" width="15.875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.75" customWidth="1"/>
     <col min="8" max="8" width="9.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" ht="18" thickBot="1"/>
-    <row r="2" spans="2:8" ht="18" thickBot="1">
-      <c r="B2" s="28" t="s">
+    <row r="1" spans="2:8" ht="17.25" thickBot="1"/>
+    <row r="2" spans="2:8" ht="18.75" thickBot="1">
+      <c r="B2" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="29"/>
+      <c r="C2" s="26"/>
       <c r="E2" s="3" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="F2" s="4" t="s">
         <v>14</v>
@@ -3177,800 +4027,3992 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="2:8" ht="18" thickBot="1">
+    <row r="3" spans="2:8" ht="17.25" thickBot="1">
       <c r="B3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="11" t="s">
+      <c r="C3" s="10" t="s">
         <v>12</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="G3" s="23"/>
+        <v>65</v>
+      </c>
+      <c r="G3" s="21"/>
     </row>
-    <row r="4" spans="2:8" ht="18" thickBot="1">
+    <row r="4" spans="2:8" ht="17.25" thickBot="1">
       <c r="B4" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E4" s="8" t="s">
+      <c r="E4" s="34" t="s">
+        <v>67</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="G4" s="21"/>
+    </row>
+    <row r="5" spans="2:8" ht="17.25" thickBot="1">
+      <c r="E5" s="31" t="s">
+        <v>68</v>
+      </c>
+      <c r="F5" s="32" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8" ht="17.25" thickBot="1">
+      <c r="E6" s="36" t="s">
+        <v>169</v>
+      </c>
+      <c r="F6" s="33"/>
+    </row>
+    <row r="7" spans="2:8" ht="17.25" thickBot="1"/>
+    <row r="8" spans="2:8" ht="17.25" thickBot="1">
+      <c r="B8" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="E8" s="27" t="s">
+        <v>7</v>
+      </c>
+      <c r="F8" s="28"/>
+      <c r="G8" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="H8" s="23" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8" ht="17.25" thickBot="1">
+      <c r="B9" s="24"/>
+      <c r="C9" s="24"/>
+      <c r="D9" s="24"/>
+      <c r="E9" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="F9" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="G9" s="24"/>
+      <c r="H9" s="24"/>
+    </row>
+    <row r="10" spans="2:8" ht="26.25" thickBot="1">
+      <c r="B10" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="F4" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="G4" s="23"/>
+      <c r="C10" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="D10" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="F10" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="G10" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="H10" s="12" t="s">
+        <v>17</v>
+      </c>
     </row>
-    <row r="5" spans="2:8" ht="18" thickBot="1">
-      <c r="E5" s="22" t="s">
+    <row r="11" spans="2:8" ht="17.25" thickBot="1">
+      <c r="B11" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="F5" s="24" t="s">
+      <c r="C11" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="D11" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E11" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="F11" s="12"/>
+      <c r="G11" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="H11" s="12" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="2:8" ht="17.25" thickBot="1">
+      <c r="B12" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="C12" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="D12" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="E12" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="F12" s="12"/>
+      <c r="G12" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="H12" s="12" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="2:8" ht="17.25" thickBot="1">
+      <c r="B13" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="C13" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="D13" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="E13" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="F13" s="12"/>
+      <c r="G13" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="H13" s="12" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" spans="2:8" ht="17.25" thickBot="1">
+      <c r="B14" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="C14" s="16" t="s">
+        <v>172</v>
+      </c>
+      <c r="D14" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="E14" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="F14" s="12"/>
+      <c r="G14" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="H14" s="12" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" spans="2:8" ht="17.25" thickBot="1">
+      <c r="B15" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="C15" s="16" t="s">
+        <v>171</v>
+      </c>
+      <c r="D15" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="E15" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="F15" s="12"/>
+      <c r="G15" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="H15" s="12" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" spans="2:8" ht="17.25" thickBot="1">
+      <c r="B16" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="C16" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="D16" s="18" t="s">
+        <v>91</v>
+      </c>
+      <c r="E16" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="F16" s="12"/>
+      <c r="G16" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="H16" s="12" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8" ht="17.25" thickBot="1">
+      <c r="B17" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="C17" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="D17" s="18" t="s">
+        <v>122</v>
+      </c>
+      <c r="E17" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="F17" s="16" t="s">
+        <v>121</v>
+      </c>
+      <c r="G17" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="H17" s="12" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8" ht="17.25" thickBot="1">
+      <c r="B18" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="C18" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="D18" s="18" t="s">
+        <v>92</v>
+      </c>
+      <c r="E18" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="F18" s="12"/>
+      <c r="G18" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="H18" s="12" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="19" spans="2:8" ht="17.25" thickBot="1">
+      <c r="B19" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="C19" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="D19" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="E19" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="F19" s="12"/>
+      <c r="G19" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="H19" s="12" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="20" spans="2:8" ht="67.5" thickBot="1">
+      <c r="B20" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="C20" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="D20" s="18" t="s">
+        <v>175</v>
+      </c>
+      <c r="E20" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="F20" s="12"/>
+      <c r="G20" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="H20" s="12" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="21" spans="2:8" ht="291.75" thickBot="1">
+      <c r="B21" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="C21" s="16" t="s">
+        <v>176</v>
+      </c>
+      <c r="D21" s="18" t="s">
+        <v>177</v>
+      </c>
+      <c r="E21" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="F21" s="12"/>
+      <c r="G21" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="H21" s="12" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="22" spans="2:8" ht="26.25" thickBot="1">
+      <c r="B22" s="19" t="s">
+        <v>53</v>
+      </c>
+      <c r="C22" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="D22" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="E22" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="F22" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="G22" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="H22" s="12" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="23" spans="2:8" ht="17.25" thickBot="1">
+      <c r="B23" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="C23" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="D23" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="E23" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="F23" s="12"/>
+      <c r="G23" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="H23" s="12" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="24" spans="2:8" ht="17.25" thickBot="1">
+      <c r="B24" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="D24" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="E24" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="F24" s="12"/>
+      <c r="G24" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="H24" s="12" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="25" spans="2:8" ht="26.25" thickBot="1">
+      <c r="B25" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="C25" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="D25" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="E25" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="F25" s="12"/>
+      <c r="G25" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="H25" s="12" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="26" spans="2:8" ht="17.25" thickBot="1">
+      <c r="B26" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="C26" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="D26" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="E26" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="F26" s="12"/>
+      <c r="G26" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="H26" s="12" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" spans="2:8" ht="17.25" thickBot="1">
+      <c r="B27" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="C27" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="D27" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="E27" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="F27" s="12"/>
+      <c r="G27" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="H27" s="12" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="28" spans="2:8" ht="80.25" thickBot="1">
+      <c r="B28" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="C28" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="D28" s="18" t="s">
+        <v>87</v>
+      </c>
+      <c r="E28" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="F28" s="12"/>
+      <c r="G28" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="H28" s="12" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="29" spans="2:8" ht="17.25" thickBot="1">
+      <c r="B29" s="20" t="s">
+        <v>82</v>
+      </c>
+      <c r="C29" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="D29" s="18" t="s">
+        <v>84</v>
+      </c>
+      <c r="E29" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="F29" s="12"/>
+      <c r="G29" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="H29" s="15" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="30" spans="2:8" ht="27.75" thickBot="1">
+      <c r="B30" s="20" t="s">
+        <v>85</v>
+      </c>
+      <c r="C30" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="D30" s="18" t="s">
+        <v>88</v>
+      </c>
+      <c r="E30" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="F30" s="12"/>
+      <c r="G30" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="H30" s="15" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="31" spans="2:8" ht="17.25" thickBot="1">
+      <c r="B31" s="22" t="s">
+        <v>76</v>
+      </c>
+      <c r="C31" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="D31" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="E31" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="F31" s="12"/>
+      <c r="G31" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="H31" s="12" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="32" spans="2:8" ht="17.25" thickBot="1">
+      <c r="B32" s="22" t="s">
+        <v>89</v>
+      </c>
+      <c r="C32" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="D32" s="13" t="s">
+        <v>93</v>
+      </c>
+      <c r="E32" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="F32" s="12"/>
+      <c r="G32" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="H32" s="12" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="33" spans="2:8" ht="17.25" thickBot="1">
+      <c r="B33" s="22" t="s">
+        <v>94</v>
+      </c>
+      <c r="C33" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="D33" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="E33" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="F33" s="12"/>
+      <c r="G33" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="H33" s="12" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="34" spans="2:8" ht="17.25" thickBot="1">
+      <c r="B34" s="22" t="s">
+        <v>98</v>
+      </c>
+      <c r="C34" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="D34" s="13" t="s">
         <v>100</v>
       </c>
+      <c r="E34" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="F34" s="12"/>
+      <c r="G34" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="H34" s="12" t="s">
+        <v>25</v>
+      </c>
     </row>
-    <row r="6" spans="2:8" ht="18" thickBot="1"/>
-    <row r="7" spans="2:8" ht="18" thickBot="1">
-      <c r="B7" s="26" t="s">
-        <v>4</v>
-      </c>
-      <c r="C7" s="26" t="s">
-        <v>5</v>
-      </c>
-      <c r="D7" s="26" t="s">
-        <v>6</v>
-      </c>
-      <c r="E7" s="30" t="s">
-        <v>7</v>
-      </c>
-      <c r="F7" s="31"/>
-      <c r="G7" s="26" t="s">
-        <v>8</v>
-      </c>
-      <c r="H7" s="26" t="s">
-        <v>11</v>
+    <row r="35" spans="2:8" ht="17.25" thickBot="1">
+      <c r="B35" s="22" t="s">
+        <v>101</v>
+      </c>
+      <c r="C35" s="12" t="s">
+        <v>102</v>
+      </c>
+      <c r="D35" s="13" t="s">
+        <v>103</v>
+      </c>
+      <c r="E35" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="F35" s="12"/>
+      <c r="G35" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="H35" s="12" t="s">
+        <v>16</v>
       </c>
     </row>
-    <row r="8" spans="2:8" ht="18" hidden="1" thickBot="1">
-      <c r="B8" s="27"/>
-      <c r="C8" s="27"/>
-      <c r="D8" s="27"/>
-      <c r="E8" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="F8" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="G8" s="27"/>
-      <c r="H8" s="27"/>
+    <row r="36" spans="2:8" ht="17.25" thickBot="1">
+      <c r="B36" s="35" t="s">
+        <v>104</v>
+      </c>
+      <c r="C36" s="16" t="s">
+        <v>107</v>
+      </c>
+      <c r="D36" s="13" t="s">
+        <v>105</v>
+      </c>
+      <c r="E36" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="F36" s="12"/>
+      <c r="G36" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="H36" s="12" t="s">
+        <v>25</v>
+      </c>
     </row>
-    <row r="9" spans="2:8" ht="27" hidden="1" thickBot="1">
-      <c r="B9" s="12" t="s">
-        <v>73</v>
-      </c>
-      <c r="C9" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="D9" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="E9" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="F9" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="G9" s="13" t="s">
+    <row r="37" spans="2:8" ht="17.25" thickBot="1">
+      <c r="B37" s="35" t="s">
+        <v>106</v>
+      </c>
+      <c r="C37" s="16" t="s">
+        <v>108</v>
+      </c>
+      <c r="D37" s="18" t="s">
+        <v>109</v>
+      </c>
+      <c r="E37" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="F37" s="12"/>
+      <c r="G37" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="H9" s="13" t="s">
-        <v>17</v>
+      <c r="H37" s="12" t="s">
+        <v>25</v>
       </c>
     </row>
-    <row r="10" spans="2:8" ht="18" hidden="1" thickBot="1">
-      <c r="B10" s="12" t="s">
-        <v>74</v>
-      </c>
-      <c r="C10" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="D10" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="E10" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="F10" s="13"/>
-      <c r="G10" s="16" t="s">
+    <row r="38" spans="2:8" ht="17.25" thickBot="1">
+      <c r="B38" s="35" t="s">
+        <v>110</v>
+      </c>
+      <c r="C38" s="16" t="s">
+        <v>111</v>
+      </c>
+      <c r="D38" s="18" t="s">
+        <v>112</v>
+      </c>
+      <c r="E38" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="F38" s="12"/>
+      <c r="G38" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="H38" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="H10" s="13" t="s">
+    </row>
+    <row r="39" spans="2:8" ht="17.25" thickBot="1">
+      <c r="B39" s="35" t="s">
+        <v>113</v>
+      </c>
+      <c r="C39" s="16" t="s">
+        <v>114</v>
+      </c>
+      <c r="D39" s="18" t="s">
+        <v>115</v>
+      </c>
+      <c r="E39" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="F39" s="12"/>
+      <c r="G39" s="12" t="s">
         <v>16</v>
       </c>
+      <c r="H39" s="12" t="s">
+        <v>16</v>
+      </c>
     </row>
-    <row r="11" spans="2:8" ht="18" hidden="1" thickBot="1">
-      <c r="B11" s="12" t="s">
-        <v>75</v>
-      </c>
-      <c r="C11" s="17" t="s">
-        <v>28</v>
-      </c>
-      <c r="D11" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="E11" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="F11" s="13"/>
-      <c r="G11" s="13" t="s">
+    <row r="40" spans="2:8" ht="17.25" thickBot="1">
+      <c r="B40" s="35" t="s">
+        <v>116</v>
+      </c>
+      <c r="C40" s="16" t="s">
+        <v>117</v>
+      </c>
+      <c r="D40" s="18" t="s">
+        <v>118</v>
+      </c>
+      <c r="E40" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="F40" s="12"/>
+      <c r="G40" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="H11" s="13" t="s">
+      <c r="H40" s="12" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="41" spans="2:8" ht="17.25" thickBot="1">
+      <c r="B41" s="35" t="s">
+        <v>119</v>
+      </c>
+      <c r="C41" s="16" t="s">
+        <v>120</v>
+      </c>
+      <c r="D41" s="18"/>
+      <c r="E41" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="F41" s="12"/>
+      <c r="G41" s="12" t="s">
         <v>16</v>
       </c>
+      <c r="H41" s="12"/>
     </row>
-    <row r="12" spans="2:8" ht="18" hidden="1" thickBot="1">
-      <c r="B12" s="12" t="s">
-        <v>76</v>
-      </c>
-      <c r="C12" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="D12" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="E12" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="F12" s="13"/>
-      <c r="G12" s="13" t="s">
+    <row r="42" spans="2:8" ht="27.75" thickBot="1">
+      <c r="B42" s="37" t="s">
+        <v>170</v>
+      </c>
+      <c r="C42" s="16" t="s">
+        <v>173</v>
+      </c>
+      <c r="D42" s="18" t="s">
+        <v>174</v>
+      </c>
+      <c r="E42" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="F42" s="12"/>
+      <c r="G42" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="H12" s="13" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="13" spans="2:8" ht="18" hidden="1" thickBot="1">
-      <c r="B13" s="12" t="s">
-        <v>77</v>
-      </c>
-      <c r="C13" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="D13" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="E13" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="F13" s="13"/>
-      <c r="G13" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="H13" s="13" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="14" spans="2:8" ht="18" hidden="1" thickBot="1">
-      <c r="B14" s="12" t="s">
-        <v>78</v>
-      </c>
-      <c r="C14" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="D14" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="E14" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="F14" s="13"/>
-      <c r="G14" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="H14" s="13" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="15" spans="2:8" ht="18" thickBot="1">
-      <c r="B15" s="18" t="s">
-        <v>41</v>
-      </c>
-      <c r="C15" s="16" t="s">
-        <v>42</v>
-      </c>
-      <c r="D15" s="19" t="s">
-        <v>94</v>
-      </c>
-      <c r="E15" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="F15" s="13"/>
-      <c r="G15" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="H15" s="13" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="16" spans="2:8" ht="18" thickBot="1">
-      <c r="B16" s="18" t="s">
-        <v>44</v>
-      </c>
-      <c r="C16" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="D16" s="19" t="s">
-        <v>126</v>
-      </c>
-      <c r="E16" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="F16" s="17" t="s">
-        <v>125</v>
-      </c>
-      <c r="G16" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="H16" s="13" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="17" spans="2:8" ht="18" thickBot="1">
-      <c r="B17" s="18" t="s">
-        <v>45</v>
-      </c>
-      <c r="C17" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="D17" s="19" t="s">
-        <v>95</v>
-      </c>
-      <c r="E17" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="F17" s="13"/>
-      <c r="G17" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="H17" s="13" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="18" spans="2:8" ht="18" thickBot="1">
-      <c r="B18" s="18" t="s">
-        <v>47</v>
-      </c>
-      <c r="C18" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="D18" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="E18" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="F18" s="13"/>
-      <c r="G18" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="H18" s="13" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="19" spans="2:8" ht="47.4" thickBot="1">
-      <c r="B19" s="18" t="s">
-        <v>50</v>
-      </c>
-      <c r="C19" s="13" t="s">
-        <v>51</v>
-      </c>
-      <c r="D19" s="19" t="s">
-        <v>107</v>
-      </c>
-      <c r="E19" s="13" t="s">
-        <v>52</v>
-      </c>
-      <c r="F19" s="13"/>
-      <c r="G19" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="H19" s="13" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="20" spans="2:8" ht="91.8" thickBot="1">
-      <c r="B20" s="18" t="s">
-        <v>54</v>
-      </c>
-      <c r="C20" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="D20" s="19" t="s">
-        <v>127</v>
-      </c>
-      <c r="E20" s="13" t="s">
-        <v>52</v>
-      </c>
-      <c r="F20" s="13"/>
-      <c r="G20" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="H20" s="13" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="21" spans="2:8" ht="27" thickBot="1">
-      <c r="B21" s="20" t="s">
-        <v>56</v>
-      </c>
-      <c r="C21" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="D21" s="14" t="s">
-        <v>59</v>
-      </c>
-      <c r="E21" s="13" t="s">
-        <v>52</v>
-      </c>
-      <c r="F21" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="G21" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="H21" s="13" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="22" spans="2:8" ht="18" hidden="1" thickBot="1">
-      <c r="B22" s="21" t="s">
-        <v>18</v>
-      </c>
-      <c r="C22" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="D22" s="14" t="s">
-        <v>61</v>
-      </c>
-      <c r="E22" s="13" t="s">
-        <v>52</v>
-      </c>
-      <c r="F22" s="13"/>
-      <c r="G22" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="H22" s="13" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="23" spans="2:8" ht="18" hidden="1" thickBot="1">
-      <c r="B23" s="21" t="s">
-        <v>26</v>
-      </c>
-      <c r="C23" s="17" t="s">
-        <v>62</v>
-      </c>
-      <c r="D23" s="14" t="s">
-        <v>63</v>
-      </c>
-      <c r="E23" s="13" t="s">
-        <v>52</v>
-      </c>
-      <c r="F23" s="13"/>
-      <c r="G23" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="H23" s="13" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="24" spans="2:8" ht="27" hidden="1" thickBot="1">
-      <c r="B24" s="21" t="s">
-        <v>27</v>
-      </c>
-      <c r="C24" s="13" t="s">
-        <v>64</v>
-      </c>
-      <c r="D24" s="14" t="s">
-        <v>65</v>
-      </c>
-      <c r="E24" s="13" t="s">
-        <v>52</v>
-      </c>
-      <c r="F24" s="13"/>
-      <c r="G24" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="H24" s="13" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="25" spans="2:8" ht="18" hidden="1" thickBot="1">
-      <c r="B25" s="21" t="s">
-        <v>31</v>
-      </c>
-      <c r="C25" s="13" t="s">
-        <v>66</v>
-      </c>
-      <c r="D25" s="14" t="s">
-        <v>67</v>
-      </c>
-      <c r="E25" s="13" t="s">
-        <v>52</v>
-      </c>
-      <c r="F25" s="13"/>
-      <c r="G25" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="H25" s="13" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="26" spans="2:8" ht="18" hidden="1" thickBot="1">
-      <c r="B26" s="21" t="s">
-        <v>34</v>
-      </c>
-      <c r="C26" s="13" t="s">
-        <v>82</v>
-      </c>
-      <c r="D26" s="14" t="s">
-        <v>83</v>
-      </c>
-      <c r="E26" s="13" t="s">
-        <v>52</v>
-      </c>
-      <c r="F26" s="13"/>
-      <c r="G26" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="H26" s="13" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="27" spans="2:8" ht="91.8" hidden="1" thickBot="1">
-      <c r="B27" s="21" t="s">
-        <v>37</v>
-      </c>
-      <c r="C27" s="13" t="s">
-        <v>84</v>
-      </c>
-      <c r="D27" s="19" t="s">
-        <v>90</v>
-      </c>
-      <c r="E27" s="13" t="s">
-        <v>52</v>
-      </c>
-      <c r="F27" s="13"/>
-      <c r="G27" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="H27" s="13" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="28" spans="2:8" ht="18" hidden="1" thickBot="1">
-      <c r="B28" s="21" t="s">
-        <v>85</v>
-      </c>
-      <c r="C28" s="13" t="s">
-        <v>86</v>
-      </c>
-      <c r="D28" s="19" t="s">
-        <v>87</v>
-      </c>
-      <c r="E28" s="13" t="s">
-        <v>52</v>
-      </c>
-      <c r="F28" s="13"/>
-      <c r="G28" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="H28" s="16" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="29" spans="2:8" ht="31.8" hidden="1" thickBot="1">
-      <c r="B29" s="21" t="s">
-        <v>88</v>
-      </c>
-      <c r="C29" s="13" t="s">
-        <v>89</v>
-      </c>
-      <c r="D29" s="19" t="s">
-        <v>91</v>
-      </c>
-      <c r="E29" s="16" t="s">
-        <v>52</v>
-      </c>
-      <c r="F29" s="13"/>
-      <c r="G29" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="H29" s="16" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="30" spans="2:8" ht="18" hidden="1" thickBot="1">
-      <c r="B30" s="25" t="s">
-        <v>79</v>
-      </c>
-      <c r="C30" s="13" t="s">
-        <v>80</v>
-      </c>
-      <c r="D30" s="14" t="s">
-        <v>81</v>
-      </c>
-      <c r="E30" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="F30" s="13"/>
-      <c r="G30" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="H30" s="13" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="31" spans="2:8" ht="18" hidden="1" thickBot="1">
-      <c r="B31" s="25" t="s">
-        <v>92</v>
-      </c>
-      <c r="C31" s="13" t="s">
-        <v>93</v>
-      </c>
-      <c r="D31" s="14" t="s">
-        <v>96</v>
-      </c>
-      <c r="E31" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="F31" s="13"/>
-      <c r="G31" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="H31" s="13" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="32" spans="2:8" ht="18" hidden="1" thickBot="1">
-      <c r="B32" s="25" t="s">
-        <v>97</v>
-      </c>
-      <c r="C32" s="13" t="s">
-        <v>98</v>
-      </c>
-      <c r="D32" s="14" t="s">
-        <v>99</v>
-      </c>
-      <c r="E32" s="16" t="s">
-        <v>52</v>
-      </c>
-      <c r="F32" s="13"/>
-      <c r="G32" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="H32" s="13" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="33" spans="2:8" ht="18" hidden="1" thickBot="1">
-      <c r="B33" s="25" t="s">
-        <v>101</v>
-      </c>
-      <c r="C33" s="13" t="s">
-        <v>102</v>
-      </c>
-      <c r="D33" s="14" t="s">
-        <v>103</v>
-      </c>
-      <c r="E33" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="F33" s="13"/>
-      <c r="G33" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="H33" s="13" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="34" spans="2:8" ht="18" hidden="1" thickBot="1">
-      <c r="B34" s="25" t="s">
-        <v>104</v>
-      </c>
-      <c r="C34" s="13" t="s">
-        <v>105</v>
-      </c>
-      <c r="D34" s="14" t="s">
-        <v>106</v>
-      </c>
-      <c r="E34" s="16" t="s">
-        <v>52</v>
-      </c>
-      <c r="F34" s="13"/>
-      <c r="G34" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="H34" s="13" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="35" spans="2:8" ht="18" hidden="1" thickBot="1">
-      <c r="B35" s="21" t="s">
-        <v>108</v>
-      </c>
-      <c r="C35" s="17" t="s">
-        <v>111</v>
-      </c>
-      <c r="D35" s="14" t="s">
-        <v>109</v>
-      </c>
-      <c r="E35" s="13" t="s">
-        <v>52</v>
-      </c>
-      <c r="F35" s="13"/>
-      <c r="G35" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="H35" s="13" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="36" spans="2:8" ht="18" hidden="1" thickBot="1">
-      <c r="B36" s="21" t="s">
-        <v>110</v>
-      </c>
-      <c r="C36" s="17" t="s">
-        <v>112</v>
-      </c>
-      <c r="D36" s="19" t="s">
-        <v>113</v>
-      </c>
-      <c r="E36" s="13" t="s">
-        <v>52</v>
-      </c>
-      <c r="F36" s="13"/>
-      <c r="G36" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="H36" s="13" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="37" spans="2:8" ht="18" hidden="1" thickBot="1">
-      <c r="B37" s="21" t="s">
-        <v>114</v>
-      </c>
-      <c r="C37" s="17" t="s">
-        <v>115</v>
-      </c>
-      <c r="D37" s="19" t="s">
-        <v>116</v>
-      </c>
-      <c r="E37" s="13" t="s">
-        <v>52</v>
-      </c>
-      <c r="F37" s="13"/>
-      <c r="G37" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="H37" s="13" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="38" spans="2:8" ht="18" hidden="1" thickBot="1">
-      <c r="B38" s="21" t="s">
-        <v>117</v>
-      </c>
-      <c r="C38" s="17" t="s">
-        <v>118</v>
-      </c>
-      <c r="D38" s="19" t="s">
-        <v>119</v>
-      </c>
-      <c r="E38" s="13" t="s">
-        <v>52</v>
-      </c>
-      <c r="F38" s="13"/>
-      <c r="G38" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="H38" s="13" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="39" spans="2:8" ht="18" hidden="1" thickBot="1">
-      <c r="B39" s="21" t="s">
-        <v>120</v>
-      </c>
-      <c r="C39" s="17" t="s">
-        <v>121</v>
-      </c>
-      <c r="D39" s="19" t="s">
-        <v>122</v>
-      </c>
-      <c r="E39" s="13" t="s">
-        <v>52</v>
-      </c>
-      <c r="F39" s="13"/>
-      <c r="G39" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="H39" s="13" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="40" spans="2:8" ht="18" hidden="1" thickBot="1">
-      <c r="B40" s="21" t="s">
-        <v>123</v>
-      </c>
-      <c r="C40" s="17" t="s">
-        <v>124</v>
-      </c>
-      <c r="D40" s="19"/>
-      <c r="E40" s="13" t="s">
-        <v>52</v>
-      </c>
-      <c r="F40" s="13"/>
-      <c r="G40" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="H40" s="13"/>
-    </row>
-    <row r="41" spans="2:8" ht="18" hidden="1" thickBot="1">
-      <c r="B41" s="21" t="s">
-        <v>110</v>
-      </c>
-      <c r="C41" s="17" t="s">
-        <v>112</v>
-      </c>
-      <c r="D41" s="19" t="s">
-        <v>113</v>
-      </c>
-      <c r="E41" s="13" t="s">
-        <v>52</v>
-      </c>
-      <c r="F41" s="13"/>
-      <c r="G41" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="H41" s="13" t="s">
+      <c r="H42" s="12" t="s">
         <v>25</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="B7:H41" xr:uid="{08681459-A406-4CEE-9A8A-D3DF83B63176}">
-    <filterColumn colId="0">
-      <filters>
-        <filter val="V001"/>
-        <filter val="V002"/>
-        <filter val="V003"/>
-        <filter val="V004"/>
-        <filter val="V005"/>
-        <filter val="V006"/>
-        <filter val="V007"/>
-      </filters>
-    </filterColumn>
+  <autoFilter ref="B8:H42" xr:uid="{08681459-A406-4CEE-9A8A-D3DF83B63176}">
     <filterColumn colId="3" showButton="0"/>
   </autoFilter>
   <mergeCells count="7">
-    <mergeCell ref="G7:G8"/>
-    <mergeCell ref="H7:H8"/>
+    <mergeCell ref="G8:G9"/>
+    <mergeCell ref="H8:H9"/>
     <mergeCell ref="B2:C2"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="E8:F8"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{486901C1-BA96-4640-9F0A-E020AF5972D3}">
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="1" max="1" width="11.625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>123</v>
+      </c>
+      <c r="B1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>124</v>
+      </c>
+      <c r="B2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>125</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{824FDF58-95A4-4607-B006-2DB2375944C9}">
+  <dimension ref="A1:AL38"/>
+  <sheetViews>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="Q24" sqref="Q24:Q38"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="1" max="1" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="12.75" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:38">
+      <c r="A1" t="s">
+        <v>130</v>
+      </c>
+      <c r="B1" t="s">
+        <v>129</v>
+      </c>
+      <c r="C1" t="s">
+        <v>131</v>
+      </c>
+      <c r="D1" t="s">
+        <v>127</v>
+      </c>
+      <c r="E1" s="29" t="s">
+        <v>140</v>
+      </c>
+      <c r="F1" s="29"/>
+      <c r="G1" s="29">
+        <v>1</v>
+      </c>
+      <c r="H1" s="29" t="s">
+        <v>141</v>
+      </c>
+      <c r="I1" t="s">
+        <v>128</v>
+      </c>
+      <c r="J1" s="30" t="s">
+        <v>132</v>
+      </c>
+      <c r="K1" t="s">
+        <v>128</v>
+      </c>
+      <c r="L1" s="30" t="s">
+        <v>140</v>
+      </c>
+      <c r="M1" s="30">
+        <v>1</v>
+      </c>
+      <c r="N1" s="30" t="s">
+        <v>145</v>
+      </c>
+      <c r="O1" t="s">
+        <v>128</v>
+      </c>
+      <c r="P1" s="30" t="s">
+        <v>133</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>128</v>
+      </c>
+      <c r="R1" t="s">
+        <v>134</v>
+      </c>
+      <c r="S1" t="s">
+        <v>128</v>
+      </c>
+      <c r="T1" t="s">
+        <v>134</v>
+      </c>
+      <c r="U1" t="s">
+        <v>128</v>
+      </c>
+      <c r="V1" s="30" t="s">
+        <v>135</v>
+      </c>
+      <c r="W1" t="s">
+        <v>128</v>
+      </c>
+      <c r="X1" s="30" t="s">
+        <v>136</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>128</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>137</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>128</v>
+      </c>
+      <c r="AB1">
+        <f ca="1">RANDBETWEEN(170,185)</f>
+        <v>170</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>128</v>
+      </c>
+      <c r="AD1">
+        <f ca="1">RANDBETWEEN(70,80)</f>
+        <v>79</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>128</v>
+      </c>
+      <c r="AF1">
+        <f ca="1">RANDBETWEEN(0,1)</f>
+        <v>0</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>128</v>
+      </c>
+      <c r="AH1">
+        <f ca="1">RANDBETWEEN(0,1)</f>
+        <v>1</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>128</v>
+      </c>
+      <c r="AJ1" s="30" t="s">
+        <v>138</v>
+      </c>
+      <c r="AK1" s="30" t="s">
+        <v>139</v>
+      </c>
+      <c r="AL1" t="str">
+        <f ca="1">_xlfn.CONCAT(A1:AK1)</f>
+        <v>INSERT INTO user(email, pass, name, phone_num, user_reg_date, recent_login, main_foot, position, api_key, height, weight, was_pro, gender, born_date) VALUES('bioman1@gmail.com','1234','bioman1','010-1234-5678',sysdate(),sysdate(),'왼발','FW',null,170,79,0,1,'1995-06-01');</v>
+      </c>
+    </row>
+    <row r="2" spans="1:38">
+      <c r="A2" t="s">
+        <v>130</v>
+      </c>
+      <c r="B2" t="s">
+        <v>129</v>
+      </c>
+      <c r="C2" t="s">
+        <v>131</v>
+      </c>
+      <c r="D2" t="s">
+        <v>127</v>
+      </c>
+      <c r="E2" s="29" t="s">
+        <v>140</v>
+      </c>
+      <c r="F2" s="29"/>
+      <c r="G2" s="29">
+        <v>2</v>
+      </c>
+      <c r="H2" s="29" t="s">
+        <v>141</v>
+      </c>
+      <c r="I2" t="s">
+        <v>128</v>
+      </c>
+      <c r="J2" s="30" t="s">
+        <v>132</v>
+      </c>
+      <c r="K2" t="s">
+        <v>128</v>
+      </c>
+      <c r="L2" s="30" t="s">
+        <v>140</v>
+      </c>
+      <c r="M2" s="30">
+        <v>1</v>
+      </c>
+      <c r="N2" s="30" t="s">
+        <v>145</v>
+      </c>
+      <c r="O2" t="s">
+        <v>128</v>
+      </c>
+      <c r="P2" s="30" t="s">
+        <v>133</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>128</v>
+      </c>
+      <c r="R2" t="s">
+        <v>134</v>
+      </c>
+      <c r="S2" t="s">
+        <v>128</v>
+      </c>
+      <c r="T2" t="s">
+        <v>134</v>
+      </c>
+      <c r="U2" t="s">
+        <v>128</v>
+      </c>
+      <c r="V2" s="30" t="s">
+        <v>142</v>
+      </c>
+      <c r="W2" t="s">
+        <v>128</v>
+      </c>
+      <c r="X2" s="30" t="s">
+        <v>143</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>128</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>137</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>128</v>
+      </c>
+      <c r="AB2">
+        <f t="shared" ref="AB2:AB17" ca="1" si="0">RANDBETWEEN(170,185)</f>
+        <v>177</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>128</v>
+      </c>
+      <c r="AD2">
+        <f t="shared" ref="AD2:AD17" ca="1" si="1">RANDBETWEEN(70,80)</f>
+        <v>70</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>128</v>
+      </c>
+      <c r="AF2">
+        <f t="shared" ref="AF2:AF17" ca="1" si="2">RANDBETWEEN(0,1)</f>
+        <v>0</v>
+      </c>
+      <c r="AG2" t="s">
+        <v>128</v>
+      </c>
+      <c r="AH2">
+        <f t="shared" ref="AH2:AH17" ca="1" si="3">RANDBETWEEN(0,1)</f>
+        <v>1</v>
+      </c>
+      <c r="AI2" t="s">
+        <v>128</v>
+      </c>
+      <c r="AJ2" s="30" t="s">
+        <v>138</v>
+      </c>
+      <c r="AK2" s="30" t="s">
+        <v>139</v>
+      </c>
+      <c r="AL2" t="str">
+        <f t="shared" ref="AL2:AL17" ca="1" si="4">_xlfn.CONCAT(A2:AK2)</f>
+        <v>INSERT INTO user(email, pass, name, phone_num, user_reg_date, recent_login, main_foot, position, api_key, height, weight, was_pro, gender, born_date) VALUES('bioman2@gmail.com','1234','bioman1','010-1234-5678',sysdate(),sysdate(),'오른발','MF',null,177,70,0,1,'1995-06-01');</v>
+      </c>
+    </row>
+    <row r="3" spans="1:38">
+      <c r="A3" t="s">
+        <v>130</v>
+      </c>
+      <c r="B3" t="s">
+        <v>129</v>
+      </c>
+      <c r="C3" t="s">
+        <v>131</v>
+      </c>
+      <c r="D3" t="s">
+        <v>127</v>
+      </c>
+      <c r="E3" s="29" t="s">
+        <v>140</v>
+      </c>
+      <c r="F3" s="29"/>
+      <c r="G3" s="29">
+        <v>3</v>
+      </c>
+      <c r="H3" s="29" t="s">
+        <v>141</v>
+      </c>
+      <c r="I3" t="s">
+        <v>128</v>
+      </c>
+      <c r="J3" s="30" t="s">
+        <v>132</v>
+      </c>
+      <c r="K3" t="s">
+        <v>128</v>
+      </c>
+      <c r="L3" s="30" t="s">
+        <v>140</v>
+      </c>
+      <c r="M3" s="30">
+        <v>1</v>
+      </c>
+      <c r="N3" s="30" t="s">
+        <v>145</v>
+      </c>
+      <c r="O3" t="s">
+        <v>128</v>
+      </c>
+      <c r="P3" s="30" t="s">
+        <v>133</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>128</v>
+      </c>
+      <c r="R3" t="s">
+        <v>134</v>
+      </c>
+      <c r="S3" t="s">
+        <v>128</v>
+      </c>
+      <c r="T3" t="s">
+        <v>134</v>
+      </c>
+      <c r="U3" t="s">
+        <v>128</v>
+      </c>
+      <c r="V3" s="30" t="s">
+        <v>135</v>
+      </c>
+      <c r="W3" t="s">
+        <v>128</v>
+      </c>
+      <c r="X3" s="30" t="s">
+        <v>144</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>128</v>
+      </c>
+      <c r="Z3" t="s">
+        <v>137</v>
+      </c>
+      <c r="AA3" t="s">
+        <v>128</v>
+      </c>
+      <c r="AB3">
+        <f t="shared" ca="1" si="0"/>
+        <v>181</v>
+      </c>
+      <c r="AC3" t="s">
+        <v>128</v>
+      </c>
+      <c r="AD3">
+        <f t="shared" ca="1" si="1"/>
+        <v>70</v>
+      </c>
+      <c r="AE3" t="s">
+        <v>128</v>
+      </c>
+      <c r="AF3">
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AG3" t="s">
+        <v>128</v>
+      </c>
+      <c r="AH3">
+        <f t="shared" ca="1" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="AI3" t="s">
+        <v>128</v>
+      </c>
+      <c r="AJ3" s="30" t="s">
+        <v>138</v>
+      </c>
+      <c r="AK3" s="30" t="s">
+        <v>139</v>
+      </c>
+      <c r="AL3" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v>INSERT INTO user(email, pass, name, phone_num, user_reg_date, recent_login, main_foot, position, api_key, height, weight, was_pro, gender, born_date) VALUES('bioman3@gmail.com','1234','bioman1','010-1234-5678',sysdate(),sysdate(),'왼발','DF',null,181,70,0,1,'1995-06-01');</v>
+      </c>
+    </row>
+    <row r="4" spans="1:38">
+      <c r="A4" t="s">
+        <v>130</v>
+      </c>
+      <c r="B4" t="s">
+        <v>129</v>
+      </c>
+      <c r="C4" t="s">
+        <v>131</v>
+      </c>
+      <c r="D4" t="s">
+        <v>127</v>
+      </c>
+      <c r="E4" s="29" t="s">
+        <v>140</v>
+      </c>
+      <c r="F4" s="29"/>
+      <c r="G4" s="29">
+        <v>4</v>
+      </c>
+      <c r="H4" s="29" t="s">
+        <v>141</v>
+      </c>
+      <c r="I4" t="s">
+        <v>128</v>
+      </c>
+      <c r="J4" s="30" t="s">
+        <v>132</v>
+      </c>
+      <c r="K4" t="s">
+        <v>128</v>
+      </c>
+      <c r="L4" s="30" t="s">
+        <v>140</v>
+      </c>
+      <c r="M4" s="30">
+        <v>1</v>
+      </c>
+      <c r="N4" s="30" t="s">
+        <v>145</v>
+      </c>
+      <c r="O4" t="s">
+        <v>128</v>
+      </c>
+      <c r="P4" s="30" t="s">
+        <v>133</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>128</v>
+      </c>
+      <c r="R4" t="s">
+        <v>134</v>
+      </c>
+      <c r="S4" t="s">
+        <v>128</v>
+      </c>
+      <c r="T4" t="s">
+        <v>134</v>
+      </c>
+      <c r="U4" t="s">
+        <v>128</v>
+      </c>
+      <c r="V4" s="30" t="s">
+        <v>142</v>
+      </c>
+      <c r="W4" t="s">
+        <v>128</v>
+      </c>
+      <c r="X4" s="30" t="s">
+        <v>136</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>128</v>
+      </c>
+      <c r="Z4" t="s">
+        <v>137</v>
+      </c>
+      <c r="AA4" t="s">
+        <v>128</v>
+      </c>
+      <c r="AB4">
+        <f t="shared" ca="1" si="0"/>
+        <v>174</v>
+      </c>
+      <c r="AC4" t="s">
+        <v>128</v>
+      </c>
+      <c r="AD4">
+        <f t="shared" ca="1" si="1"/>
+        <v>76</v>
+      </c>
+      <c r="AE4" t="s">
+        <v>128</v>
+      </c>
+      <c r="AF4">
+        <f t="shared" ca="1" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="AG4" t="s">
+        <v>128</v>
+      </c>
+      <c r="AH4">
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AI4" t="s">
+        <v>128</v>
+      </c>
+      <c r="AJ4" s="30" t="s">
+        <v>138</v>
+      </c>
+      <c r="AK4" s="30" t="s">
+        <v>139</v>
+      </c>
+      <c r="AL4" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v>INSERT INTO user(email, pass, name, phone_num, user_reg_date, recent_login, main_foot, position, api_key, height, weight, was_pro, gender, born_date) VALUES('bioman4@gmail.com','1234','bioman1','010-1234-5678',sysdate(),sysdate(),'오른발','FW',null,174,76,1,0,'1995-06-01');</v>
+      </c>
+    </row>
+    <row r="5" spans="1:38">
+      <c r="A5" t="s">
+        <v>130</v>
+      </c>
+      <c r="B5" t="s">
+        <v>129</v>
+      </c>
+      <c r="C5" t="s">
+        <v>131</v>
+      </c>
+      <c r="D5" t="s">
+        <v>127</v>
+      </c>
+      <c r="E5" s="29" t="s">
+        <v>140</v>
+      </c>
+      <c r="F5" s="29"/>
+      <c r="G5" s="29">
+        <v>5</v>
+      </c>
+      <c r="H5" s="29" t="s">
+        <v>141</v>
+      </c>
+      <c r="I5" t="s">
+        <v>128</v>
+      </c>
+      <c r="J5" s="30" t="s">
+        <v>132</v>
+      </c>
+      <c r="K5" t="s">
+        <v>128</v>
+      </c>
+      <c r="L5" s="30" t="s">
+        <v>140</v>
+      </c>
+      <c r="M5" s="30">
+        <v>1</v>
+      </c>
+      <c r="N5" s="30" t="s">
+        <v>145</v>
+      </c>
+      <c r="O5" t="s">
+        <v>128</v>
+      </c>
+      <c r="P5" s="30" t="s">
+        <v>133</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>128</v>
+      </c>
+      <c r="R5" t="s">
+        <v>134</v>
+      </c>
+      <c r="S5" t="s">
+        <v>128</v>
+      </c>
+      <c r="T5" t="s">
+        <v>134</v>
+      </c>
+      <c r="U5" t="s">
+        <v>128</v>
+      </c>
+      <c r="V5" s="30" t="s">
+        <v>135</v>
+      </c>
+      <c r="W5" t="s">
+        <v>128</v>
+      </c>
+      <c r="X5" s="30" t="s">
+        <v>143</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>128</v>
+      </c>
+      <c r="Z5" t="s">
+        <v>137</v>
+      </c>
+      <c r="AA5" t="s">
+        <v>128</v>
+      </c>
+      <c r="AB5">
+        <f t="shared" ca="1" si="0"/>
+        <v>184</v>
+      </c>
+      <c r="AC5" t="s">
+        <v>128</v>
+      </c>
+      <c r="AD5">
+        <f t="shared" ca="1" si="1"/>
+        <v>73</v>
+      </c>
+      <c r="AE5" t="s">
+        <v>128</v>
+      </c>
+      <c r="AF5">
+        <f t="shared" ca="1" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="AG5" t="s">
+        <v>128</v>
+      </c>
+      <c r="AH5">
+        <f t="shared" ca="1" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="AI5" t="s">
+        <v>128</v>
+      </c>
+      <c r="AJ5" s="30" t="s">
+        <v>138</v>
+      </c>
+      <c r="AK5" s="30" t="s">
+        <v>139</v>
+      </c>
+      <c r="AL5" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v>INSERT INTO user(email, pass, name, phone_num, user_reg_date, recent_login, main_foot, position, api_key, height, weight, was_pro, gender, born_date) VALUES('bioman5@gmail.com','1234','bioman1','010-1234-5678',sysdate(),sysdate(),'왼발','MF',null,184,73,1,1,'1995-06-01');</v>
+      </c>
+    </row>
+    <row r="6" spans="1:38">
+      <c r="A6" t="s">
+        <v>130</v>
+      </c>
+      <c r="B6" t="s">
+        <v>129</v>
+      </c>
+      <c r="C6" t="s">
+        <v>131</v>
+      </c>
+      <c r="D6" t="s">
+        <v>127</v>
+      </c>
+      <c r="E6" s="29" t="s">
+        <v>140</v>
+      </c>
+      <c r="F6" s="29"/>
+      <c r="G6" s="29">
+        <v>6</v>
+      </c>
+      <c r="H6" s="29" t="s">
+        <v>141</v>
+      </c>
+      <c r="I6" t="s">
+        <v>128</v>
+      </c>
+      <c r="J6" s="30" t="s">
+        <v>132</v>
+      </c>
+      <c r="K6" t="s">
+        <v>128</v>
+      </c>
+      <c r="L6" s="30" t="s">
+        <v>140</v>
+      </c>
+      <c r="M6" s="30">
+        <v>1</v>
+      </c>
+      <c r="N6" s="30" t="s">
+        <v>145</v>
+      </c>
+      <c r="O6" t="s">
+        <v>128</v>
+      </c>
+      <c r="P6" s="30" t="s">
+        <v>133</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>128</v>
+      </c>
+      <c r="R6" t="s">
+        <v>134</v>
+      </c>
+      <c r="S6" t="s">
+        <v>128</v>
+      </c>
+      <c r="T6" t="s">
+        <v>134</v>
+      </c>
+      <c r="U6" t="s">
+        <v>128</v>
+      </c>
+      <c r="V6" s="30" t="s">
+        <v>142</v>
+      </c>
+      <c r="W6" t="s">
+        <v>128</v>
+      </c>
+      <c r="X6" s="30" t="s">
+        <v>144</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>128</v>
+      </c>
+      <c r="Z6" t="s">
+        <v>137</v>
+      </c>
+      <c r="AA6" t="s">
+        <v>128</v>
+      </c>
+      <c r="AB6">
+        <f t="shared" ca="1" si="0"/>
+        <v>171</v>
+      </c>
+      <c r="AC6" t="s">
+        <v>128</v>
+      </c>
+      <c r="AD6">
+        <f t="shared" ca="1" si="1"/>
+        <v>70</v>
+      </c>
+      <c r="AE6" t="s">
+        <v>128</v>
+      </c>
+      <c r="AF6">
+        <f t="shared" ca="1" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="AG6" t="s">
+        <v>128</v>
+      </c>
+      <c r="AH6">
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AI6" t="s">
+        <v>128</v>
+      </c>
+      <c r="AJ6" s="30" t="s">
+        <v>138</v>
+      </c>
+      <c r="AK6" s="30" t="s">
+        <v>139</v>
+      </c>
+      <c r="AL6" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v>INSERT INTO user(email, pass, name, phone_num, user_reg_date, recent_login, main_foot, position, api_key, height, weight, was_pro, gender, born_date) VALUES('bioman6@gmail.com','1234','bioman1','010-1234-5678',sysdate(),sysdate(),'오른발','DF',null,171,70,1,0,'1995-06-01');</v>
+      </c>
+    </row>
+    <row r="7" spans="1:38">
+      <c r="A7" t="s">
+        <v>130</v>
+      </c>
+      <c r="B7" t="s">
+        <v>129</v>
+      </c>
+      <c r="C7" t="s">
+        <v>131</v>
+      </c>
+      <c r="D7" t="s">
+        <v>127</v>
+      </c>
+      <c r="E7" s="29" t="s">
+        <v>140</v>
+      </c>
+      <c r="F7" s="29"/>
+      <c r="G7" s="29">
+        <v>7</v>
+      </c>
+      <c r="H7" s="29" t="s">
+        <v>141</v>
+      </c>
+      <c r="I7" t="s">
+        <v>128</v>
+      </c>
+      <c r="J7" s="30" t="s">
+        <v>132</v>
+      </c>
+      <c r="K7" t="s">
+        <v>128</v>
+      </c>
+      <c r="L7" s="30" t="s">
+        <v>140</v>
+      </c>
+      <c r="M7" s="30">
+        <v>1</v>
+      </c>
+      <c r="N7" s="30" t="s">
+        <v>145</v>
+      </c>
+      <c r="O7" t="s">
+        <v>128</v>
+      </c>
+      <c r="P7" s="30" t="s">
+        <v>133</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>128</v>
+      </c>
+      <c r="R7" t="s">
+        <v>134</v>
+      </c>
+      <c r="S7" t="s">
+        <v>128</v>
+      </c>
+      <c r="T7" t="s">
+        <v>134</v>
+      </c>
+      <c r="U7" t="s">
+        <v>128</v>
+      </c>
+      <c r="V7" s="30" t="s">
+        <v>135</v>
+      </c>
+      <c r="W7" t="s">
+        <v>128</v>
+      </c>
+      <c r="X7" s="30" t="s">
+        <v>136</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>128</v>
+      </c>
+      <c r="Z7" t="s">
+        <v>137</v>
+      </c>
+      <c r="AA7" t="s">
+        <v>128</v>
+      </c>
+      <c r="AB7">
+        <f t="shared" ca="1" si="0"/>
+        <v>178</v>
+      </c>
+      <c r="AC7" t="s">
+        <v>128</v>
+      </c>
+      <c r="AD7">
+        <f t="shared" ca="1" si="1"/>
+        <v>72</v>
+      </c>
+      <c r="AE7" t="s">
+        <v>128</v>
+      </c>
+      <c r="AF7">
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AG7" t="s">
+        <v>128</v>
+      </c>
+      <c r="AH7">
+        <f t="shared" ca="1" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="AI7" t="s">
+        <v>128</v>
+      </c>
+      <c r="AJ7" s="30" t="s">
+        <v>138</v>
+      </c>
+      <c r="AK7" s="30" t="s">
+        <v>139</v>
+      </c>
+      <c r="AL7" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v>INSERT INTO user(email, pass, name, phone_num, user_reg_date, recent_login, main_foot, position, api_key, height, weight, was_pro, gender, born_date) VALUES('bioman7@gmail.com','1234','bioman1','010-1234-5678',sysdate(),sysdate(),'왼발','FW',null,178,72,0,1,'1995-06-01');</v>
+      </c>
+    </row>
+    <row r="8" spans="1:38">
+      <c r="A8" t="s">
+        <v>130</v>
+      </c>
+      <c r="B8" t="s">
+        <v>129</v>
+      </c>
+      <c r="C8" t="s">
+        <v>131</v>
+      </c>
+      <c r="D8" t="s">
+        <v>127</v>
+      </c>
+      <c r="E8" s="29" t="s">
+        <v>140</v>
+      </c>
+      <c r="F8" s="29"/>
+      <c r="G8" s="29">
+        <v>8</v>
+      </c>
+      <c r="H8" s="29" t="s">
+        <v>141</v>
+      </c>
+      <c r="I8" t="s">
+        <v>128</v>
+      </c>
+      <c r="J8" s="30" t="s">
+        <v>132</v>
+      </c>
+      <c r="K8" t="s">
+        <v>128</v>
+      </c>
+      <c r="L8" s="30" t="s">
+        <v>140</v>
+      </c>
+      <c r="M8" s="30">
+        <v>1</v>
+      </c>
+      <c r="N8" s="30" t="s">
+        <v>145</v>
+      </c>
+      <c r="O8" t="s">
+        <v>128</v>
+      </c>
+      <c r="P8" s="30" t="s">
+        <v>133</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>128</v>
+      </c>
+      <c r="R8" t="s">
+        <v>134</v>
+      </c>
+      <c r="S8" t="s">
+        <v>128</v>
+      </c>
+      <c r="T8" t="s">
+        <v>134</v>
+      </c>
+      <c r="U8" t="s">
+        <v>128</v>
+      </c>
+      <c r="V8" s="30" t="s">
+        <v>142</v>
+      </c>
+      <c r="W8" t="s">
+        <v>128</v>
+      </c>
+      <c r="X8" s="30" t="s">
+        <v>143</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>128</v>
+      </c>
+      <c r="Z8" t="s">
+        <v>137</v>
+      </c>
+      <c r="AA8" t="s">
+        <v>128</v>
+      </c>
+      <c r="AB8">
+        <f t="shared" ca="1" si="0"/>
+        <v>176</v>
+      </c>
+      <c r="AC8" t="s">
+        <v>128</v>
+      </c>
+      <c r="AD8">
+        <f t="shared" ca="1" si="1"/>
+        <v>71</v>
+      </c>
+      <c r="AE8" t="s">
+        <v>128</v>
+      </c>
+      <c r="AF8">
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AG8" t="s">
+        <v>128</v>
+      </c>
+      <c r="AH8">
+        <f t="shared" ca="1" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="AI8" t="s">
+        <v>128</v>
+      </c>
+      <c r="AJ8" s="30" t="s">
+        <v>138</v>
+      </c>
+      <c r="AK8" s="30" t="s">
+        <v>139</v>
+      </c>
+      <c r="AL8" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v>INSERT INTO user(email, pass, name, phone_num, user_reg_date, recent_login, main_foot, position, api_key, height, weight, was_pro, gender, born_date) VALUES('bioman8@gmail.com','1234','bioman1','010-1234-5678',sysdate(),sysdate(),'오른발','MF',null,176,71,0,1,'1995-06-01');</v>
+      </c>
+    </row>
+    <row r="9" spans="1:38">
+      <c r="A9" t="s">
+        <v>130</v>
+      </c>
+      <c r="B9" t="s">
+        <v>129</v>
+      </c>
+      <c r="C9" t="s">
+        <v>131</v>
+      </c>
+      <c r="D9" t="s">
+        <v>127</v>
+      </c>
+      <c r="E9" s="29" t="s">
+        <v>140</v>
+      </c>
+      <c r="F9" s="29"/>
+      <c r="G9" s="29">
+        <v>9</v>
+      </c>
+      <c r="H9" s="29" t="s">
+        <v>141</v>
+      </c>
+      <c r="I9" t="s">
+        <v>128</v>
+      </c>
+      <c r="J9" s="30" t="s">
+        <v>132</v>
+      </c>
+      <c r="K9" t="s">
+        <v>128</v>
+      </c>
+      <c r="L9" s="30" t="s">
+        <v>140</v>
+      </c>
+      <c r="M9" s="30">
+        <v>1</v>
+      </c>
+      <c r="N9" s="30" t="s">
+        <v>145</v>
+      </c>
+      <c r="O9" t="s">
+        <v>128</v>
+      </c>
+      <c r="P9" s="30" t="s">
+        <v>133</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>128</v>
+      </c>
+      <c r="R9" t="s">
+        <v>134</v>
+      </c>
+      <c r="S9" t="s">
+        <v>128</v>
+      </c>
+      <c r="T9" t="s">
+        <v>134</v>
+      </c>
+      <c r="U9" t="s">
+        <v>128</v>
+      </c>
+      <c r="V9" s="30" t="s">
+        <v>135</v>
+      </c>
+      <c r="W9" t="s">
+        <v>128</v>
+      </c>
+      <c r="X9" s="30" t="s">
+        <v>144</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>128</v>
+      </c>
+      <c r="Z9" t="s">
+        <v>137</v>
+      </c>
+      <c r="AA9" t="s">
+        <v>128</v>
+      </c>
+      <c r="AB9">
+        <f t="shared" ca="1" si="0"/>
+        <v>173</v>
+      </c>
+      <c r="AC9" t="s">
+        <v>128</v>
+      </c>
+      <c r="AD9">
+        <f t="shared" ca="1" si="1"/>
+        <v>78</v>
+      </c>
+      <c r="AE9" t="s">
+        <v>128</v>
+      </c>
+      <c r="AF9">
+        <f t="shared" ca="1" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="AG9" t="s">
+        <v>128</v>
+      </c>
+      <c r="AH9">
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AI9" t="s">
+        <v>128</v>
+      </c>
+      <c r="AJ9" s="30" t="s">
+        <v>138</v>
+      </c>
+      <c r="AK9" s="30" t="s">
+        <v>139</v>
+      </c>
+      <c r="AL9" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v>INSERT INTO user(email, pass, name, phone_num, user_reg_date, recent_login, main_foot, position, api_key, height, weight, was_pro, gender, born_date) VALUES('bioman9@gmail.com','1234','bioman1','010-1234-5678',sysdate(),sysdate(),'왼발','DF',null,173,78,1,0,'1995-06-01');</v>
+      </c>
+    </row>
+    <row r="10" spans="1:38">
+      <c r="A10" t="s">
+        <v>130</v>
+      </c>
+      <c r="B10" t="s">
+        <v>129</v>
+      </c>
+      <c r="C10" t="s">
+        <v>131</v>
+      </c>
+      <c r="D10" t="s">
+        <v>127</v>
+      </c>
+      <c r="E10" s="29" t="s">
+        <v>140</v>
+      </c>
+      <c r="F10" s="29"/>
+      <c r="G10" s="29">
+        <v>10</v>
+      </c>
+      <c r="H10" s="29" t="s">
+        <v>141</v>
+      </c>
+      <c r="I10" t="s">
+        <v>128</v>
+      </c>
+      <c r="J10" s="30" t="s">
+        <v>132</v>
+      </c>
+      <c r="K10" t="s">
+        <v>128</v>
+      </c>
+      <c r="L10" s="30" t="s">
+        <v>140</v>
+      </c>
+      <c r="M10" s="30">
+        <v>1</v>
+      </c>
+      <c r="N10" s="30" t="s">
+        <v>145</v>
+      </c>
+      <c r="O10" t="s">
+        <v>128</v>
+      </c>
+      <c r="P10" s="30" t="s">
+        <v>133</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>128</v>
+      </c>
+      <c r="R10" t="s">
+        <v>134</v>
+      </c>
+      <c r="S10" t="s">
+        <v>128</v>
+      </c>
+      <c r="T10" t="s">
+        <v>134</v>
+      </c>
+      <c r="U10" t="s">
+        <v>128</v>
+      </c>
+      <c r="V10" s="30" t="s">
+        <v>142</v>
+      </c>
+      <c r="W10" t="s">
+        <v>128</v>
+      </c>
+      <c r="X10" s="30" t="s">
+        <v>136</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>128</v>
+      </c>
+      <c r="Z10" t="s">
+        <v>137</v>
+      </c>
+      <c r="AA10" t="s">
+        <v>128</v>
+      </c>
+      <c r="AB10">
+        <f t="shared" ca="1" si="0"/>
+        <v>182</v>
+      </c>
+      <c r="AC10" t="s">
+        <v>128</v>
+      </c>
+      <c r="AD10">
+        <f t="shared" ca="1" si="1"/>
+        <v>78</v>
+      </c>
+      <c r="AE10" t="s">
+        <v>128</v>
+      </c>
+      <c r="AF10">
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AG10" t="s">
+        <v>128</v>
+      </c>
+      <c r="AH10">
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AI10" t="s">
+        <v>128</v>
+      </c>
+      <c r="AJ10" s="30" t="s">
+        <v>138</v>
+      </c>
+      <c r="AK10" s="30" t="s">
+        <v>139</v>
+      </c>
+      <c r="AL10" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v>INSERT INTO user(email, pass, name, phone_num, user_reg_date, recent_login, main_foot, position, api_key, height, weight, was_pro, gender, born_date) VALUES('bioman10@gmail.com','1234','bioman1','010-1234-5678',sysdate(),sysdate(),'오른발','FW',null,182,78,0,0,'1995-06-01');</v>
+      </c>
+    </row>
+    <row r="11" spans="1:38">
+      <c r="A11" t="s">
+        <v>130</v>
+      </c>
+      <c r="B11" t="s">
+        <v>129</v>
+      </c>
+      <c r="C11" t="s">
+        <v>131</v>
+      </c>
+      <c r="D11" t="s">
+        <v>127</v>
+      </c>
+      <c r="E11" s="29" t="s">
+        <v>140</v>
+      </c>
+      <c r="F11" s="29"/>
+      <c r="G11" s="29">
+        <v>11</v>
+      </c>
+      <c r="H11" s="29" t="s">
+        <v>141</v>
+      </c>
+      <c r="I11" t="s">
+        <v>128</v>
+      </c>
+      <c r="J11" s="30" t="s">
+        <v>132</v>
+      </c>
+      <c r="K11" t="s">
+        <v>128</v>
+      </c>
+      <c r="L11" s="30" t="s">
+        <v>140</v>
+      </c>
+      <c r="M11" s="30">
+        <v>1</v>
+      </c>
+      <c r="N11" s="30" t="s">
+        <v>145</v>
+      </c>
+      <c r="O11" t="s">
+        <v>128</v>
+      </c>
+      <c r="P11" s="30" t="s">
+        <v>133</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>128</v>
+      </c>
+      <c r="R11" t="s">
+        <v>134</v>
+      </c>
+      <c r="S11" t="s">
+        <v>128</v>
+      </c>
+      <c r="T11" t="s">
+        <v>134</v>
+      </c>
+      <c r="U11" t="s">
+        <v>128</v>
+      </c>
+      <c r="V11" s="30" t="s">
+        <v>135</v>
+      </c>
+      <c r="W11" t="s">
+        <v>128</v>
+      </c>
+      <c r="X11" s="30" t="s">
+        <v>143</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>128</v>
+      </c>
+      <c r="Z11" t="s">
+        <v>137</v>
+      </c>
+      <c r="AA11" t="s">
+        <v>128</v>
+      </c>
+      <c r="AB11">
+        <f t="shared" ca="1" si="0"/>
+        <v>183</v>
+      </c>
+      <c r="AC11" t="s">
+        <v>128</v>
+      </c>
+      <c r="AD11">
+        <f t="shared" ca="1" si="1"/>
+        <v>78</v>
+      </c>
+      <c r="AE11" t="s">
+        <v>128</v>
+      </c>
+      <c r="AF11">
+        <f t="shared" ca="1" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="AG11" t="s">
+        <v>128</v>
+      </c>
+      <c r="AH11">
+        <f t="shared" ca="1" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="AI11" t="s">
+        <v>128</v>
+      </c>
+      <c r="AJ11" s="30" t="s">
+        <v>138</v>
+      </c>
+      <c r="AK11" s="30" t="s">
+        <v>139</v>
+      </c>
+      <c r="AL11" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v>INSERT INTO user(email, pass, name, phone_num, user_reg_date, recent_login, main_foot, position, api_key, height, weight, was_pro, gender, born_date) VALUES('bioman11@gmail.com','1234','bioman1','010-1234-5678',sysdate(),sysdate(),'왼발','MF',null,183,78,1,1,'1995-06-01');</v>
+      </c>
+    </row>
+    <row r="12" spans="1:38">
+      <c r="A12" t="s">
+        <v>130</v>
+      </c>
+      <c r="B12" t="s">
+        <v>129</v>
+      </c>
+      <c r="C12" t="s">
+        <v>131</v>
+      </c>
+      <c r="D12" t="s">
+        <v>127</v>
+      </c>
+      <c r="E12" s="29" t="s">
+        <v>140</v>
+      </c>
+      <c r="F12" s="29"/>
+      <c r="G12" s="29">
+        <v>12</v>
+      </c>
+      <c r="H12" s="29" t="s">
+        <v>141</v>
+      </c>
+      <c r="I12" t="s">
+        <v>128</v>
+      </c>
+      <c r="J12" s="30" t="s">
+        <v>132</v>
+      </c>
+      <c r="K12" t="s">
+        <v>128</v>
+      </c>
+      <c r="L12" s="30" t="s">
+        <v>140</v>
+      </c>
+      <c r="M12" s="30">
+        <v>1</v>
+      </c>
+      <c r="N12" s="30" t="s">
+        <v>145</v>
+      </c>
+      <c r="O12" t="s">
+        <v>128</v>
+      </c>
+      <c r="P12" s="30" t="s">
+        <v>133</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>128</v>
+      </c>
+      <c r="R12" t="s">
+        <v>134</v>
+      </c>
+      <c r="S12" t="s">
+        <v>128</v>
+      </c>
+      <c r="T12" t="s">
+        <v>134</v>
+      </c>
+      <c r="U12" t="s">
+        <v>128</v>
+      </c>
+      <c r="V12" s="30" t="s">
+        <v>142</v>
+      </c>
+      <c r="W12" t="s">
+        <v>128</v>
+      </c>
+      <c r="X12" s="30" t="s">
+        <v>144</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>128</v>
+      </c>
+      <c r="Z12" t="s">
+        <v>137</v>
+      </c>
+      <c r="AA12" t="s">
+        <v>128</v>
+      </c>
+      <c r="AB12">
+        <f t="shared" ca="1" si="0"/>
+        <v>177</v>
+      </c>
+      <c r="AC12" t="s">
+        <v>128</v>
+      </c>
+      <c r="AD12">
+        <f t="shared" ca="1" si="1"/>
+        <v>75</v>
+      </c>
+      <c r="AE12" t="s">
+        <v>128</v>
+      </c>
+      <c r="AF12">
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AG12" t="s">
+        <v>128</v>
+      </c>
+      <c r="AH12">
+        <f t="shared" ca="1" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="AI12" t="s">
+        <v>128</v>
+      </c>
+      <c r="AJ12" s="30" t="s">
+        <v>138</v>
+      </c>
+      <c r="AK12" s="30" t="s">
+        <v>139</v>
+      </c>
+      <c r="AL12" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v>INSERT INTO user(email, pass, name, phone_num, user_reg_date, recent_login, main_foot, position, api_key, height, weight, was_pro, gender, born_date) VALUES('bioman12@gmail.com','1234','bioman1','010-1234-5678',sysdate(),sysdate(),'오른발','DF',null,177,75,0,1,'1995-06-01');</v>
+      </c>
+    </row>
+    <row r="13" spans="1:38">
+      <c r="A13" t="s">
+        <v>130</v>
+      </c>
+      <c r="B13" t="s">
+        <v>129</v>
+      </c>
+      <c r="C13" t="s">
+        <v>131</v>
+      </c>
+      <c r="D13" t="s">
+        <v>127</v>
+      </c>
+      <c r="E13" s="29" t="s">
+        <v>140</v>
+      </c>
+      <c r="F13" s="29"/>
+      <c r="G13" s="29">
+        <v>13</v>
+      </c>
+      <c r="H13" s="29" t="s">
+        <v>141</v>
+      </c>
+      <c r="I13" t="s">
+        <v>128</v>
+      </c>
+      <c r="J13" s="30" t="s">
+        <v>132</v>
+      </c>
+      <c r="K13" t="s">
+        <v>128</v>
+      </c>
+      <c r="L13" s="30" t="s">
+        <v>140</v>
+      </c>
+      <c r="M13" s="30">
+        <v>1</v>
+      </c>
+      <c r="N13" s="30" t="s">
+        <v>145</v>
+      </c>
+      <c r="O13" t="s">
+        <v>128</v>
+      </c>
+      <c r="P13" s="30" t="s">
+        <v>133</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>128</v>
+      </c>
+      <c r="R13" t="s">
+        <v>134</v>
+      </c>
+      <c r="S13" t="s">
+        <v>128</v>
+      </c>
+      <c r="T13" t="s">
+        <v>134</v>
+      </c>
+      <c r="U13" t="s">
+        <v>128</v>
+      </c>
+      <c r="V13" s="30" t="s">
+        <v>135</v>
+      </c>
+      <c r="W13" t="s">
+        <v>128</v>
+      </c>
+      <c r="X13" s="30" t="s">
+        <v>136</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>128</v>
+      </c>
+      <c r="Z13" t="s">
+        <v>137</v>
+      </c>
+      <c r="AA13" t="s">
+        <v>128</v>
+      </c>
+      <c r="AB13">
+        <f t="shared" ca="1" si="0"/>
+        <v>184</v>
+      </c>
+      <c r="AC13" t="s">
+        <v>128</v>
+      </c>
+      <c r="AD13">
+        <f t="shared" ca="1" si="1"/>
+        <v>80</v>
+      </c>
+      <c r="AE13" t="s">
+        <v>128</v>
+      </c>
+      <c r="AF13">
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AG13" t="s">
+        <v>128</v>
+      </c>
+      <c r="AH13">
+        <f t="shared" ca="1" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="AI13" t="s">
+        <v>128</v>
+      </c>
+      <c r="AJ13" s="30" t="s">
+        <v>138</v>
+      </c>
+      <c r="AK13" s="30" t="s">
+        <v>139</v>
+      </c>
+      <c r="AL13" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v>INSERT INTO user(email, pass, name, phone_num, user_reg_date, recent_login, main_foot, position, api_key, height, weight, was_pro, gender, born_date) VALUES('bioman13@gmail.com','1234','bioman1','010-1234-5678',sysdate(),sysdate(),'왼발','FW',null,184,80,0,1,'1995-06-01');</v>
+      </c>
+    </row>
+    <row r="14" spans="1:38">
+      <c r="A14" t="s">
+        <v>130</v>
+      </c>
+      <c r="B14" t="s">
+        <v>129</v>
+      </c>
+      <c r="C14" t="s">
+        <v>131</v>
+      </c>
+      <c r="D14" t="s">
+        <v>127</v>
+      </c>
+      <c r="E14" s="29" t="s">
+        <v>140</v>
+      </c>
+      <c r="F14" s="29"/>
+      <c r="G14" s="29">
+        <v>14</v>
+      </c>
+      <c r="H14" s="29" t="s">
+        <v>141</v>
+      </c>
+      <c r="I14" t="s">
+        <v>128</v>
+      </c>
+      <c r="J14" s="30" t="s">
+        <v>132</v>
+      </c>
+      <c r="K14" t="s">
+        <v>128</v>
+      </c>
+      <c r="L14" s="30" t="s">
+        <v>140</v>
+      </c>
+      <c r="M14" s="30">
+        <v>1</v>
+      </c>
+      <c r="N14" s="30" t="s">
+        <v>145</v>
+      </c>
+      <c r="O14" t="s">
+        <v>128</v>
+      </c>
+      <c r="P14" s="30" t="s">
+        <v>133</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>128</v>
+      </c>
+      <c r="R14" t="s">
+        <v>134</v>
+      </c>
+      <c r="S14" t="s">
+        <v>128</v>
+      </c>
+      <c r="T14" t="s">
+        <v>134</v>
+      </c>
+      <c r="U14" t="s">
+        <v>128</v>
+      </c>
+      <c r="V14" s="30" t="s">
+        <v>142</v>
+      </c>
+      <c r="W14" t="s">
+        <v>128</v>
+      </c>
+      <c r="X14" s="30" t="s">
+        <v>143</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>128</v>
+      </c>
+      <c r="Z14" t="s">
+        <v>137</v>
+      </c>
+      <c r="AA14" t="s">
+        <v>128</v>
+      </c>
+      <c r="AB14">
+        <f t="shared" ca="1" si="0"/>
+        <v>174</v>
+      </c>
+      <c r="AC14" t="s">
+        <v>128</v>
+      </c>
+      <c r="AD14">
+        <f t="shared" ca="1" si="1"/>
+        <v>73</v>
+      </c>
+      <c r="AE14" t="s">
+        <v>128</v>
+      </c>
+      <c r="AF14">
+        <f t="shared" ca="1" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="AG14" t="s">
+        <v>128</v>
+      </c>
+      <c r="AH14">
+        <f t="shared" ca="1" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="AI14" t="s">
+        <v>128</v>
+      </c>
+      <c r="AJ14" s="30" t="s">
+        <v>138</v>
+      </c>
+      <c r="AK14" s="30" t="s">
+        <v>139</v>
+      </c>
+      <c r="AL14" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v>INSERT INTO user(email, pass, name, phone_num, user_reg_date, recent_login, main_foot, position, api_key, height, weight, was_pro, gender, born_date) VALUES('bioman14@gmail.com','1234','bioman1','010-1234-5678',sysdate(),sysdate(),'오른발','MF',null,174,73,1,1,'1995-06-01');</v>
+      </c>
+    </row>
+    <row r="15" spans="1:38">
+      <c r="A15" t="s">
+        <v>130</v>
+      </c>
+      <c r="B15" t="s">
+        <v>129</v>
+      </c>
+      <c r="C15" t="s">
+        <v>131</v>
+      </c>
+      <c r="D15" t="s">
+        <v>127</v>
+      </c>
+      <c r="E15" s="29" t="s">
+        <v>140</v>
+      </c>
+      <c r="F15" s="29"/>
+      <c r="G15" s="29">
+        <v>15</v>
+      </c>
+      <c r="H15" s="29" t="s">
+        <v>141</v>
+      </c>
+      <c r="I15" t="s">
+        <v>128</v>
+      </c>
+      <c r="J15" s="30" t="s">
+        <v>132</v>
+      </c>
+      <c r="K15" t="s">
+        <v>128</v>
+      </c>
+      <c r="L15" s="30" t="s">
+        <v>140</v>
+      </c>
+      <c r="M15" s="30">
+        <v>1</v>
+      </c>
+      <c r="N15" s="30" t="s">
+        <v>145</v>
+      </c>
+      <c r="O15" t="s">
+        <v>128</v>
+      </c>
+      <c r="P15" s="30" t="s">
+        <v>133</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>128</v>
+      </c>
+      <c r="R15" t="s">
+        <v>134</v>
+      </c>
+      <c r="S15" t="s">
+        <v>128</v>
+      </c>
+      <c r="T15" t="s">
+        <v>134</v>
+      </c>
+      <c r="U15" t="s">
+        <v>128</v>
+      </c>
+      <c r="V15" s="30" t="s">
+        <v>135</v>
+      </c>
+      <c r="W15" t="s">
+        <v>128</v>
+      </c>
+      <c r="X15" s="30" t="s">
+        <v>144</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>128</v>
+      </c>
+      <c r="Z15" t="s">
+        <v>137</v>
+      </c>
+      <c r="AA15" t="s">
+        <v>128</v>
+      </c>
+      <c r="AB15">
+        <f t="shared" ca="1" si="0"/>
+        <v>182</v>
+      </c>
+      <c r="AC15" t="s">
+        <v>128</v>
+      </c>
+      <c r="AD15">
+        <f t="shared" ca="1" si="1"/>
+        <v>78</v>
+      </c>
+      <c r="AE15" t="s">
+        <v>128</v>
+      </c>
+      <c r="AF15">
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AG15" t="s">
+        <v>128</v>
+      </c>
+      <c r="AH15">
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AI15" t="s">
+        <v>128</v>
+      </c>
+      <c r="AJ15" s="30" t="s">
+        <v>138</v>
+      </c>
+      <c r="AK15" s="30" t="s">
+        <v>139</v>
+      </c>
+      <c r="AL15" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v>INSERT INTO user(email, pass, name, phone_num, user_reg_date, recent_login, main_foot, position, api_key, height, weight, was_pro, gender, born_date) VALUES('bioman15@gmail.com','1234','bioman1','010-1234-5678',sysdate(),sysdate(),'왼발','DF',null,182,78,0,0,'1995-06-01');</v>
+      </c>
+    </row>
+    <row r="16" spans="1:38">
+      <c r="A16" t="s">
+        <v>130</v>
+      </c>
+      <c r="B16" t="s">
+        <v>129</v>
+      </c>
+      <c r="C16" t="s">
+        <v>131</v>
+      </c>
+      <c r="D16" t="s">
+        <v>127</v>
+      </c>
+      <c r="E16" s="29" t="s">
+        <v>140</v>
+      </c>
+      <c r="F16" s="29"/>
+      <c r="G16" s="29">
+        <v>16</v>
+      </c>
+      <c r="H16" s="29" t="s">
+        <v>141</v>
+      </c>
+      <c r="I16" t="s">
+        <v>128</v>
+      </c>
+      <c r="J16" s="30" t="s">
+        <v>132</v>
+      </c>
+      <c r="K16" t="s">
+        <v>128</v>
+      </c>
+      <c r="L16" s="30" t="s">
+        <v>140</v>
+      </c>
+      <c r="M16" s="30">
+        <v>1</v>
+      </c>
+      <c r="N16" s="30" t="s">
+        <v>145</v>
+      </c>
+      <c r="O16" t="s">
+        <v>128</v>
+      </c>
+      <c r="P16" s="30" t="s">
+        <v>133</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>128</v>
+      </c>
+      <c r="R16" t="s">
+        <v>134</v>
+      </c>
+      <c r="S16" t="s">
+        <v>128</v>
+      </c>
+      <c r="T16" t="s">
+        <v>134</v>
+      </c>
+      <c r="U16" t="s">
+        <v>128</v>
+      </c>
+      <c r="V16" s="30" t="s">
+        <v>142</v>
+      </c>
+      <c r="W16" t="s">
+        <v>128</v>
+      </c>
+      <c r="X16" s="30" t="s">
+        <v>136</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>128</v>
+      </c>
+      <c r="Z16" t="s">
+        <v>137</v>
+      </c>
+      <c r="AA16" t="s">
+        <v>128</v>
+      </c>
+      <c r="AB16">
+        <f t="shared" ca="1" si="0"/>
+        <v>179</v>
+      </c>
+      <c r="AC16" t="s">
+        <v>128</v>
+      </c>
+      <c r="AD16">
+        <f t="shared" ca="1" si="1"/>
+        <v>72</v>
+      </c>
+      <c r="AE16" t="s">
+        <v>128</v>
+      </c>
+      <c r="AF16">
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AG16" t="s">
+        <v>128</v>
+      </c>
+      <c r="AH16">
+        <f t="shared" ca="1" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="AI16" t="s">
+        <v>128</v>
+      </c>
+      <c r="AJ16" s="30" t="s">
+        <v>138</v>
+      </c>
+      <c r="AK16" s="30" t="s">
+        <v>139</v>
+      </c>
+      <c r="AL16" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v>INSERT INTO user(email, pass, name, phone_num, user_reg_date, recent_login, main_foot, position, api_key, height, weight, was_pro, gender, born_date) VALUES('bioman16@gmail.com','1234','bioman1','010-1234-5678',sysdate(),sysdate(),'오른발','FW',null,179,72,0,1,'1995-06-01');</v>
+      </c>
+    </row>
+    <row r="17" spans="1:38">
+      <c r="A17" t="s">
+        <v>130</v>
+      </c>
+      <c r="B17" t="s">
+        <v>129</v>
+      </c>
+      <c r="C17" t="s">
+        <v>131</v>
+      </c>
+      <c r="D17" t="s">
+        <v>127</v>
+      </c>
+      <c r="E17" s="29" t="s">
+        <v>140</v>
+      </c>
+      <c r="F17" s="29"/>
+      <c r="G17" s="29">
+        <v>17</v>
+      </c>
+      <c r="H17" s="29" t="s">
+        <v>141</v>
+      </c>
+      <c r="I17" t="s">
+        <v>128</v>
+      </c>
+      <c r="J17" s="30" t="s">
+        <v>132</v>
+      </c>
+      <c r="K17" t="s">
+        <v>128</v>
+      </c>
+      <c r="L17" s="30" t="s">
+        <v>140</v>
+      </c>
+      <c r="M17" s="30">
+        <v>1</v>
+      </c>
+      <c r="N17" s="30" t="s">
+        <v>145</v>
+      </c>
+      <c r="O17" t="s">
+        <v>128</v>
+      </c>
+      <c r="P17" s="30" t="s">
+        <v>133</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>128</v>
+      </c>
+      <c r="R17" t="s">
+        <v>134</v>
+      </c>
+      <c r="S17" t="s">
+        <v>128</v>
+      </c>
+      <c r="T17" t="s">
+        <v>134</v>
+      </c>
+      <c r="U17" t="s">
+        <v>128</v>
+      </c>
+      <c r="V17" s="30" t="s">
+        <v>135</v>
+      </c>
+      <c r="W17" t="s">
+        <v>128</v>
+      </c>
+      <c r="X17" s="30" t="s">
+        <v>143</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>128</v>
+      </c>
+      <c r="Z17" t="s">
+        <v>137</v>
+      </c>
+      <c r="AA17" t="s">
+        <v>128</v>
+      </c>
+      <c r="AB17">
+        <f t="shared" ca="1" si="0"/>
+        <v>176</v>
+      </c>
+      <c r="AC17" t="s">
+        <v>128</v>
+      </c>
+      <c r="AD17">
+        <f t="shared" ca="1" si="1"/>
+        <v>78</v>
+      </c>
+      <c r="AE17" t="s">
+        <v>128</v>
+      </c>
+      <c r="AF17">
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AG17" t="s">
+        <v>128</v>
+      </c>
+      <c r="AH17">
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AI17" t="s">
+        <v>128</v>
+      </c>
+      <c r="AJ17" s="30" t="s">
+        <v>138</v>
+      </c>
+      <c r="AK17" s="30" t="s">
+        <v>139</v>
+      </c>
+      <c r="AL17" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v>INSERT INTO user(email, pass, name, phone_num, user_reg_date, recent_login, main_foot, position, api_key, height, weight, was_pro, gender, born_date) VALUES('bioman17@gmail.com','1234','bioman1','010-1234-5678',sysdate(),sysdate(),'왼발','MF',null,176,78,0,0,'1995-06-01');</v>
+      </c>
+    </row>
+    <row r="20" spans="1:38">
+      <c r="A20" t="s">
+        <v>130</v>
+      </c>
+      <c r="B20" t="s">
+        <v>146</v>
+      </c>
+      <c r="C20" t="s">
+        <v>147</v>
+      </c>
+      <c r="D20" t="s">
+        <v>126</v>
+      </c>
+      <c r="E20" s="30" t="s">
+        <v>148</v>
+      </c>
+      <c r="F20" s="30" t="s">
+        <v>145</v>
+      </c>
+      <c r="G20" t="s">
+        <v>128</v>
+      </c>
+      <c r="H20" t="str">
+        <f>E20</f>
+        <v>'왕십리FC</v>
+      </c>
+      <c r="I20" t="s">
+        <v>149</v>
+      </c>
+      <c r="J20" t="s">
+        <v>128</v>
+      </c>
+      <c r="K20" s="30" t="s">
+        <v>150</v>
+      </c>
+      <c r="L20" t="s">
+        <v>128</v>
+      </c>
+      <c r="M20" s="30" t="s">
+        <v>151</v>
+      </c>
+      <c r="N20" t="s">
+        <v>128</v>
+      </c>
+      <c r="O20" s="30" t="s">
+        <v>152</v>
+      </c>
+      <c r="P20" t="s">
+        <v>128</v>
+      </c>
+      <c r="Q20">
+        <f ca="1">RANDBETWEEN(0,5)</f>
+        <v>1</v>
+      </c>
+      <c r="R20" t="s">
+        <v>128</v>
+      </c>
+      <c r="S20" s="30" t="s">
+        <v>153</v>
+      </c>
+      <c r="T20" t="s">
+        <v>128</v>
+      </c>
+      <c r="U20" t="s">
+        <v>134</v>
+      </c>
+      <c r="V20" t="s">
+        <v>128</v>
+      </c>
+      <c r="W20" s="30" t="s">
+        <v>145</v>
+      </c>
+      <c r="X20">
+        <v>1234</v>
+      </c>
+      <c r="Y20" s="30" t="s">
+        <v>154</v>
+      </c>
+      <c r="Z20" s="30" t="s">
+        <v>155</v>
+      </c>
+      <c r="AA20" t="s">
+        <v>139</v>
+      </c>
+      <c r="AB20" t="str">
+        <f ca="1">_xlfn.CONCAT(A20:AA20)</f>
+        <v>INSERT INTO team(team_name, emblem, area, stadium_info, uniform_color, uniform_type, founding_date, team_reg_date, account, bank) VALUES('왕십리FC','왕십리FC201018.jpg','성동구','성동구 구장','red',1,'2016-01-01',sysdate(),'1234','기업');</v>
+      </c>
+    </row>
+    <row r="21" spans="1:38">
+      <c r="A21" t="s">
+        <v>130</v>
+      </c>
+      <c r="B21" t="s">
+        <v>146</v>
+      </c>
+      <c r="C21" t="s">
+        <v>147</v>
+      </c>
+      <c r="D21" t="s">
+        <v>126</v>
+      </c>
+      <c r="E21" s="30" t="s">
+        <v>156</v>
+      </c>
+      <c r="F21" s="30" t="s">
+        <v>145</v>
+      </c>
+      <c r="G21" t="s">
+        <v>128</v>
+      </c>
+      <c r="H21" t="str">
+        <f t="shared" ref="H21:H22" si="5">E21</f>
+        <v>'답십리FC</v>
+      </c>
+      <c r="I21" t="s">
+        <v>149</v>
+      </c>
+      <c r="J21" t="s">
+        <v>128</v>
+      </c>
+      <c r="K21" s="30" t="s">
+        <v>150</v>
+      </c>
+      <c r="L21" t="s">
+        <v>128</v>
+      </c>
+      <c r="M21" s="30" t="s">
+        <v>159</v>
+      </c>
+      <c r="N21" t="s">
+        <v>128</v>
+      </c>
+      <c r="O21" s="30" t="s">
+        <v>161</v>
+      </c>
+      <c r="P21" t="s">
+        <v>128</v>
+      </c>
+      <c r="Q21">
+        <f t="shared" ref="Q21:Q22" ca="1" si="6">RANDBETWEEN(0,5)</f>
+        <v>4</v>
+      </c>
+      <c r="R21" t="s">
+        <v>128</v>
+      </c>
+      <c r="S21" s="30" t="s">
+        <v>163</v>
+      </c>
+      <c r="T21" t="s">
+        <v>128</v>
+      </c>
+      <c r="U21" t="s">
+        <v>134</v>
+      </c>
+      <c r="V21" t="s">
+        <v>128</v>
+      </c>
+      <c r="W21" s="30" t="s">
+        <v>145</v>
+      </c>
+      <c r="X21">
+        <v>5678</v>
+      </c>
+      <c r="Y21" s="30" t="s">
+        <v>154</v>
+      </c>
+      <c r="Z21" s="30" t="s">
+        <v>165</v>
+      </c>
+      <c r="AA21" t="s">
+        <v>139</v>
+      </c>
+      <c r="AB21" t="str">
+        <f t="shared" ref="AB21:AB22" ca="1" si="7">_xlfn.CONCAT(A21:AA21)</f>
+        <v>INSERT INTO team(team_name, emblem, area, stadium_info, uniform_color, uniform_type, founding_date, team_reg_date, account, bank) VALUES('답십리FC','답십리FC201018.jpg','성동구','응봉동 구장','blue',4,'2017-01-01',sysdate(),'5678','하나');</v>
+      </c>
+    </row>
+    <row r="22" spans="1:38">
+      <c r="A22" t="s">
+        <v>130</v>
+      </c>
+      <c r="B22" t="s">
+        <v>146</v>
+      </c>
+      <c r="C22" t="s">
+        <v>147</v>
+      </c>
+      <c r="D22" t="s">
+        <v>126</v>
+      </c>
+      <c r="E22" s="30" t="s">
+        <v>157</v>
+      </c>
+      <c r="F22" s="30" t="s">
+        <v>145</v>
+      </c>
+      <c r="G22" t="s">
+        <v>128</v>
+      </c>
+      <c r="H22" t="str">
+        <f t="shared" si="5"/>
+        <v>'대구FC</v>
+      </c>
+      <c r="I22" t="s">
+        <v>149</v>
+      </c>
+      <c r="J22" t="s">
+        <v>128</v>
+      </c>
+      <c r="K22" s="30" t="s">
+        <v>158</v>
+      </c>
+      <c r="L22" t="s">
+        <v>128</v>
+      </c>
+      <c r="M22" s="30" t="s">
+        <v>160</v>
+      </c>
+      <c r="N22" t="s">
+        <v>128</v>
+      </c>
+      <c r="O22" s="30" t="s">
+        <v>162</v>
+      </c>
+      <c r="P22" t="s">
+        <v>128</v>
+      </c>
+      <c r="Q22">
+        <f t="shared" ca="1" si="6"/>
+        <v>5</v>
+      </c>
+      <c r="R22" t="s">
+        <v>128</v>
+      </c>
+      <c r="S22" s="30" t="s">
+        <v>164</v>
+      </c>
+      <c r="T22" t="s">
+        <v>128</v>
+      </c>
+      <c r="U22" t="s">
+        <v>134</v>
+      </c>
+      <c r="V22" t="s">
+        <v>128</v>
+      </c>
+      <c r="W22" s="30" t="s">
+        <v>145</v>
+      </c>
+      <c r="X22">
+        <v>2345</v>
+      </c>
+      <c r="Y22" s="30" t="s">
+        <v>154</v>
+      </c>
+      <c r="Z22" s="30" t="s">
+        <v>155</v>
+      </c>
+      <c r="AA22" t="s">
+        <v>139</v>
+      </c>
+      <c r="AB22" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v>INSERT INTO team(team_name, emblem, area, stadium_info, uniform_color, uniform_type, founding_date, team_reg_date, account, bank) VALUES('대구FC','대구FC201018.jpg','달서구','달서구 구장','green',5,'2018-01-01',sysdate(),'2345','기업');</v>
+      </c>
+    </row>
+    <row r="24" spans="1:38">
+      <c r="A24" t="s">
+        <v>130</v>
+      </c>
+      <c r="B24" t="s">
+        <v>166</v>
+      </c>
+      <c r="C24" t="s">
+        <v>126</v>
+      </c>
+      <c r="D24" t="s">
+        <v>134</v>
+      </c>
+      <c r="E24" t="s">
+        <v>128</v>
+      </c>
+      <c r="F24">
+        <v>4</v>
+      </c>
+      <c r="G24" t="s">
+        <v>128</v>
+      </c>
+      <c r="H24">
+        <v>1</v>
+      </c>
+      <c r="I24" t="s">
+        <v>128</v>
+      </c>
+      <c r="J24">
+        <v>1</v>
+      </c>
+      <c r="K24" t="s">
+        <v>128</v>
+      </c>
+      <c r="L24" t="str">
+        <f>_xlfn.CONCAT(E1:H1)</f>
+        <v>'bioman1@gmail.com'</v>
+      </c>
+      <c r="M24" t="s">
+        <v>128</v>
+      </c>
+      <c r="N24" s="30" t="s">
+        <v>167</v>
+      </c>
+      <c r="O24">
+        <v>1</v>
+      </c>
+      <c r="P24" s="30" t="s">
+        <v>168</v>
+      </c>
+      <c r="Q24" t="str">
+        <f>_xlfn.CONCAT(A24:P24)</f>
+        <v>INSERT INTO team_member(member_reg_date, member_level, reg_status, team_id, email, nick_name)VALUES(sysdate(),4,1,1,'bioman1@gmail.com','nick1');</v>
+      </c>
+    </row>
+    <row r="25" spans="1:38">
+      <c r="A25" t="s">
+        <v>130</v>
+      </c>
+      <c r="B25" t="s">
+        <v>166</v>
+      </c>
+      <c r="C25" t="s">
+        <v>126</v>
+      </c>
+      <c r="D25" t="s">
+        <v>134</v>
+      </c>
+      <c r="E25" t="s">
+        <v>128</v>
+      </c>
+      <c r="F25">
+        <v>3</v>
+      </c>
+      <c r="G25" t="s">
+        <v>128</v>
+      </c>
+      <c r="H25">
+        <v>1</v>
+      </c>
+      <c r="I25" t="s">
+        <v>128</v>
+      </c>
+      <c r="J25">
+        <v>1</v>
+      </c>
+      <c r="K25" t="s">
+        <v>128</v>
+      </c>
+      <c r="L25" t="str">
+        <f t="shared" ref="L25:L28" si="8">_xlfn.CONCAT(E2:H2)</f>
+        <v>'bioman2@gmail.com'</v>
+      </c>
+      <c r="M25" t="s">
+        <v>128</v>
+      </c>
+      <c r="N25" s="30" t="s">
+        <v>167</v>
+      </c>
+      <c r="O25">
+        <v>2</v>
+      </c>
+      <c r="P25" s="30" t="s">
+        <v>168</v>
+      </c>
+      <c r="Q25" t="str">
+        <f t="shared" ref="Q25:Q28" si="9">_xlfn.CONCAT(A25:P25)</f>
+        <v>INSERT INTO team_member(member_reg_date, member_level, reg_status, team_id, email, nick_name)VALUES(sysdate(),3,1,1,'bioman2@gmail.com','nick2');</v>
+      </c>
+    </row>
+    <row r="26" spans="1:38">
+      <c r="A26" t="s">
+        <v>130</v>
+      </c>
+      <c r="B26" t="s">
+        <v>166</v>
+      </c>
+      <c r="C26" t="s">
+        <v>126</v>
+      </c>
+      <c r="D26" t="s">
+        <v>134</v>
+      </c>
+      <c r="E26" t="s">
+        <v>128</v>
+      </c>
+      <c r="F26">
+        <v>2</v>
+      </c>
+      <c r="G26" t="s">
+        <v>128</v>
+      </c>
+      <c r="H26">
+        <v>1</v>
+      </c>
+      <c r="I26" t="s">
+        <v>128</v>
+      </c>
+      <c r="J26">
+        <v>1</v>
+      </c>
+      <c r="K26" t="s">
+        <v>128</v>
+      </c>
+      <c r="L26" t="str">
+        <f t="shared" si="8"/>
+        <v>'bioman3@gmail.com'</v>
+      </c>
+      <c r="M26" t="s">
+        <v>128</v>
+      </c>
+      <c r="N26" s="30" t="s">
+        <v>167</v>
+      </c>
+      <c r="O26">
+        <v>3</v>
+      </c>
+      <c r="P26" s="30" t="s">
+        <v>168</v>
+      </c>
+      <c r="Q26" t="str">
+        <f t="shared" si="9"/>
+        <v>INSERT INTO team_member(member_reg_date, member_level, reg_status, team_id, email, nick_name)VALUES(sysdate(),2,1,1,'bioman3@gmail.com','nick3');</v>
+      </c>
+    </row>
+    <row r="27" spans="1:38">
+      <c r="A27" t="s">
+        <v>130</v>
+      </c>
+      <c r="B27" t="s">
+        <v>166</v>
+      </c>
+      <c r="C27" t="s">
+        <v>126</v>
+      </c>
+      <c r="D27" t="s">
+        <v>134</v>
+      </c>
+      <c r="E27" t="s">
+        <v>128</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27" t="s">
+        <v>128</v>
+      </c>
+      <c r="H27">
+        <v>1</v>
+      </c>
+      <c r="I27" t="s">
+        <v>128</v>
+      </c>
+      <c r="J27">
+        <v>1</v>
+      </c>
+      <c r="K27" t="s">
+        <v>128</v>
+      </c>
+      <c r="L27" t="str">
+        <f t="shared" si="8"/>
+        <v>'bioman4@gmail.com'</v>
+      </c>
+      <c r="M27" t="s">
+        <v>128</v>
+      </c>
+      <c r="N27" s="30" t="s">
+        <v>167</v>
+      </c>
+      <c r="O27">
+        <v>4</v>
+      </c>
+      <c r="P27" s="30" t="s">
+        <v>168</v>
+      </c>
+      <c r="Q27" t="str">
+        <f t="shared" si="9"/>
+        <v>INSERT INTO team_member(member_reg_date, member_level, reg_status, team_id, email, nick_name)VALUES(sysdate(),1,1,1,'bioman4@gmail.com','nick4');</v>
+      </c>
+    </row>
+    <row r="28" spans="1:38">
+      <c r="A28" t="s">
+        <v>130</v>
+      </c>
+      <c r="B28" t="s">
+        <v>166</v>
+      </c>
+      <c r="C28" t="s">
+        <v>126</v>
+      </c>
+      <c r="D28" t="s">
+        <v>134</v>
+      </c>
+      <c r="E28" t="s">
+        <v>128</v>
+      </c>
+      <c r="F28">
+        <v>0</v>
+      </c>
+      <c r="G28" t="s">
+        <v>128</v>
+      </c>
+      <c r="H28">
+        <v>1</v>
+      </c>
+      <c r="I28" t="s">
+        <v>128</v>
+      </c>
+      <c r="J28">
+        <v>1</v>
+      </c>
+      <c r="K28" t="s">
+        <v>128</v>
+      </c>
+      <c r="L28" t="str">
+        <f t="shared" si="8"/>
+        <v>'bioman5@gmail.com'</v>
+      </c>
+      <c r="M28" t="s">
+        <v>128</v>
+      </c>
+      <c r="N28" s="30" t="s">
+        <v>167</v>
+      </c>
+      <c r="O28">
+        <v>5</v>
+      </c>
+      <c r="P28" s="30" t="s">
+        <v>168</v>
+      </c>
+      <c r="Q28" t="str">
+        <f t="shared" si="9"/>
+        <v>INSERT INTO team_member(member_reg_date, member_level, reg_status, team_id, email, nick_name)VALUES(sysdate(),0,1,1,'bioman5@gmail.com','nick5');</v>
+      </c>
+    </row>
+    <row r="29" spans="1:38">
+      <c r="A29" t="s">
+        <v>130</v>
+      </c>
+      <c r="B29" t="s">
+        <v>166</v>
+      </c>
+      <c r="C29" t="s">
+        <v>126</v>
+      </c>
+      <c r="D29" t="s">
+        <v>134</v>
+      </c>
+      <c r="E29" t="s">
+        <v>128</v>
+      </c>
+      <c r="F29">
+        <v>4</v>
+      </c>
+      <c r="G29" t="s">
+        <v>128</v>
+      </c>
+      <c r="H29">
+        <v>1</v>
+      </c>
+      <c r="I29" t="s">
+        <v>128</v>
+      </c>
+      <c r="J29">
+        <v>2</v>
+      </c>
+      <c r="K29" t="s">
+        <v>128</v>
+      </c>
+      <c r="L29" t="str">
+        <f>_xlfn.CONCAT(E6:H6)</f>
+        <v>'bioman6@gmail.com'</v>
+      </c>
+      <c r="M29" t="s">
+        <v>128</v>
+      </c>
+      <c r="N29" s="30" t="s">
+        <v>167</v>
+      </c>
+      <c r="O29">
+        <v>1</v>
+      </c>
+      <c r="P29" s="30" t="s">
+        <v>168</v>
+      </c>
+      <c r="Q29" t="str">
+        <f>_xlfn.CONCAT(A29:P29)</f>
+        <v>INSERT INTO team_member(member_reg_date, member_level, reg_status, team_id, email, nick_name)VALUES(sysdate(),4,1,2,'bioman6@gmail.com','nick1');</v>
+      </c>
+    </row>
+    <row r="30" spans="1:38">
+      <c r="A30" t="s">
+        <v>130</v>
+      </c>
+      <c r="B30" t="s">
+        <v>166</v>
+      </c>
+      <c r="C30" t="s">
+        <v>126</v>
+      </c>
+      <c r="D30" t="s">
+        <v>134</v>
+      </c>
+      <c r="E30" t="s">
+        <v>128</v>
+      </c>
+      <c r="F30">
+        <v>3</v>
+      </c>
+      <c r="G30" t="s">
+        <v>128</v>
+      </c>
+      <c r="H30">
+        <v>1</v>
+      </c>
+      <c r="I30" t="s">
+        <v>128</v>
+      </c>
+      <c r="J30">
+        <v>2</v>
+      </c>
+      <c r="K30" t="s">
+        <v>128</v>
+      </c>
+      <c r="L30" t="str">
+        <f t="shared" ref="L30:L33" si="10">_xlfn.CONCAT(E7:H7)</f>
+        <v>'bioman7@gmail.com'</v>
+      </c>
+      <c r="M30" t="s">
+        <v>128</v>
+      </c>
+      <c r="N30" s="30" t="s">
+        <v>167</v>
+      </c>
+      <c r="O30">
+        <v>2</v>
+      </c>
+      <c r="P30" s="30" t="s">
+        <v>168</v>
+      </c>
+      <c r="Q30" t="str">
+        <f t="shared" ref="Q30:Q33" si="11">_xlfn.CONCAT(A30:P30)</f>
+        <v>INSERT INTO team_member(member_reg_date, member_level, reg_status, team_id, email, nick_name)VALUES(sysdate(),3,1,2,'bioman7@gmail.com','nick2');</v>
+      </c>
+    </row>
+    <row r="31" spans="1:38">
+      <c r="A31" t="s">
+        <v>130</v>
+      </c>
+      <c r="B31" t="s">
+        <v>166</v>
+      </c>
+      <c r="C31" t="s">
+        <v>126</v>
+      </c>
+      <c r="D31" t="s">
+        <v>134</v>
+      </c>
+      <c r="E31" t="s">
+        <v>128</v>
+      </c>
+      <c r="F31">
+        <v>2</v>
+      </c>
+      <c r="G31" t="s">
+        <v>128</v>
+      </c>
+      <c r="H31">
+        <v>1</v>
+      </c>
+      <c r="I31" t="s">
+        <v>128</v>
+      </c>
+      <c r="J31">
+        <v>2</v>
+      </c>
+      <c r="K31" t="s">
+        <v>128</v>
+      </c>
+      <c r="L31" t="str">
+        <f t="shared" si="10"/>
+        <v>'bioman8@gmail.com'</v>
+      </c>
+      <c r="M31" t="s">
+        <v>128</v>
+      </c>
+      <c r="N31" s="30" t="s">
+        <v>167</v>
+      </c>
+      <c r="O31">
+        <v>3</v>
+      </c>
+      <c r="P31" s="30" t="s">
+        <v>168</v>
+      </c>
+      <c r="Q31" t="str">
+        <f t="shared" si="11"/>
+        <v>INSERT INTO team_member(member_reg_date, member_level, reg_status, team_id, email, nick_name)VALUES(sysdate(),2,1,2,'bioman8@gmail.com','nick3');</v>
+      </c>
+    </row>
+    <row r="32" spans="1:38">
+      <c r="A32" t="s">
+        <v>130</v>
+      </c>
+      <c r="B32" t="s">
+        <v>166</v>
+      </c>
+      <c r="C32" t="s">
+        <v>126</v>
+      </c>
+      <c r="D32" t="s">
+        <v>134</v>
+      </c>
+      <c r="E32" t="s">
+        <v>128</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="G32" t="s">
+        <v>128</v>
+      </c>
+      <c r="H32">
+        <v>1</v>
+      </c>
+      <c r="I32" t="s">
+        <v>128</v>
+      </c>
+      <c r="J32">
+        <v>2</v>
+      </c>
+      <c r="K32" t="s">
+        <v>128</v>
+      </c>
+      <c r="L32" t="str">
+        <f t="shared" si="10"/>
+        <v>'bioman9@gmail.com'</v>
+      </c>
+      <c r="M32" t="s">
+        <v>128</v>
+      </c>
+      <c r="N32" s="30" t="s">
+        <v>167</v>
+      </c>
+      <c r="O32">
+        <v>4</v>
+      </c>
+      <c r="P32" s="30" t="s">
+        <v>168</v>
+      </c>
+      <c r="Q32" t="str">
+        <f t="shared" si="11"/>
+        <v>INSERT INTO team_member(member_reg_date, member_level, reg_status, team_id, email, nick_name)VALUES(sysdate(),1,1,2,'bioman9@gmail.com','nick4');</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17">
+      <c r="A33" t="s">
+        <v>130</v>
+      </c>
+      <c r="B33" t="s">
+        <v>166</v>
+      </c>
+      <c r="C33" t="s">
+        <v>126</v>
+      </c>
+      <c r="D33" t="s">
+        <v>134</v>
+      </c>
+      <c r="E33" t="s">
+        <v>128</v>
+      </c>
+      <c r="F33">
+        <v>0</v>
+      </c>
+      <c r="G33" t="s">
+        <v>128</v>
+      </c>
+      <c r="H33">
+        <v>1</v>
+      </c>
+      <c r="I33" t="s">
+        <v>128</v>
+      </c>
+      <c r="J33">
+        <v>2</v>
+      </c>
+      <c r="K33" t="s">
+        <v>128</v>
+      </c>
+      <c r="L33" t="str">
+        <f t="shared" si="10"/>
+        <v>'bioman10@gmail.com'</v>
+      </c>
+      <c r="M33" t="s">
+        <v>128</v>
+      </c>
+      <c r="N33" s="30" t="s">
+        <v>167</v>
+      </c>
+      <c r="O33">
+        <v>5</v>
+      </c>
+      <c r="P33" s="30" t="s">
+        <v>168</v>
+      </c>
+      <c r="Q33" t="str">
+        <f t="shared" si="11"/>
+        <v>INSERT INTO team_member(member_reg_date, member_level, reg_status, team_id, email, nick_name)VALUES(sysdate(),0,1,2,'bioman10@gmail.com','nick5');</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17">
+      <c r="A34" t="s">
+        <v>130</v>
+      </c>
+      <c r="B34" t="s">
+        <v>166</v>
+      </c>
+      <c r="C34" t="s">
+        <v>126</v>
+      </c>
+      <c r="D34" t="s">
+        <v>134</v>
+      </c>
+      <c r="E34" t="s">
+        <v>128</v>
+      </c>
+      <c r="F34">
+        <v>4</v>
+      </c>
+      <c r="G34" t="s">
+        <v>128</v>
+      </c>
+      <c r="H34">
+        <v>1</v>
+      </c>
+      <c r="I34" t="s">
+        <v>128</v>
+      </c>
+      <c r="J34">
+        <v>3</v>
+      </c>
+      <c r="K34" t="s">
+        <v>128</v>
+      </c>
+      <c r="L34" t="str">
+        <f>_xlfn.CONCAT(E11:H11)</f>
+        <v>'bioman11@gmail.com'</v>
+      </c>
+      <c r="M34" t="s">
+        <v>128</v>
+      </c>
+      <c r="N34" s="30" t="s">
+        <v>167</v>
+      </c>
+      <c r="O34">
+        <v>1</v>
+      </c>
+      <c r="P34" s="30" t="s">
+        <v>168</v>
+      </c>
+      <c r="Q34" t="str">
+        <f>_xlfn.CONCAT(A34:P34)</f>
+        <v>INSERT INTO team_member(member_reg_date, member_level, reg_status, team_id, email, nick_name)VALUES(sysdate(),4,1,3,'bioman11@gmail.com','nick1');</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17">
+      <c r="A35" t="s">
+        <v>130</v>
+      </c>
+      <c r="B35" t="s">
+        <v>166</v>
+      </c>
+      <c r="C35" t="s">
+        <v>126</v>
+      </c>
+      <c r="D35" t="s">
+        <v>134</v>
+      </c>
+      <c r="E35" t="s">
+        <v>128</v>
+      </c>
+      <c r="F35">
+        <v>3</v>
+      </c>
+      <c r="G35" t="s">
+        <v>128</v>
+      </c>
+      <c r="H35">
+        <v>1</v>
+      </c>
+      <c r="I35" t="s">
+        <v>128</v>
+      </c>
+      <c r="J35">
+        <v>3</v>
+      </c>
+      <c r="K35" t="s">
+        <v>128</v>
+      </c>
+      <c r="L35" t="str">
+        <f t="shared" ref="L35:L38" si="12">_xlfn.CONCAT(E12:H12)</f>
+        <v>'bioman12@gmail.com'</v>
+      </c>
+      <c r="M35" t="s">
+        <v>128</v>
+      </c>
+      <c r="N35" s="30" t="s">
+        <v>167</v>
+      </c>
+      <c r="O35">
+        <v>2</v>
+      </c>
+      <c r="P35" s="30" t="s">
+        <v>168</v>
+      </c>
+      <c r="Q35" t="str">
+        <f t="shared" ref="Q35:Q38" si="13">_xlfn.CONCAT(A35:P35)</f>
+        <v>INSERT INTO team_member(member_reg_date, member_level, reg_status, team_id, email, nick_name)VALUES(sysdate(),3,1,3,'bioman12@gmail.com','nick2');</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17">
+      <c r="A36" t="s">
+        <v>130</v>
+      </c>
+      <c r="B36" t="s">
+        <v>166</v>
+      </c>
+      <c r="C36" t="s">
+        <v>126</v>
+      </c>
+      <c r="D36" t="s">
+        <v>134</v>
+      </c>
+      <c r="E36" t="s">
+        <v>128</v>
+      </c>
+      <c r="F36">
+        <v>2</v>
+      </c>
+      <c r="G36" t="s">
+        <v>128</v>
+      </c>
+      <c r="H36">
+        <v>1</v>
+      </c>
+      <c r="I36" t="s">
+        <v>128</v>
+      </c>
+      <c r="J36">
+        <v>3</v>
+      </c>
+      <c r="K36" t="s">
+        <v>128</v>
+      </c>
+      <c r="L36" t="str">
+        <f t="shared" si="12"/>
+        <v>'bioman13@gmail.com'</v>
+      </c>
+      <c r="M36" t="s">
+        <v>128</v>
+      </c>
+      <c r="N36" s="30" t="s">
+        <v>167</v>
+      </c>
+      <c r="O36">
+        <v>3</v>
+      </c>
+      <c r="P36" s="30" t="s">
+        <v>168</v>
+      </c>
+      <c r="Q36" t="str">
+        <f t="shared" si="13"/>
+        <v>INSERT INTO team_member(member_reg_date, member_level, reg_status, team_id, email, nick_name)VALUES(sysdate(),2,1,3,'bioman13@gmail.com','nick3');</v>
+      </c>
+    </row>
+    <row r="37" spans="1:17">
+      <c r="A37" t="s">
+        <v>130</v>
+      </c>
+      <c r="B37" t="s">
+        <v>166</v>
+      </c>
+      <c r="C37" t="s">
+        <v>126</v>
+      </c>
+      <c r="D37" t="s">
+        <v>134</v>
+      </c>
+      <c r="E37" t="s">
+        <v>128</v>
+      </c>
+      <c r="F37">
+        <v>1</v>
+      </c>
+      <c r="G37" t="s">
+        <v>128</v>
+      </c>
+      <c r="H37">
+        <v>1</v>
+      </c>
+      <c r="I37" t="s">
+        <v>128</v>
+      </c>
+      <c r="J37">
+        <v>3</v>
+      </c>
+      <c r="K37" t="s">
+        <v>128</v>
+      </c>
+      <c r="L37" t="str">
+        <f t="shared" si="12"/>
+        <v>'bioman14@gmail.com'</v>
+      </c>
+      <c r="M37" t="s">
+        <v>128</v>
+      </c>
+      <c r="N37" s="30" t="s">
+        <v>167</v>
+      </c>
+      <c r="O37">
+        <v>4</v>
+      </c>
+      <c r="P37" s="30" t="s">
+        <v>168</v>
+      </c>
+      <c r="Q37" t="str">
+        <f t="shared" si="13"/>
+        <v>INSERT INTO team_member(member_reg_date, member_level, reg_status, team_id, email, nick_name)VALUES(sysdate(),1,1,3,'bioman14@gmail.com','nick4');</v>
+      </c>
+    </row>
+    <row r="38" spans="1:17">
+      <c r="A38" t="s">
+        <v>130</v>
+      </c>
+      <c r="B38" t="s">
+        <v>166</v>
+      </c>
+      <c r="C38" t="s">
+        <v>126</v>
+      </c>
+      <c r="D38" t="s">
+        <v>134</v>
+      </c>
+      <c r="E38" t="s">
+        <v>128</v>
+      </c>
+      <c r="F38">
+        <v>0</v>
+      </c>
+      <c r="G38" t="s">
+        <v>128</v>
+      </c>
+      <c r="H38">
+        <v>1</v>
+      </c>
+      <c r="I38" t="s">
+        <v>128</v>
+      </c>
+      <c r="J38">
+        <v>3</v>
+      </c>
+      <c r="K38" t="s">
+        <v>128</v>
+      </c>
+      <c r="L38" t="str">
+        <f t="shared" si="12"/>
+        <v>'bioman15@gmail.com'</v>
+      </c>
+      <c r="M38" t="s">
+        <v>128</v>
+      </c>
+      <c r="N38" s="30" t="s">
+        <v>167</v>
+      </c>
+      <c r="O38">
+        <v>5</v>
+      </c>
+      <c r="P38" s="30" t="s">
+        <v>168</v>
+      </c>
+      <c r="Q38" t="str">
+        <f t="shared" si="13"/>
+        <v>INSERT INTO team_member(member_reg_date, member_level, reg_status, team_id, email, nick_name)VALUES(sysdate(),0,1,3,'bioman15@gmail.com','nick5');</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="E1" r:id="rId1" display="bioman1@gmail.com" xr:uid="{2C145144-6BCF-42DD-8624-252104EB44A7}"/>
+    <hyperlink ref="E2" r:id="rId2" display="bioman1@gmail.com" xr:uid="{DBE7BB04-5716-48BE-8D87-29EE2BEA0C50}"/>
+    <hyperlink ref="E3" r:id="rId3" display="bioman1@gmail.com" xr:uid="{CF752635-FE1E-4399-8514-61576313D799}"/>
+    <hyperlink ref="E4" r:id="rId4" display="bioman1@gmail.com" xr:uid="{2080319F-F3BB-4EB0-A922-2643BF8D2112}"/>
+    <hyperlink ref="E5" r:id="rId5" display="bioman1@gmail.com" xr:uid="{8ACD1C56-2ACC-4928-95DE-0532DB768F46}"/>
+    <hyperlink ref="E6" r:id="rId6" display="bioman1@gmail.com" xr:uid="{E05AD25F-6604-46B2-9EAF-1429A928E444}"/>
+    <hyperlink ref="E7" r:id="rId7" display="bioman1@gmail.com" xr:uid="{A14A2C66-2F99-4FD9-962E-5FDCFD1EE36D}"/>
+    <hyperlink ref="E8" r:id="rId8" display="bioman1@gmail.com" xr:uid="{E81BBB68-D0DC-44A3-93E1-61E86238E41A}"/>
+    <hyperlink ref="E9" r:id="rId9" display="bioman1@gmail.com" xr:uid="{73FEEE0F-32B6-4C57-84B6-44B04A58E4EF}"/>
+    <hyperlink ref="E10" r:id="rId10" display="bioman1@gmail.com" xr:uid="{38F94988-438B-45A7-B785-8D33ABDD3F22}"/>
+    <hyperlink ref="E11" r:id="rId11" display="bioman1@gmail.com" xr:uid="{53A28B82-19DC-4800-B98E-7635679A009F}"/>
+    <hyperlink ref="E12" r:id="rId12" display="bioman1@gmail.com" xr:uid="{26B170FA-3BF3-4CC5-842F-B6EDBC965775}"/>
+    <hyperlink ref="E13" r:id="rId13" display="bioman1@gmail.com" xr:uid="{EE305474-687F-468A-9D61-85171DEFB714}"/>
+    <hyperlink ref="E14" r:id="rId14" display="bioman1@gmail.com" xr:uid="{F65DBD13-0508-4AE9-841A-0C2096F4F558}"/>
+    <hyperlink ref="E15" r:id="rId15" display="bioman1@gmail.com" xr:uid="{F808A7C1-784A-433E-BCE7-6B6C42C75AE8}"/>
+    <hyperlink ref="E16" r:id="rId16" display="bioman1@gmail.com" xr:uid="{7537F605-3E66-4952-8A7E-CB1911572DC7}"/>
+    <hyperlink ref="E17" r:id="rId17" display="bioman1@gmail.com" xr:uid="{B171FD32-C2D4-4F6D-A937-2D8211AA25D8}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/docs/srs/fbt_srs.xlsx
+++ b/docs/srs/fbt_srs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Socio_02\Desktop\kjy\fbt\docs\srs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{959729FC-D6E5-49A0-925F-867657FCA245}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E284CDB-6CF9-4C1D-AA0D-926A14EA9F8D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="720" yWindow="1170" windowWidth="21600" windowHeight="11385" xr2:uid="{2F0AD6B2-A8A2-4F73-BAF4-7193D3382EE1}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{2F0AD6B2-A8A2-4F73-BAF4-7193D3382EE1}"/>
   </bookViews>
   <sheets>
     <sheet name="요구사항명세서" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="TestCase_SQL" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">요구사항명세서!$B$8:$H$42</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">요구사항명세서!$B$8:$H$41</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="972" uniqueCount="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="965" uniqueCount="174">
   <si>
     <t>요구사항 정의서</t>
   </si>
@@ -266,26 +266,6 @@
   </si>
   <si>
     <t>투표 출력</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">투표 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>내용 출력</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>V002</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
@@ -1855,117 +1835,6 @@
   </si>
   <si>
     <t>양도 수락</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>투표</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>클릭</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>시</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>투표</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>내용</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>출력</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Nanum Gothic"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> : V001과 같아짐</t>
-    </r>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
@@ -3630,24 +3499,6 @@
     <xf numFmtId="0" fontId="11" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="1" quotePrefix="1">
       <alignment vertical="center"/>
     </xf>
@@ -3673,6 +3524,24 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="13" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -3990,13 +3859,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60EA499F-775F-49C1-B26C-B60E223B5AF8}">
-  <dimension ref="B1:H42"/>
+  <dimension ref="B1:H41"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="6" topLeftCell="B15" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="6" topLeftCell="B10" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="F17" sqref="F17"/>
+      <selection pane="bottomRight" activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -4013,12 +3882,12 @@
   <sheetData>
     <row r="1" spans="2:8" ht="17.25" thickBot="1"/>
     <row r="2" spans="2:8" ht="18.75" thickBot="1">
-      <c r="B2" s="25" t="s">
+      <c r="B2" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="26"/>
+      <c r="C2" s="35"/>
       <c r="E2" s="3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F2" s="4" t="s">
         <v>14</v>
@@ -4038,7 +3907,7 @@
         <v>38</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="G3" s="21"/>
     </row>
@@ -4049,66 +3918,66 @@
       <c r="C4" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E4" s="34" t="s">
-        <v>67</v>
+      <c r="E4" s="28" t="s">
+        <v>65</v>
       </c>
       <c r="F4" s="8" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="G4" s="21"/>
     </row>
     <row r="5" spans="2:8" ht="17.25" thickBot="1">
-      <c r="E5" s="31" t="s">
-        <v>68</v>
-      </c>
-      <c r="F5" s="32" t="s">
-        <v>97</v>
+      <c r="E5" s="25" t="s">
+        <v>66</v>
+      </c>
+      <c r="F5" s="26" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="6" spans="2:8" ht="17.25" thickBot="1">
-      <c r="E6" s="36" t="s">
-        <v>169</v>
-      </c>
-      <c r="F6" s="33"/>
+      <c r="E6" s="30" t="s">
+        <v>165</v>
+      </c>
+      <c r="F6" s="27"/>
     </row>
     <row r="7" spans="2:8" ht="17.25" thickBot="1"/>
     <row r="8" spans="2:8" ht="17.25" thickBot="1">
-      <c r="B8" s="23" t="s">
+      <c r="B8" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="23" t="s">
+      <c r="C8" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="D8" s="23" t="s">
+      <c r="D8" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="E8" s="27" t="s">
+      <c r="E8" s="36" t="s">
         <v>7</v>
       </c>
-      <c r="F8" s="28"/>
-      <c r="G8" s="23" t="s">
+      <c r="F8" s="37"/>
+      <c r="G8" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="H8" s="23" t="s">
+      <c r="H8" s="32" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="9" spans="2:8" ht="17.25" thickBot="1">
-      <c r="B9" s="24"/>
-      <c r="C9" s="24"/>
-      <c r="D9" s="24"/>
+      <c r="B9" s="33"/>
+      <c r="C9" s="33"/>
+      <c r="D9" s="33"/>
       <c r="E9" s="9" t="s">
         <v>9</v>
       </c>
       <c r="F9" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="G9" s="24"/>
-      <c r="H9" s="24"/>
+      <c r="G9" s="33"/>
+      <c r="H9" s="33"/>
     </row>
     <row r="10" spans="2:8" ht="26.25" thickBot="1">
       <c r="B10" s="11" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C10" s="12" t="s">
         <v>19</v>
@@ -4131,7 +4000,7 @@
     </row>
     <row r="11" spans="2:8" ht="17.25" thickBot="1">
       <c r="B11" s="11" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C11" s="12" t="s">
         <v>22</v>
@@ -4152,7 +4021,7 @@
     </row>
     <row r="12" spans="2:8" ht="17.25" thickBot="1">
       <c r="B12" s="11" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C12" s="16" t="s">
         <v>28</v>
@@ -4173,7 +4042,7 @@
     </row>
     <row r="13" spans="2:8" ht="17.25" thickBot="1">
       <c r="B13" s="11" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C13" s="12" t="s">
         <v>32</v>
@@ -4194,10 +4063,10 @@
     </row>
     <row r="14" spans="2:8" ht="17.25" thickBot="1">
       <c r="B14" s="11" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C14" s="16" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="D14" s="13" t="s">
         <v>35</v>
@@ -4215,10 +4084,10 @@
     </row>
     <row r="15" spans="2:8" ht="17.25" thickBot="1">
       <c r="B15" s="11" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C15" s="16" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="D15" s="13" t="s">
         <v>37</v>
@@ -4242,7 +4111,7 @@
         <v>40</v>
       </c>
       <c r="D16" s="18" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E16" s="12" t="s">
         <v>30</v>
@@ -4257,20 +4126,18 @@
     </row>
     <row r="17" spans="2:8" ht="17.25" thickBot="1">
       <c r="B17" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="C17" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="C17" s="12" t="s">
-        <v>41</v>
-      </c>
       <c r="D17" s="18" t="s">
-        <v>122</v>
+        <v>90</v>
       </c>
       <c r="E17" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="F17" s="16" t="s">
-        <v>121</v>
-      </c>
+      <c r="F17" s="12"/>
       <c r="G17" s="12" t="s">
         <v>16</v>
       </c>
@@ -4285,151 +4152,151 @@
       <c r="C18" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="D18" s="18" t="s">
-        <v>92</v>
+      <c r="D18" s="13" t="s">
+        <v>45</v>
       </c>
       <c r="E18" s="12" t="s">
         <v>30</v>
       </c>
       <c r="F18" s="12"/>
       <c r="G18" s="12" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="H18" s="12" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="19" spans="2:8" ht="17.25" thickBot="1">
+    <row r="19" spans="2:8" ht="67.5" thickBot="1">
       <c r="B19" s="17" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C19" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="D19" s="13" t="s">
         <v>47</v>
       </c>
+      <c r="D19" s="18" t="s">
+        <v>171</v>
+      </c>
       <c r="E19" s="12" t="s">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="F19" s="12"/>
       <c r="G19" s="12" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="H19" s="12" t="s">
-        <v>25</v>
+        <v>49</v>
       </c>
     </row>
-    <row r="20" spans="2:8" ht="67.5" thickBot="1">
+    <row r="20" spans="2:8" ht="291.75" thickBot="1">
       <c r="B20" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="C20" s="16" t="s">
+        <v>172</v>
+      </c>
+      <c r="D20" s="18" t="s">
+        <v>173</v>
+      </c>
+      <c r="E20" s="12" t="s">
         <v>48</v>
-      </c>
-      <c r="C20" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="D20" s="18" t="s">
-        <v>175</v>
-      </c>
-      <c r="E20" s="12" t="s">
-        <v>50</v>
       </c>
       <c r="F20" s="12"/>
       <c r="G20" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="H20" s="12" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="21" spans="2:8" ht="26.25" thickBot="1">
+      <c r="B21" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="C21" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="D21" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="E21" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="F21" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="G21" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="H20" s="12" t="s">
-        <v>51</v>
+      <c r="H21" s="12" t="s">
+        <v>49</v>
       </c>
     </row>
-    <row r="21" spans="2:8" ht="291.75" thickBot="1">
-      <c r="B21" s="17" t="s">
-        <v>52</v>
-      </c>
-      <c r="C21" s="16" t="s">
-        <v>176</v>
-      </c>
-      <c r="D21" s="18" t="s">
-        <v>177</v>
-      </c>
-      <c r="E21" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="F21" s="12"/>
-      <c r="G21" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="H21" s="12" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="22" spans="2:8" ht="26.25" thickBot="1">
-      <c r="B22" s="19" t="s">
-        <v>53</v>
+    <row r="22" spans="2:8" ht="17.25" thickBot="1">
+      <c r="B22" s="20" t="s">
+        <v>18</v>
       </c>
       <c r="C22" s="12" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D22" s="13" t="s">
         <v>56</v>
       </c>
       <c r="E22" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="F22" s="12" t="s">
-        <v>55</v>
-      </c>
+        <v>48</v>
+      </c>
+      <c r="F22" s="12"/>
       <c r="G22" s="12" t="s">
         <v>16</v>
       </c>
       <c r="H22" s="12" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="23" spans="2:8" ht="17.25" thickBot="1">
       <c r="B23" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="C23" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="C23" s="16" t="s">
         <v>57</v>
       </c>
       <c r="D23" s="13" t="s">
         <v>58</v>
       </c>
       <c r="E23" s="12" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F23" s="12"/>
       <c r="G23" s="12" t="s">
         <v>16</v>
       </c>
       <c r="H23" s="12" t="s">
-        <v>51</v>
+        <v>25</v>
       </c>
     </row>
-    <row r="24" spans="2:8" ht="17.25" thickBot="1">
+    <row r="24" spans="2:8" ht="26.25" thickBot="1">
       <c r="B24" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="C24" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="C24" s="12" t="s">
         <v>59</v>
       </c>
       <c r="D24" s="13" t="s">
         <v>60</v>
       </c>
       <c r="E24" s="12" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F24" s="12"/>
       <c r="G24" s="12" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="H24" s="12" t="s">
-        <v>25</v>
+        <v>49</v>
       </c>
     </row>
-    <row r="25" spans="2:8" ht="26.25" thickBot="1">
+    <row r="25" spans="2:8" ht="17.25" thickBot="1">
       <c r="B25" s="20" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="C25" s="12" t="s">
         <v>61</v>
@@ -4438,132 +4305,132 @@
         <v>62</v>
       </c>
       <c r="E25" s="12" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F25" s="12"/>
       <c r="G25" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="H25" s="12" t="s">
         <v>25</v>
-      </c>
-      <c r="H25" s="12" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="26" spans="2:8" ht="17.25" thickBot="1">
       <c r="B26" s="20" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C26" s="12" t="s">
-        <v>63</v>
+        <v>77</v>
       </c>
       <c r="D26" s="13" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
       <c r="E26" s="12" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F26" s="12"/>
       <c r="G26" s="12" t="s">
         <v>16</v>
       </c>
       <c r="H26" s="12" t="s">
-        <v>25</v>
+        <v>49</v>
       </c>
     </row>
-    <row r="27" spans="2:8" ht="17.25" thickBot="1">
+    <row r="27" spans="2:8" ht="80.25" thickBot="1">
       <c r="B27" s="20" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C27" s="12" t="s">
         <v>79</v>
       </c>
-      <c r="D27" s="13" t="s">
-        <v>80</v>
+      <c r="D27" s="18" t="s">
+        <v>85</v>
       </c>
       <c r="E27" s="12" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F27" s="12"/>
       <c r="G27" s="12" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="H27" s="12" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
-    <row r="28" spans="2:8" ht="80.25" thickBot="1">
+    <row r="28" spans="2:8" ht="17.25" thickBot="1">
       <c r="B28" s="20" t="s">
-        <v>36</v>
+        <v>80</v>
       </c>
       <c r="C28" s="12" t="s">
         <v>81</v>
       </c>
       <c r="D28" s="18" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="E28" s="12" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F28" s="12"/>
       <c r="G28" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="H28" s="12" t="s">
-        <v>51</v>
+        <v>16</v>
+      </c>
+      <c r="H28" s="15" t="s">
+        <v>49</v>
       </c>
     </row>
-    <row r="29" spans="2:8" ht="17.25" thickBot="1">
+    <row r="29" spans="2:8" ht="27.75" thickBot="1">
       <c r="B29" s="20" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C29" s="12" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D29" s="18" t="s">
-        <v>84</v>
-      </c>
-      <c r="E29" s="12" t="s">
-        <v>50</v>
+        <v>86</v>
+      </c>
+      <c r="E29" s="15" t="s">
+        <v>48</v>
       </c>
       <c r="F29" s="12"/>
       <c r="G29" s="12" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="H29" s="15" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
-    <row r="30" spans="2:8" ht="27.75" thickBot="1">
-      <c r="B30" s="20" t="s">
-        <v>85</v>
+    <row r="30" spans="2:8" ht="17.25" thickBot="1">
+      <c r="B30" s="22" t="s">
+        <v>74</v>
       </c>
       <c r="C30" s="12" t="s">
-        <v>86</v>
-      </c>
-      <c r="D30" s="18" t="s">
-        <v>88</v>
-      </c>
-      <c r="E30" s="15" t="s">
-        <v>50</v>
+        <v>75</v>
+      </c>
+      <c r="D30" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="E30" s="12" t="s">
+        <v>24</v>
       </c>
       <c r="F30" s="12"/>
       <c r="G30" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="H30" s="15" t="s">
-        <v>51</v>
+        <v>16</v>
+      </c>
+      <c r="H30" s="12" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="31" spans="2:8" ht="17.25" thickBot="1">
       <c r="B31" s="22" t="s">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="C31" s="12" t="s">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="D31" s="13" t="s">
-        <v>78</v>
-      </c>
-      <c r="E31" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="E31" s="15" t="s">
         <v>24</v>
       </c>
       <c r="F31" s="12"/>
@@ -4571,25 +4438,25 @@
         <v>16</v>
       </c>
       <c r="H31" s="12" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="32" spans="2:8" ht="17.25" thickBot="1">
       <c r="B32" s="22" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="C32" s="12" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="D32" s="13" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E32" s="15" t="s">
-        <v>24</v>
+        <v>48</v>
       </c>
       <c r="F32" s="12"/>
       <c r="G32" s="12" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="H32" s="12" t="s">
         <v>25</v>
@@ -4597,20 +4464,20 @@
     </row>
     <row r="33" spans="2:8" ht="17.25" thickBot="1">
       <c r="B33" s="22" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C33" s="12" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D33" s="13" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E33" s="15" t="s">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="F33" s="12"/>
       <c r="G33" s="12" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="H33" s="12" t="s">
         <v>25</v>
@@ -4618,58 +4485,58 @@
     </row>
     <row r="34" spans="2:8" ht="17.25" thickBot="1">
       <c r="B34" s="22" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C34" s="12" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D34" s="13" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E34" s="15" t="s">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="F34" s="12"/>
       <c r="G34" s="12" t="s">
         <v>16</v>
       </c>
       <c r="H34" s="12" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="35" spans="2:8" ht="17.25" thickBot="1">
-      <c r="B35" s="22" t="s">
-        <v>101</v>
-      </c>
-      <c r="C35" s="12" t="s">
+      <c r="B35" s="29" t="s">
         <v>102</v>
+      </c>
+      <c r="C35" s="16" t="s">
+        <v>105</v>
       </c>
       <c r="D35" s="13" t="s">
         <v>103</v>
       </c>
-      <c r="E35" s="15" t="s">
-        <v>50</v>
+      <c r="E35" s="12" t="s">
+        <v>48</v>
       </c>
       <c r="F35" s="12"/>
       <c r="G35" s="12" t="s">
         <v>16</v>
       </c>
       <c r="H35" s="12" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="36" spans="2:8" ht="17.25" thickBot="1">
-      <c r="B36" s="35" t="s">
+      <c r="B36" s="29" t="s">
         <v>104</v>
       </c>
       <c r="C36" s="16" t="s">
+        <v>106</v>
+      </c>
+      <c r="D36" s="18" t="s">
         <v>107</v>
       </c>
-      <c r="D36" s="13" t="s">
-        <v>105</v>
-      </c>
       <c r="E36" s="12" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F36" s="12"/>
       <c r="G36" s="12" t="s">
@@ -4680,17 +4547,17 @@
       </c>
     </row>
     <row r="37" spans="2:8" ht="17.25" thickBot="1">
-      <c r="B37" s="35" t="s">
-        <v>106</v>
+      <c r="B37" s="29" t="s">
+        <v>108</v>
       </c>
       <c r="C37" s="16" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D37" s="18" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E37" s="12" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F37" s="12"/>
       <c r="G37" s="12" t="s">
@@ -4701,108 +4568,87 @@
       </c>
     </row>
     <row r="38" spans="2:8" ht="17.25" thickBot="1">
-      <c r="B38" s="35" t="s">
-        <v>110</v>
+      <c r="B38" s="29" t="s">
+        <v>111</v>
       </c>
       <c r="C38" s="16" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D38" s="18" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E38" s="12" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F38" s="12"/>
       <c r="G38" s="12" t="s">
         <v>16</v>
       </c>
       <c r="H38" s="12" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="39" spans="2:8" ht="17.25" thickBot="1">
-      <c r="B39" s="35" t="s">
-        <v>113</v>
+      <c r="B39" s="29" t="s">
+        <v>114</v>
       </c>
       <c r="C39" s="16" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D39" s="18" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E39" s="12" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F39" s="12"/>
       <c r="G39" s="12" t="s">
         <v>16</v>
       </c>
       <c r="H39" s="12" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="40" spans="2:8" ht="17.25" thickBot="1">
-      <c r="B40" s="35" t="s">
-        <v>116</v>
+      <c r="B40" s="29" t="s">
+        <v>117</v>
       </c>
       <c r="C40" s="16" t="s">
-        <v>117</v>
-      </c>
-      <c r="D40" s="18" t="s">
         <v>118</v>
       </c>
+      <c r="D40" s="18"/>
       <c r="E40" s="12" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F40" s="12"/>
       <c r="G40" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="H40" s="12" t="s">
-        <v>25</v>
-      </c>
+      <c r="H40" s="12"/>
     </row>
-    <row r="41" spans="2:8" ht="17.25" thickBot="1">
-      <c r="B41" s="35" t="s">
-        <v>119</v>
+    <row r="41" spans="2:8" ht="27.75" thickBot="1">
+      <c r="B41" s="31" t="s">
+        <v>166</v>
       </c>
       <c r="C41" s="16" t="s">
-        <v>120</v>
-      </c>
-      <c r="D41" s="18"/>
+        <v>169</v>
+      </c>
+      <c r="D41" s="18" t="s">
+        <v>170</v>
+      </c>
       <c r="E41" s="12" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F41" s="12"/>
       <c r="G41" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="H41" s="12"/>
-    </row>
-    <row r="42" spans="2:8" ht="27.75" thickBot="1">
-      <c r="B42" s="37" t="s">
-        <v>170</v>
-      </c>
-      <c r="C42" s="16" t="s">
-        <v>173</v>
-      </c>
-      <c r="D42" s="18" t="s">
-        <v>174</v>
-      </c>
-      <c r="E42" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="F42" s="12"/>
-      <c r="G42" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="H42" s="12" t="s">
+      <c r="H41" s="12" t="s">
         <v>25</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="B8:H42" xr:uid="{08681459-A406-4CEE-9A8A-D3DF83B63176}">
+  <autoFilter ref="B8:H41" xr:uid="{08681459-A406-4CEE-9A8A-D3DF83B63176}">
     <filterColumn colId="3" showButton="0"/>
   </autoFilter>
   <mergeCells count="7">
@@ -4835,7 +4681,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="B1">
         <v>3</v>
@@ -4843,7 +4689,7 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="B2">
         <v>5</v>
@@ -4851,7 +4697,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="B3">
         <v>2</v>
@@ -4879,2110 +4725,2110 @@
   <sheetData>
     <row r="1" spans="1:38">
       <c r="A1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B1" t="s">
+        <v>125</v>
+      </c>
+      <c r="C1" t="s">
+        <v>127</v>
+      </c>
+      <c r="D1" t="s">
+        <v>123</v>
+      </c>
+      <c r="E1" s="23" t="s">
+        <v>136</v>
+      </c>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23">
+        <v>1</v>
+      </c>
+      <c r="H1" s="23" t="s">
+        <v>137</v>
+      </c>
+      <c r="I1" t="s">
+        <v>124</v>
+      </c>
+      <c r="J1" s="24" t="s">
+        <v>128</v>
+      </c>
+      <c r="K1" t="s">
+        <v>124</v>
+      </c>
+      <c r="L1" s="24" t="s">
+        <v>136</v>
+      </c>
+      <c r="M1" s="24">
+        <v>1</v>
+      </c>
+      <c r="N1" s="24" t="s">
+        <v>141</v>
+      </c>
+      <c r="O1" t="s">
+        <v>124</v>
+      </c>
+      <c r="P1" s="24" t="s">
+        <v>129</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>124</v>
+      </c>
+      <c r="R1" t="s">
         <v>130</v>
       </c>
-      <c r="B1" t="s">
-        <v>129</v>
-      </c>
-      <c r="C1" t="s">
+      <c r="S1" t="s">
+        <v>124</v>
+      </c>
+      <c r="T1" t="s">
+        <v>130</v>
+      </c>
+      <c r="U1" t="s">
+        <v>124</v>
+      </c>
+      <c r="V1" s="24" t="s">
         <v>131</v>
       </c>
-      <c r="D1" t="s">
-        <v>127</v>
-      </c>
-      <c r="E1" s="29" t="s">
-        <v>140</v>
-      </c>
-      <c r="F1" s="29"/>
-      <c r="G1" s="29">
-        <v>1</v>
-      </c>
-      <c r="H1" s="29" t="s">
-        <v>141</v>
-      </c>
-      <c r="I1" t="s">
-        <v>128</v>
-      </c>
-      <c r="J1" s="30" t="s">
+      <c r="W1" t="s">
+        <v>124</v>
+      </c>
+      <c r="X1" s="24" t="s">
         <v>132</v>
       </c>
-      <c r="K1" t="s">
-        <v>128</v>
-      </c>
-      <c r="L1" s="30" t="s">
-        <v>140</v>
-      </c>
-      <c r="M1" s="30">
-        <v>1</v>
-      </c>
-      <c r="N1" s="30" t="s">
-        <v>145</v>
-      </c>
-      <c r="O1" t="s">
-        <v>128</v>
-      </c>
-      <c r="P1" s="30" t="s">
+      <c r="Y1" t="s">
+        <v>124</v>
+      </c>
+      <c r="Z1" t="s">
         <v>133</v>
       </c>
-      <c r="Q1" t="s">
-        <v>128</v>
-      </c>
-      <c r="R1" t="s">
-        <v>134</v>
-      </c>
-      <c r="S1" t="s">
-        <v>128</v>
-      </c>
-      <c r="T1" t="s">
-        <v>134</v>
-      </c>
-      <c r="U1" t="s">
-        <v>128</v>
-      </c>
-      <c r="V1" s="30" t="s">
-        <v>135</v>
-      </c>
-      <c r="W1" t="s">
-        <v>128</v>
-      </c>
-      <c r="X1" s="30" t="s">
-        <v>136</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>128</v>
-      </c>
-      <c r="Z1" t="s">
-        <v>137</v>
-      </c>
       <c r="AA1" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="AB1">
         <f ca="1">RANDBETWEEN(170,185)</f>
-        <v>170</v>
+        <v>179</v>
       </c>
       <c r="AC1" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="AD1">
         <f ca="1">RANDBETWEEN(70,80)</f>
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="AE1" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="AF1">
         <f ca="1">RANDBETWEEN(0,1)</f>
         <v>0</v>
       </c>
       <c r="AG1" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="AH1">
         <f ca="1">RANDBETWEEN(0,1)</f>
         <v>1</v>
       </c>
       <c r="AI1" t="s">
-        <v>128</v>
-      </c>
-      <c r="AJ1" s="30" t="s">
-        <v>138</v>
-      </c>
-      <c r="AK1" s="30" t="s">
-        <v>139</v>
+        <v>124</v>
+      </c>
+      <c r="AJ1" s="24" t="s">
+        <v>134</v>
+      </c>
+      <c r="AK1" s="24" t="s">
+        <v>135</v>
       </c>
       <c r="AL1" t="str">
         <f ca="1">_xlfn.CONCAT(A1:AK1)</f>
-        <v>INSERT INTO user(email, pass, name, phone_num, user_reg_date, recent_login, main_foot, position, api_key, height, weight, was_pro, gender, born_date) VALUES('bioman1@gmail.com','1234','bioman1','010-1234-5678',sysdate(),sysdate(),'왼발','FW',null,170,79,0,1,'1995-06-01');</v>
+        <v>INSERT INTO user(email, pass, name, phone_num, user_reg_date, recent_login, main_foot, position, api_key, height, weight, was_pro, gender, born_date) VALUES('bioman1@gmail.com','1234','bioman1','010-1234-5678',sysdate(),sysdate(),'왼발','FW',null,179,72,0,1,'1995-06-01');</v>
       </c>
     </row>
     <row r="2" spans="1:38">
       <c r="A2" t="s">
+        <v>126</v>
+      </c>
+      <c r="B2" t="s">
+        <v>125</v>
+      </c>
+      <c r="C2" t="s">
+        <v>127</v>
+      </c>
+      <c r="D2" t="s">
+        <v>123</v>
+      </c>
+      <c r="E2" s="23" t="s">
+        <v>136</v>
+      </c>
+      <c r="F2" s="23"/>
+      <c r="G2" s="23">
+        <v>2</v>
+      </c>
+      <c r="H2" s="23" t="s">
+        <v>137</v>
+      </c>
+      <c r="I2" t="s">
+        <v>124</v>
+      </c>
+      <c r="J2" s="24" t="s">
+        <v>128</v>
+      </c>
+      <c r="K2" t="s">
+        <v>124</v>
+      </c>
+      <c r="L2" s="24" t="s">
+        <v>136</v>
+      </c>
+      <c r="M2" s="24">
+        <v>1</v>
+      </c>
+      <c r="N2" s="24" t="s">
+        <v>141</v>
+      </c>
+      <c r="O2" t="s">
+        <v>124</v>
+      </c>
+      <c r="P2" s="24" t="s">
+        <v>129</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>124</v>
+      </c>
+      <c r="R2" t="s">
         <v>130</v>
       </c>
-      <c r="B2" t="s">
-        <v>129</v>
-      </c>
-      <c r="C2" t="s">
-        <v>131</v>
-      </c>
-      <c r="D2" t="s">
-        <v>127</v>
-      </c>
-      <c r="E2" s="29" t="s">
-        <v>140</v>
-      </c>
-      <c r="F2" s="29"/>
-      <c r="G2" s="29">
-        <v>2</v>
-      </c>
-      <c r="H2" s="29" t="s">
-        <v>141</v>
-      </c>
-      <c r="I2" t="s">
-        <v>128</v>
-      </c>
-      <c r="J2" s="30" t="s">
-        <v>132</v>
-      </c>
-      <c r="K2" t="s">
-        <v>128</v>
-      </c>
-      <c r="L2" s="30" t="s">
-        <v>140</v>
-      </c>
-      <c r="M2" s="30">
-        <v>1</v>
-      </c>
-      <c r="N2" s="30" t="s">
-        <v>145</v>
-      </c>
-      <c r="O2" t="s">
-        <v>128</v>
-      </c>
-      <c r="P2" s="30" t="s">
+      <c r="S2" t="s">
+        <v>124</v>
+      </c>
+      <c r="T2" t="s">
+        <v>130</v>
+      </c>
+      <c r="U2" t="s">
+        <v>124</v>
+      </c>
+      <c r="V2" s="24" t="s">
+        <v>138</v>
+      </c>
+      <c r="W2" t="s">
+        <v>124</v>
+      </c>
+      <c r="X2" s="24" t="s">
+        <v>139</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>124</v>
+      </c>
+      <c r="Z2" t="s">
         <v>133</v>
       </c>
-      <c r="Q2" t="s">
-        <v>128</v>
-      </c>
-      <c r="R2" t="s">
-        <v>134</v>
-      </c>
-      <c r="S2" t="s">
-        <v>128</v>
-      </c>
-      <c r="T2" t="s">
-        <v>134</v>
-      </c>
-      <c r="U2" t="s">
-        <v>128</v>
-      </c>
-      <c r="V2" s="30" t="s">
-        <v>142</v>
-      </c>
-      <c r="W2" t="s">
-        <v>128</v>
-      </c>
-      <c r="X2" s="30" t="s">
-        <v>143</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>128</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>137</v>
-      </c>
       <c r="AA2" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="AB2">
         <f t="shared" ref="AB2:AB17" ca="1" si="0">RANDBETWEEN(170,185)</f>
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="AC2" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="AD2">
         <f t="shared" ref="AD2:AD17" ca="1" si="1">RANDBETWEEN(70,80)</f>
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="AE2" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="AF2">
         <f t="shared" ref="AF2:AF17" ca="1" si="2">RANDBETWEEN(0,1)</f>
         <v>0</v>
       </c>
       <c r="AG2" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="AH2">
         <f t="shared" ref="AH2:AH17" ca="1" si="3">RANDBETWEEN(0,1)</f>
         <v>1</v>
       </c>
       <c r="AI2" t="s">
-        <v>128</v>
-      </c>
-      <c r="AJ2" s="30" t="s">
-        <v>138</v>
-      </c>
-      <c r="AK2" s="30" t="s">
-        <v>139</v>
+        <v>124</v>
+      </c>
+      <c r="AJ2" s="24" t="s">
+        <v>134</v>
+      </c>
+      <c r="AK2" s="24" t="s">
+        <v>135</v>
       </c>
       <c r="AL2" t="str">
         <f t="shared" ref="AL2:AL17" ca="1" si="4">_xlfn.CONCAT(A2:AK2)</f>
-        <v>INSERT INTO user(email, pass, name, phone_num, user_reg_date, recent_login, main_foot, position, api_key, height, weight, was_pro, gender, born_date) VALUES('bioman2@gmail.com','1234','bioman1','010-1234-5678',sysdate(),sysdate(),'오른발','MF',null,177,70,0,1,'1995-06-01');</v>
+        <v>INSERT INTO user(email, pass, name, phone_num, user_reg_date, recent_login, main_foot, position, api_key, height, weight, was_pro, gender, born_date) VALUES('bioman2@gmail.com','1234','bioman1','010-1234-5678',sysdate(),sysdate(),'오른발','MF',null,179,77,0,1,'1995-06-01');</v>
       </c>
     </row>
     <row r="3" spans="1:38">
       <c r="A3" t="s">
+        <v>126</v>
+      </c>
+      <c r="B3" t="s">
+        <v>125</v>
+      </c>
+      <c r="C3" t="s">
+        <v>127</v>
+      </c>
+      <c r="D3" t="s">
+        <v>123</v>
+      </c>
+      <c r="E3" s="23" t="s">
+        <v>136</v>
+      </c>
+      <c r="F3" s="23"/>
+      <c r="G3" s="23">
+        <v>3</v>
+      </c>
+      <c r="H3" s="23" t="s">
+        <v>137</v>
+      </c>
+      <c r="I3" t="s">
+        <v>124</v>
+      </c>
+      <c r="J3" s="24" t="s">
+        <v>128</v>
+      </c>
+      <c r="K3" t="s">
+        <v>124</v>
+      </c>
+      <c r="L3" s="24" t="s">
+        <v>136</v>
+      </c>
+      <c r="M3" s="24">
+        <v>1</v>
+      </c>
+      <c r="N3" s="24" t="s">
+        <v>141</v>
+      </c>
+      <c r="O3" t="s">
+        <v>124</v>
+      </c>
+      <c r="P3" s="24" t="s">
+        <v>129</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>124</v>
+      </c>
+      <c r="R3" t="s">
         <v>130</v>
       </c>
-      <c r="B3" t="s">
-        <v>129</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="S3" t="s">
+        <v>124</v>
+      </c>
+      <c r="T3" t="s">
+        <v>130</v>
+      </c>
+      <c r="U3" t="s">
+        <v>124</v>
+      </c>
+      <c r="V3" s="24" t="s">
         <v>131</v>
       </c>
-      <c r="D3" t="s">
-        <v>127</v>
-      </c>
-      <c r="E3" s="29" t="s">
+      <c r="W3" t="s">
+        <v>124</v>
+      </c>
+      <c r="X3" s="24" t="s">
         <v>140</v>
       </c>
-      <c r="F3" s="29"/>
-      <c r="G3" s="29">
-        <v>3</v>
-      </c>
-      <c r="H3" s="29" t="s">
-        <v>141</v>
-      </c>
-      <c r="I3" t="s">
-        <v>128</v>
-      </c>
-      <c r="J3" s="30" t="s">
-        <v>132</v>
-      </c>
-      <c r="K3" t="s">
-        <v>128</v>
-      </c>
-      <c r="L3" s="30" t="s">
-        <v>140</v>
-      </c>
-      <c r="M3" s="30">
-        <v>1</v>
-      </c>
-      <c r="N3" s="30" t="s">
-        <v>145</v>
-      </c>
-      <c r="O3" t="s">
-        <v>128</v>
-      </c>
-      <c r="P3" s="30" t="s">
+      <c r="Y3" t="s">
+        <v>124</v>
+      </c>
+      <c r="Z3" t="s">
         <v>133</v>
       </c>
-      <c r="Q3" t="s">
-        <v>128</v>
-      </c>
-      <c r="R3" t="s">
-        <v>134</v>
-      </c>
-      <c r="S3" t="s">
-        <v>128</v>
-      </c>
-      <c r="T3" t="s">
-        <v>134</v>
-      </c>
-      <c r="U3" t="s">
-        <v>128</v>
-      </c>
-      <c r="V3" s="30" t="s">
-        <v>135</v>
-      </c>
-      <c r="W3" t="s">
-        <v>128</v>
-      </c>
-      <c r="X3" s="30" t="s">
-        <v>144</v>
-      </c>
-      <c r="Y3" t="s">
-        <v>128</v>
-      </c>
-      <c r="Z3" t="s">
-        <v>137</v>
-      </c>
       <c r="AA3" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="AB3">
         <f t="shared" ca="1" si="0"/>
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="AC3" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="AD3">
         <f t="shared" ca="1" si="1"/>
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="AE3" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="AF3">
         <f t="shared" ca="1" si="2"/>
         <v>0</v>
       </c>
       <c r="AG3" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="AH3">
         <f t="shared" ca="1" si="3"/>
         <v>1</v>
       </c>
       <c r="AI3" t="s">
-        <v>128</v>
-      </c>
-      <c r="AJ3" s="30" t="s">
-        <v>138</v>
-      </c>
-      <c r="AK3" s="30" t="s">
-        <v>139</v>
+        <v>124</v>
+      </c>
+      <c r="AJ3" s="24" t="s">
+        <v>134</v>
+      </c>
+      <c r="AK3" s="24" t="s">
+        <v>135</v>
       </c>
       <c r="AL3" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>INSERT INTO user(email, pass, name, phone_num, user_reg_date, recent_login, main_foot, position, api_key, height, weight, was_pro, gender, born_date) VALUES('bioman3@gmail.com','1234','bioman1','010-1234-5678',sysdate(),sysdate(),'왼발','DF',null,181,70,0,1,'1995-06-01');</v>
+        <v>INSERT INTO user(email, pass, name, phone_num, user_reg_date, recent_login, main_foot, position, api_key, height, weight, was_pro, gender, born_date) VALUES('bioman3@gmail.com','1234','bioman1','010-1234-5678',sysdate(),sysdate(),'왼발','DF',null,180,74,0,1,'1995-06-01');</v>
       </c>
     </row>
     <row r="4" spans="1:38">
       <c r="A4" t="s">
+        <v>126</v>
+      </c>
+      <c r="B4" t="s">
+        <v>125</v>
+      </c>
+      <c r="C4" t="s">
+        <v>127</v>
+      </c>
+      <c r="D4" t="s">
+        <v>123</v>
+      </c>
+      <c r="E4" s="23" t="s">
+        <v>136</v>
+      </c>
+      <c r="F4" s="23"/>
+      <c r="G4" s="23">
+        <v>4</v>
+      </c>
+      <c r="H4" s="23" t="s">
+        <v>137</v>
+      </c>
+      <c r="I4" t="s">
+        <v>124</v>
+      </c>
+      <c r="J4" s="24" t="s">
+        <v>128</v>
+      </c>
+      <c r="K4" t="s">
+        <v>124</v>
+      </c>
+      <c r="L4" s="24" t="s">
+        <v>136</v>
+      </c>
+      <c r="M4" s="24">
+        <v>1</v>
+      </c>
+      <c r="N4" s="24" t="s">
+        <v>141</v>
+      </c>
+      <c r="O4" t="s">
+        <v>124</v>
+      </c>
+      <c r="P4" s="24" t="s">
+        <v>129</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>124</v>
+      </c>
+      <c r="R4" t="s">
         <v>130</v>
       </c>
-      <c r="B4" t="s">
-        <v>129</v>
-      </c>
-      <c r="C4" t="s">
-        <v>131</v>
-      </c>
-      <c r="D4" t="s">
-        <v>127</v>
-      </c>
-      <c r="E4" s="29" t="s">
-        <v>140</v>
-      </c>
-      <c r="F4" s="29"/>
-      <c r="G4" s="29">
-        <v>4</v>
-      </c>
-      <c r="H4" s="29" t="s">
-        <v>141</v>
-      </c>
-      <c r="I4" t="s">
-        <v>128</v>
-      </c>
-      <c r="J4" s="30" t="s">
+      <c r="S4" t="s">
+        <v>124</v>
+      </c>
+      <c r="T4" t="s">
+        <v>130</v>
+      </c>
+      <c r="U4" t="s">
+        <v>124</v>
+      </c>
+      <c r="V4" s="24" t="s">
+        <v>138</v>
+      </c>
+      <c r="W4" t="s">
+        <v>124</v>
+      </c>
+      <c r="X4" s="24" t="s">
         <v>132</v>
       </c>
-      <c r="K4" t="s">
-        <v>128</v>
-      </c>
-      <c r="L4" s="30" t="s">
-        <v>140</v>
-      </c>
-      <c r="M4" s="30">
-        <v>1</v>
-      </c>
-      <c r="N4" s="30" t="s">
-        <v>145</v>
-      </c>
-      <c r="O4" t="s">
-        <v>128</v>
-      </c>
-      <c r="P4" s="30" t="s">
+      <c r="Y4" t="s">
+        <v>124</v>
+      </c>
+      <c r="Z4" t="s">
         <v>133</v>
       </c>
-      <c r="Q4" t="s">
-        <v>128</v>
-      </c>
-      <c r="R4" t="s">
-        <v>134</v>
-      </c>
-      <c r="S4" t="s">
-        <v>128</v>
-      </c>
-      <c r="T4" t="s">
-        <v>134</v>
-      </c>
-      <c r="U4" t="s">
-        <v>128</v>
-      </c>
-      <c r="V4" s="30" t="s">
-        <v>142</v>
-      </c>
-      <c r="W4" t="s">
-        <v>128</v>
-      </c>
-      <c r="X4" s="30" t="s">
-        <v>136</v>
-      </c>
-      <c r="Y4" t="s">
-        <v>128</v>
-      </c>
-      <c r="Z4" t="s">
-        <v>137</v>
-      </c>
       <c r="AA4" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="AB4">
         <f t="shared" ca="1" si="0"/>
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="AC4" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="AD4">
         <f t="shared" ca="1" si="1"/>
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="AE4" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="AF4">
         <f t="shared" ca="1" si="2"/>
         <v>1</v>
       </c>
       <c r="AG4" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="AH4">
         <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
       <c r="AI4" t="s">
-        <v>128</v>
-      </c>
-      <c r="AJ4" s="30" t="s">
-        <v>138</v>
-      </c>
-      <c r="AK4" s="30" t="s">
-        <v>139</v>
+        <v>124</v>
+      </c>
+      <c r="AJ4" s="24" t="s">
+        <v>134</v>
+      </c>
+      <c r="AK4" s="24" t="s">
+        <v>135</v>
       </c>
       <c r="AL4" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>INSERT INTO user(email, pass, name, phone_num, user_reg_date, recent_login, main_foot, position, api_key, height, weight, was_pro, gender, born_date) VALUES('bioman4@gmail.com','1234','bioman1','010-1234-5678',sysdate(),sysdate(),'오른발','FW',null,174,76,1,0,'1995-06-01');</v>
+        <v>INSERT INTO user(email, pass, name, phone_num, user_reg_date, recent_login, main_foot, position, api_key, height, weight, was_pro, gender, born_date) VALUES('bioman4@gmail.com','1234','bioman1','010-1234-5678',sysdate(),sysdate(),'오른발','FW',null,171,72,1,0,'1995-06-01');</v>
       </c>
     </row>
     <row r="5" spans="1:38">
       <c r="A5" t="s">
+        <v>126</v>
+      </c>
+      <c r="B5" t="s">
+        <v>125</v>
+      </c>
+      <c r="C5" t="s">
+        <v>127</v>
+      </c>
+      <c r="D5" t="s">
+        <v>123</v>
+      </c>
+      <c r="E5" s="23" t="s">
+        <v>136</v>
+      </c>
+      <c r="F5" s="23"/>
+      <c r="G5" s="23">
+        <v>5</v>
+      </c>
+      <c r="H5" s="23" t="s">
+        <v>137</v>
+      </c>
+      <c r="I5" t="s">
+        <v>124</v>
+      </c>
+      <c r="J5" s="24" t="s">
+        <v>128</v>
+      </c>
+      <c r="K5" t="s">
+        <v>124</v>
+      </c>
+      <c r="L5" s="24" t="s">
+        <v>136</v>
+      </c>
+      <c r="M5" s="24">
+        <v>1</v>
+      </c>
+      <c r="N5" s="24" t="s">
+        <v>141</v>
+      </c>
+      <c r="O5" t="s">
+        <v>124</v>
+      </c>
+      <c r="P5" s="24" t="s">
+        <v>129</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>124</v>
+      </c>
+      <c r="R5" t="s">
         <v>130</v>
       </c>
-      <c r="B5" t="s">
-        <v>129</v>
-      </c>
-      <c r="C5" t="s">
+      <c r="S5" t="s">
+        <v>124</v>
+      </c>
+      <c r="T5" t="s">
+        <v>130</v>
+      </c>
+      <c r="U5" t="s">
+        <v>124</v>
+      </c>
+      <c r="V5" s="24" t="s">
         <v>131</v>
       </c>
-      <c r="D5" t="s">
-        <v>127</v>
-      </c>
-      <c r="E5" s="29" t="s">
-        <v>140</v>
-      </c>
-      <c r="F5" s="29"/>
-      <c r="G5" s="29">
-        <v>5</v>
-      </c>
-      <c r="H5" s="29" t="s">
-        <v>141</v>
-      </c>
-      <c r="I5" t="s">
-        <v>128</v>
-      </c>
-      <c r="J5" s="30" t="s">
-        <v>132</v>
-      </c>
-      <c r="K5" t="s">
-        <v>128</v>
-      </c>
-      <c r="L5" s="30" t="s">
-        <v>140</v>
-      </c>
-      <c r="M5" s="30">
-        <v>1</v>
-      </c>
-      <c r="N5" s="30" t="s">
-        <v>145</v>
-      </c>
-      <c r="O5" t="s">
-        <v>128</v>
-      </c>
-      <c r="P5" s="30" t="s">
+      <c r="W5" t="s">
+        <v>124</v>
+      </c>
+      <c r="X5" s="24" t="s">
+        <v>139</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>124</v>
+      </c>
+      <c r="Z5" t="s">
         <v>133</v>
       </c>
-      <c r="Q5" t="s">
-        <v>128</v>
-      </c>
-      <c r="R5" t="s">
-        <v>134</v>
-      </c>
-      <c r="S5" t="s">
-        <v>128</v>
-      </c>
-      <c r="T5" t="s">
-        <v>134</v>
-      </c>
-      <c r="U5" t="s">
-        <v>128</v>
-      </c>
-      <c r="V5" s="30" t="s">
-        <v>135</v>
-      </c>
-      <c r="W5" t="s">
-        <v>128</v>
-      </c>
-      <c r="X5" s="30" t="s">
-        <v>143</v>
-      </c>
-      <c r="Y5" t="s">
-        <v>128</v>
-      </c>
-      <c r="Z5" t="s">
-        <v>137</v>
-      </c>
       <c r="AA5" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="AB5">
         <f t="shared" ca="1" si="0"/>
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="AC5" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="AD5">
         <f t="shared" ca="1" si="1"/>
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AE5" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="AF5">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG5" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="AH5">
         <f t="shared" ca="1" si="3"/>
         <v>1</v>
       </c>
       <c r="AI5" t="s">
-        <v>128</v>
-      </c>
-      <c r="AJ5" s="30" t="s">
-        <v>138</v>
-      </c>
-      <c r="AK5" s="30" t="s">
-        <v>139</v>
+        <v>124</v>
+      </c>
+      <c r="AJ5" s="24" t="s">
+        <v>134</v>
+      </c>
+      <c r="AK5" s="24" t="s">
+        <v>135</v>
       </c>
       <c r="AL5" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>INSERT INTO user(email, pass, name, phone_num, user_reg_date, recent_login, main_foot, position, api_key, height, weight, was_pro, gender, born_date) VALUES('bioman5@gmail.com','1234','bioman1','010-1234-5678',sysdate(),sysdate(),'왼발','MF',null,184,73,1,1,'1995-06-01');</v>
+        <v>INSERT INTO user(email, pass, name, phone_num, user_reg_date, recent_login, main_foot, position, api_key, height, weight, was_pro, gender, born_date) VALUES('bioman5@gmail.com','1234','bioman1','010-1234-5678',sysdate(),sysdate(),'왼발','MF',null,182,74,0,1,'1995-06-01');</v>
       </c>
     </row>
     <row r="6" spans="1:38">
       <c r="A6" t="s">
+        <v>126</v>
+      </c>
+      <c r="B6" t="s">
+        <v>125</v>
+      </c>
+      <c r="C6" t="s">
+        <v>127</v>
+      </c>
+      <c r="D6" t="s">
+        <v>123</v>
+      </c>
+      <c r="E6" s="23" t="s">
+        <v>136</v>
+      </c>
+      <c r="F6" s="23"/>
+      <c r="G6" s="23">
+        <v>6</v>
+      </c>
+      <c r="H6" s="23" t="s">
+        <v>137</v>
+      </c>
+      <c r="I6" t="s">
+        <v>124</v>
+      </c>
+      <c r="J6" s="24" t="s">
+        <v>128</v>
+      </c>
+      <c r="K6" t="s">
+        <v>124</v>
+      </c>
+      <c r="L6" s="24" t="s">
+        <v>136</v>
+      </c>
+      <c r="M6" s="24">
+        <v>1</v>
+      </c>
+      <c r="N6" s="24" t="s">
+        <v>141</v>
+      </c>
+      <c r="O6" t="s">
+        <v>124</v>
+      </c>
+      <c r="P6" s="24" t="s">
+        <v>129</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>124</v>
+      </c>
+      <c r="R6" t="s">
         <v>130</v>
       </c>
-      <c r="B6" t="s">
-        <v>129</v>
-      </c>
-      <c r="C6" t="s">
-        <v>131</v>
-      </c>
-      <c r="D6" t="s">
-        <v>127</v>
-      </c>
-      <c r="E6" s="29" t="s">
+      <c r="S6" t="s">
+        <v>124</v>
+      </c>
+      <c r="T6" t="s">
+        <v>130</v>
+      </c>
+      <c r="U6" t="s">
+        <v>124</v>
+      </c>
+      <c r="V6" s="24" t="s">
+        <v>138</v>
+      </c>
+      <c r="W6" t="s">
+        <v>124</v>
+      </c>
+      <c r="X6" s="24" t="s">
         <v>140</v>
       </c>
-      <c r="F6" s="29"/>
-      <c r="G6" s="29">
-        <v>6</v>
-      </c>
-      <c r="H6" s="29" t="s">
-        <v>141</v>
-      </c>
-      <c r="I6" t="s">
-        <v>128</v>
-      </c>
-      <c r="J6" s="30" t="s">
-        <v>132</v>
-      </c>
-      <c r="K6" t="s">
-        <v>128</v>
-      </c>
-      <c r="L6" s="30" t="s">
-        <v>140</v>
-      </c>
-      <c r="M6" s="30">
-        <v>1</v>
-      </c>
-      <c r="N6" s="30" t="s">
-        <v>145</v>
-      </c>
-      <c r="O6" t="s">
-        <v>128</v>
-      </c>
-      <c r="P6" s="30" t="s">
+      <c r="Y6" t="s">
+        <v>124</v>
+      </c>
+      <c r="Z6" t="s">
         <v>133</v>
       </c>
-      <c r="Q6" t="s">
-        <v>128</v>
-      </c>
-      <c r="R6" t="s">
-        <v>134</v>
-      </c>
-      <c r="S6" t="s">
-        <v>128</v>
-      </c>
-      <c r="T6" t="s">
-        <v>134</v>
-      </c>
-      <c r="U6" t="s">
-        <v>128</v>
-      </c>
-      <c r="V6" s="30" t="s">
-        <v>142</v>
-      </c>
-      <c r="W6" t="s">
-        <v>128</v>
-      </c>
-      <c r="X6" s="30" t="s">
-        <v>144</v>
-      </c>
-      <c r="Y6" t="s">
-        <v>128</v>
-      </c>
-      <c r="Z6" t="s">
-        <v>137</v>
-      </c>
       <c r="AA6" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="AB6">
         <f t="shared" ca="1" si="0"/>
-        <v>171</v>
+        <v>184</v>
       </c>
       <c r="AC6" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="AD6">
         <f t="shared" ca="1" si="1"/>
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="AE6" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="AF6">
         <f t="shared" ca="1" si="2"/>
         <v>1</v>
       </c>
       <c r="AG6" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="AH6">
         <f t="shared" ca="1" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI6" t="s">
-        <v>128</v>
-      </c>
-      <c r="AJ6" s="30" t="s">
-        <v>138</v>
-      </c>
-      <c r="AK6" s="30" t="s">
-        <v>139</v>
+        <v>124</v>
+      </c>
+      <c r="AJ6" s="24" t="s">
+        <v>134</v>
+      </c>
+      <c r="AK6" s="24" t="s">
+        <v>135</v>
       </c>
       <c r="AL6" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>INSERT INTO user(email, pass, name, phone_num, user_reg_date, recent_login, main_foot, position, api_key, height, weight, was_pro, gender, born_date) VALUES('bioman6@gmail.com','1234','bioman1','010-1234-5678',sysdate(),sysdate(),'오른발','DF',null,171,70,1,0,'1995-06-01');</v>
+        <v>INSERT INTO user(email, pass, name, phone_num, user_reg_date, recent_login, main_foot, position, api_key, height, weight, was_pro, gender, born_date) VALUES('bioman6@gmail.com','1234','bioman1','010-1234-5678',sysdate(),sysdate(),'오른발','DF',null,184,78,1,1,'1995-06-01');</v>
       </c>
     </row>
     <row r="7" spans="1:38">
       <c r="A7" t="s">
+        <v>126</v>
+      </c>
+      <c r="B7" t="s">
+        <v>125</v>
+      </c>
+      <c r="C7" t="s">
+        <v>127</v>
+      </c>
+      <c r="D7" t="s">
+        <v>123</v>
+      </c>
+      <c r="E7" s="23" t="s">
+        <v>136</v>
+      </c>
+      <c r="F7" s="23"/>
+      <c r="G7" s="23">
+        <v>7</v>
+      </c>
+      <c r="H7" s="23" t="s">
+        <v>137</v>
+      </c>
+      <c r="I7" t="s">
+        <v>124</v>
+      </c>
+      <c r="J7" s="24" t="s">
+        <v>128</v>
+      </c>
+      <c r="K7" t="s">
+        <v>124</v>
+      </c>
+      <c r="L7" s="24" t="s">
+        <v>136</v>
+      </c>
+      <c r="M7" s="24">
+        <v>1</v>
+      </c>
+      <c r="N7" s="24" t="s">
+        <v>141</v>
+      </c>
+      <c r="O7" t="s">
+        <v>124</v>
+      </c>
+      <c r="P7" s="24" t="s">
+        <v>129</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>124</v>
+      </c>
+      <c r="R7" t="s">
         <v>130</v>
       </c>
-      <c r="B7" t="s">
-        <v>129</v>
-      </c>
-      <c r="C7" t="s">
+      <c r="S7" t="s">
+        <v>124</v>
+      </c>
+      <c r="T7" t="s">
+        <v>130</v>
+      </c>
+      <c r="U7" t="s">
+        <v>124</v>
+      </c>
+      <c r="V7" s="24" t="s">
         <v>131</v>
       </c>
-      <c r="D7" t="s">
-        <v>127</v>
-      </c>
-      <c r="E7" s="29" t="s">
-        <v>140</v>
-      </c>
-      <c r="F7" s="29"/>
-      <c r="G7" s="29">
-        <v>7</v>
-      </c>
-      <c r="H7" s="29" t="s">
-        <v>141</v>
-      </c>
-      <c r="I7" t="s">
-        <v>128</v>
-      </c>
-      <c r="J7" s="30" t="s">
+      <c r="W7" t="s">
+        <v>124</v>
+      </c>
+      <c r="X7" s="24" t="s">
         <v>132</v>
       </c>
-      <c r="K7" t="s">
-        <v>128</v>
-      </c>
-      <c r="L7" s="30" t="s">
-        <v>140</v>
-      </c>
-      <c r="M7" s="30">
-        <v>1</v>
-      </c>
-      <c r="N7" s="30" t="s">
-        <v>145</v>
-      </c>
-      <c r="O7" t="s">
-        <v>128</v>
-      </c>
-      <c r="P7" s="30" t="s">
+      <c r="Y7" t="s">
+        <v>124</v>
+      </c>
+      <c r="Z7" t="s">
         <v>133</v>
       </c>
-      <c r="Q7" t="s">
-        <v>128</v>
-      </c>
-      <c r="R7" t="s">
-        <v>134</v>
-      </c>
-      <c r="S7" t="s">
-        <v>128</v>
-      </c>
-      <c r="T7" t="s">
-        <v>134</v>
-      </c>
-      <c r="U7" t="s">
-        <v>128</v>
-      </c>
-      <c r="V7" s="30" t="s">
-        <v>135</v>
-      </c>
-      <c r="W7" t="s">
-        <v>128</v>
-      </c>
-      <c r="X7" s="30" t="s">
-        <v>136</v>
-      </c>
-      <c r="Y7" t="s">
-        <v>128</v>
-      </c>
-      <c r="Z7" t="s">
-        <v>137</v>
-      </c>
       <c r="AA7" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="AB7">
         <f t="shared" ca="1" si="0"/>
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="AC7" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="AD7">
         <f t="shared" ca="1" si="1"/>
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="AE7" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="AF7">
         <f t="shared" ca="1" si="2"/>
         <v>0</v>
       </c>
       <c r="AG7" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="AH7">
         <f t="shared" ca="1" si="3"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI7" t="s">
-        <v>128</v>
-      </c>
-      <c r="AJ7" s="30" t="s">
-        <v>138</v>
-      </c>
-      <c r="AK7" s="30" t="s">
-        <v>139</v>
+        <v>124</v>
+      </c>
+      <c r="AJ7" s="24" t="s">
+        <v>134</v>
+      </c>
+      <c r="AK7" s="24" t="s">
+        <v>135</v>
       </c>
       <c r="AL7" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>INSERT INTO user(email, pass, name, phone_num, user_reg_date, recent_login, main_foot, position, api_key, height, weight, was_pro, gender, born_date) VALUES('bioman7@gmail.com','1234','bioman1','010-1234-5678',sysdate(),sysdate(),'왼발','FW',null,178,72,0,1,'1995-06-01');</v>
+        <v>INSERT INTO user(email, pass, name, phone_num, user_reg_date, recent_login, main_foot, position, api_key, height, weight, was_pro, gender, born_date) VALUES('bioman7@gmail.com','1234','bioman1','010-1234-5678',sysdate(),sysdate(),'왼발','FW',null,179,79,0,0,'1995-06-01');</v>
       </c>
     </row>
     <row r="8" spans="1:38">
       <c r="A8" t="s">
+        <v>126</v>
+      </c>
+      <c r="B8" t="s">
+        <v>125</v>
+      </c>
+      <c r="C8" t="s">
+        <v>127</v>
+      </c>
+      <c r="D8" t="s">
+        <v>123</v>
+      </c>
+      <c r="E8" s="23" t="s">
+        <v>136</v>
+      </c>
+      <c r="F8" s="23"/>
+      <c r="G8" s="23">
+        <v>8</v>
+      </c>
+      <c r="H8" s="23" t="s">
+        <v>137</v>
+      </c>
+      <c r="I8" t="s">
+        <v>124</v>
+      </c>
+      <c r="J8" s="24" t="s">
+        <v>128</v>
+      </c>
+      <c r="K8" t="s">
+        <v>124</v>
+      </c>
+      <c r="L8" s="24" t="s">
+        <v>136</v>
+      </c>
+      <c r="M8" s="24">
+        <v>1</v>
+      </c>
+      <c r="N8" s="24" t="s">
+        <v>141</v>
+      </c>
+      <c r="O8" t="s">
+        <v>124</v>
+      </c>
+      <c r="P8" s="24" t="s">
+        <v>129</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>124</v>
+      </c>
+      <c r="R8" t="s">
         <v>130</v>
       </c>
-      <c r="B8" t="s">
-        <v>129</v>
-      </c>
-      <c r="C8" t="s">
-        <v>131</v>
-      </c>
-      <c r="D8" t="s">
-        <v>127</v>
-      </c>
-      <c r="E8" s="29" t="s">
-        <v>140</v>
-      </c>
-      <c r="F8" s="29"/>
-      <c r="G8" s="29">
-        <v>8</v>
-      </c>
-      <c r="H8" s="29" t="s">
-        <v>141</v>
-      </c>
-      <c r="I8" t="s">
-        <v>128</v>
-      </c>
-      <c r="J8" s="30" t="s">
-        <v>132</v>
-      </c>
-      <c r="K8" t="s">
-        <v>128</v>
-      </c>
-      <c r="L8" s="30" t="s">
-        <v>140</v>
-      </c>
-      <c r="M8" s="30">
-        <v>1</v>
-      </c>
-      <c r="N8" s="30" t="s">
-        <v>145</v>
-      </c>
-      <c r="O8" t="s">
-        <v>128</v>
-      </c>
-      <c r="P8" s="30" t="s">
+      <c r="S8" t="s">
+        <v>124</v>
+      </c>
+      <c r="T8" t="s">
+        <v>130</v>
+      </c>
+      <c r="U8" t="s">
+        <v>124</v>
+      </c>
+      <c r="V8" s="24" t="s">
+        <v>138</v>
+      </c>
+      <c r="W8" t="s">
+        <v>124</v>
+      </c>
+      <c r="X8" s="24" t="s">
+        <v>139</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>124</v>
+      </c>
+      <c r="Z8" t="s">
         <v>133</v>
       </c>
-      <c r="Q8" t="s">
-        <v>128</v>
-      </c>
-      <c r="R8" t="s">
-        <v>134</v>
-      </c>
-      <c r="S8" t="s">
-        <v>128</v>
-      </c>
-      <c r="T8" t="s">
-        <v>134</v>
-      </c>
-      <c r="U8" t="s">
-        <v>128</v>
-      </c>
-      <c r="V8" s="30" t="s">
-        <v>142</v>
-      </c>
-      <c r="W8" t="s">
-        <v>128</v>
-      </c>
-      <c r="X8" s="30" t="s">
-        <v>143</v>
-      </c>
-      <c r="Y8" t="s">
-        <v>128</v>
-      </c>
-      <c r="Z8" t="s">
-        <v>137</v>
-      </c>
       <c r="AA8" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="AB8">
         <f t="shared" ca="1" si="0"/>
-        <v>176</v>
+        <v>184</v>
       </c>
       <c r="AC8" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="AD8">
         <f t="shared" ca="1" si="1"/>
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="AE8" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="AF8">
         <f t="shared" ca="1" si="2"/>
         <v>0</v>
       </c>
       <c r="AG8" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="AH8">
         <f t="shared" ca="1" si="3"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI8" t="s">
-        <v>128</v>
-      </c>
-      <c r="AJ8" s="30" t="s">
-        <v>138</v>
-      </c>
-      <c r="AK8" s="30" t="s">
-        <v>139</v>
+        <v>124</v>
+      </c>
+      <c r="AJ8" s="24" t="s">
+        <v>134</v>
+      </c>
+      <c r="AK8" s="24" t="s">
+        <v>135</v>
       </c>
       <c r="AL8" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>INSERT INTO user(email, pass, name, phone_num, user_reg_date, recent_login, main_foot, position, api_key, height, weight, was_pro, gender, born_date) VALUES('bioman8@gmail.com','1234','bioman1','010-1234-5678',sysdate(),sysdate(),'오른발','MF',null,176,71,0,1,'1995-06-01');</v>
+        <v>INSERT INTO user(email, pass, name, phone_num, user_reg_date, recent_login, main_foot, position, api_key, height, weight, was_pro, gender, born_date) VALUES('bioman8@gmail.com','1234','bioman1','010-1234-5678',sysdate(),sysdate(),'오른발','MF',null,184,74,0,0,'1995-06-01');</v>
       </c>
     </row>
     <row r="9" spans="1:38">
       <c r="A9" t="s">
+        <v>126</v>
+      </c>
+      <c r="B9" t="s">
+        <v>125</v>
+      </c>
+      <c r="C9" t="s">
+        <v>127</v>
+      </c>
+      <c r="D9" t="s">
+        <v>123</v>
+      </c>
+      <c r="E9" s="23" t="s">
+        <v>136</v>
+      </c>
+      <c r="F9" s="23"/>
+      <c r="G9" s="23">
+        <v>9</v>
+      </c>
+      <c r="H9" s="23" t="s">
+        <v>137</v>
+      </c>
+      <c r="I9" t="s">
+        <v>124</v>
+      </c>
+      <c r="J9" s="24" t="s">
+        <v>128</v>
+      </c>
+      <c r="K9" t="s">
+        <v>124</v>
+      </c>
+      <c r="L9" s="24" t="s">
+        <v>136</v>
+      </c>
+      <c r="M9" s="24">
+        <v>1</v>
+      </c>
+      <c r="N9" s="24" t="s">
+        <v>141</v>
+      </c>
+      <c r="O9" t="s">
+        <v>124</v>
+      </c>
+      <c r="P9" s="24" t="s">
+        <v>129</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>124</v>
+      </c>
+      <c r="R9" t="s">
         <v>130</v>
       </c>
-      <c r="B9" t="s">
-        <v>129</v>
-      </c>
-      <c r="C9" t="s">
+      <c r="S9" t="s">
+        <v>124</v>
+      </c>
+      <c r="T9" t="s">
+        <v>130</v>
+      </c>
+      <c r="U9" t="s">
+        <v>124</v>
+      </c>
+      <c r="V9" s="24" t="s">
         <v>131</v>
       </c>
-      <c r="D9" t="s">
-        <v>127</v>
-      </c>
-      <c r="E9" s="29" t="s">
+      <c r="W9" t="s">
+        <v>124</v>
+      </c>
+      <c r="X9" s="24" t="s">
         <v>140</v>
       </c>
-      <c r="F9" s="29"/>
-      <c r="G9" s="29">
-        <v>9</v>
-      </c>
-      <c r="H9" s="29" t="s">
-        <v>141</v>
-      </c>
-      <c r="I9" t="s">
-        <v>128</v>
-      </c>
-      <c r="J9" s="30" t="s">
-        <v>132</v>
-      </c>
-      <c r="K9" t="s">
-        <v>128</v>
-      </c>
-      <c r="L9" s="30" t="s">
-        <v>140</v>
-      </c>
-      <c r="M9" s="30">
-        <v>1</v>
-      </c>
-      <c r="N9" s="30" t="s">
-        <v>145</v>
-      </c>
-      <c r="O9" t="s">
-        <v>128</v>
-      </c>
-      <c r="P9" s="30" t="s">
+      <c r="Y9" t="s">
+        <v>124</v>
+      </c>
+      <c r="Z9" t="s">
         <v>133</v>
       </c>
-      <c r="Q9" t="s">
-        <v>128</v>
-      </c>
-      <c r="R9" t="s">
-        <v>134</v>
-      </c>
-      <c r="S9" t="s">
-        <v>128</v>
-      </c>
-      <c r="T9" t="s">
-        <v>134</v>
-      </c>
-      <c r="U9" t="s">
-        <v>128</v>
-      </c>
-      <c r="V9" s="30" t="s">
-        <v>135</v>
-      </c>
-      <c r="W9" t="s">
-        <v>128</v>
-      </c>
-      <c r="X9" s="30" t="s">
-        <v>144</v>
-      </c>
-      <c r="Y9" t="s">
-        <v>128</v>
-      </c>
-      <c r="Z9" t="s">
-        <v>137</v>
-      </c>
       <c r="AA9" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="AB9">
         <f t="shared" ca="1" si="0"/>
-        <v>173</v>
+        <v>182</v>
       </c>
       <c r="AC9" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="AD9">
         <f t="shared" ca="1" si="1"/>
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="AE9" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="AF9">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG9" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="AH9">
         <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
       <c r="AI9" t="s">
-        <v>128</v>
-      </c>
-      <c r="AJ9" s="30" t="s">
-        <v>138</v>
-      </c>
-      <c r="AK9" s="30" t="s">
-        <v>139</v>
+        <v>124</v>
+      </c>
+      <c r="AJ9" s="24" t="s">
+        <v>134</v>
+      </c>
+      <c r="AK9" s="24" t="s">
+        <v>135</v>
       </c>
       <c r="AL9" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>INSERT INTO user(email, pass, name, phone_num, user_reg_date, recent_login, main_foot, position, api_key, height, weight, was_pro, gender, born_date) VALUES('bioman9@gmail.com','1234','bioman1','010-1234-5678',sysdate(),sysdate(),'왼발','DF',null,173,78,1,0,'1995-06-01');</v>
+        <v>INSERT INTO user(email, pass, name, phone_num, user_reg_date, recent_login, main_foot, position, api_key, height, weight, was_pro, gender, born_date) VALUES('bioman9@gmail.com','1234','bioman1','010-1234-5678',sysdate(),sysdate(),'왼발','DF',null,182,74,0,0,'1995-06-01');</v>
       </c>
     </row>
     <row r="10" spans="1:38">
       <c r="A10" t="s">
+        <v>126</v>
+      </c>
+      <c r="B10" t="s">
+        <v>125</v>
+      </c>
+      <c r="C10" t="s">
+        <v>127</v>
+      </c>
+      <c r="D10" t="s">
+        <v>123</v>
+      </c>
+      <c r="E10" s="23" t="s">
+        <v>136</v>
+      </c>
+      <c r="F10" s="23"/>
+      <c r="G10" s="23">
+        <v>10</v>
+      </c>
+      <c r="H10" s="23" t="s">
+        <v>137</v>
+      </c>
+      <c r="I10" t="s">
+        <v>124</v>
+      </c>
+      <c r="J10" s="24" t="s">
+        <v>128</v>
+      </c>
+      <c r="K10" t="s">
+        <v>124</v>
+      </c>
+      <c r="L10" s="24" t="s">
+        <v>136</v>
+      </c>
+      <c r="M10" s="24">
+        <v>1</v>
+      </c>
+      <c r="N10" s="24" t="s">
+        <v>141</v>
+      </c>
+      <c r="O10" t="s">
+        <v>124</v>
+      </c>
+      <c r="P10" s="24" t="s">
+        <v>129</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>124</v>
+      </c>
+      <c r="R10" t="s">
         <v>130</v>
       </c>
-      <c r="B10" t="s">
-        <v>129</v>
-      </c>
-      <c r="C10" t="s">
-        <v>131</v>
-      </c>
-      <c r="D10" t="s">
-        <v>127</v>
-      </c>
-      <c r="E10" s="29" t="s">
-        <v>140</v>
-      </c>
-      <c r="F10" s="29"/>
-      <c r="G10" s="29">
-        <v>10</v>
-      </c>
-      <c r="H10" s="29" t="s">
-        <v>141</v>
-      </c>
-      <c r="I10" t="s">
-        <v>128</v>
-      </c>
-      <c r="J10" s="30" t="s">
+      <c r="S10" t="s">
+        <v>124</v>
+      </c>
+      <c r="T10" t="s">
+        <v>130</v>
+      </c>
+      <c r="U10" t="s">
+        <v>124</v>
+      </c>
+      <c r="V10" s="24" t="s">
+        <v>138</v>
+      </c>
+      <c r="W10" t="s">
+        <v>124</v>
+      </c>
+      <c r="X10" s="24" t="s">
         <v>132</v>
       </c>
-      <c r="K10" t="s">
-        <v>128</v>
-      </c>
-      <c r="L10" s="30" t="s">
-        <v>140</v>
-      </c>
-      <c r="M10" s="30">
-        <v>1</v>
-      </c>
-      <c r="N10" s="30" t="s">
-        <v>145</v>
-      </c>
-      <c r="O10" t="s">
-        <v>128</v>
-      </c>
-      <c r="P10" s="30" t="s">
+      <c r="Y10" t="s">
+        <v>124</v>
+      </c>
+      <c r="Z10" t="s">
         <v>133</v>
       </c>
-      <c r="Q10" t="s">
-        <v>128</v>
-      </c>
-      <c r="R10" t="s">
-        <v>134</v>
-      </c>
-      <c r="S10" t="s">
-        <v>128</v>
-      </c>
-      <c r="T10" t="s">
-        <v>134</v>
-      </c>
-      <c r="U10" t="s">
-        <v>128</v>
-      </c>
-      <c r="V10" s="30" t="s">
-        <v>142</v>
-      </c>
-      <c r="W10" t="s">
-        <v>128</v>
-      </c>
-      <c r="X10" s="30" t="s">
-        <v>136</v>
-      </c>
-      <c r="Y10" t="s">
-        <v>128</v>
-      </c>
-      <c r="Z10" t="s">
-        <v>137</v>
-      </c>
       <c r="AA10" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="AB10">
         <f t="shared" ca="1" si="0"/>
         <v>182</v>
       </c>
       <c r="AC10" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="AD10">
         <f t="shared" ca="1" si="1"/>
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="AE10" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="AF10">
         <f t="shared" ca="1" si="2"/>
         <v>0</v>
       </c>
       <c r="AG10" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="AH10">
         <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
       <c r="AI10" t="s">
-        <v>128</v>
-      </c>
-      <c r="AJ10" s="30" t="s">
-        <v>138</v>
-      </c>
-      <c r="AK10" s="30" t="s">
-        <v>139</v>
+        <v>124</v>
+      </c>
+      <c r="AJ10" s="24" t="s">
+        <v>134</v>
+      </c>
+      <c r="AK10" s="24" t="s">
+        <v>135</v>
       </c>
       <c r="AL10" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>INSERT INTO user(email, pass, name, phone_num, user_reg_date, recent_login, main_foot, position, api_key, height, weight, was_pro, gender, born_date) VALUES('bioman10@gmail.com','1234','bioman1','010-1234-5678',sysdate(),sysdate(),'오른발','FW',null,182,78,0,0,'1995-06-01');</v>
+        <v>INSERT INTO user(email, pass, name, phone_num, user_reg_date, recent_login, main_foot, position, api_key, height, weight, was_pro, gender, born_date) VALUES('bioman10@gmail.com','1234','bioman1','010-1234-5678',sysdate(),sysdate(),'오른발','FW',null,182,70,0,0,'1995-06-01');</v>
       </c>
     </row>
     <row r="11" spans="1:38">
       <c r="A11" t="s">
+        <v>126</v>
+      </c>
+      <c r="B11" t="s">
+        <v>125</v>
+      </c>
+      <c r="C11" t="s">
+        <v>127</v>
+      </c>
+      <c r="D11" t="s">
+        <v>123</v>
+      </c>
+      <c r="E11" s="23" t="s">
+        <v>136</v>
+      </c>
+      <c r="F11" s="23"/>
+      <c r="G11" s="23">
+        <v>11</v>
+      </c>
+      <c r="H11" s="23" t="s">
+        <v>137</v>
+      </c>
+      <c r="I11" t="s">
+        <v>124</v>
+      </c>
+      <c r="J11" s="24" t="s">
+        <v>128</v>
+      </c>
+      <c r="K11" t="s">
+        <v>124</v>
+      </c>
+      <c r="L11" s="24" t="s">
+        <v>136</v>
+      </c>
+      <c r="M11" s="24">
+        <v>1</v>
+      </c>
+      <c r="N11" s="24" t="s">
+        <v>141</v>
+      </c>
+      <c r="O11" t="s">
+        <v>124</v>
+      </c>
+      <c r="P11" s="24" t="s">
+        <v>129</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>124</v>
+      </c>
+      <c r="R11" t="s">
         <v>130</v>
       </c>
-      <c r="B11" t="s">
-        <v>129</v>
-      </c>
-      <c r="C11" t="s">
+      <c r="S11" t="s">
+        <v>124</v>
+      </c>
+      <c r="T11" t="s">
+        <v>130</v>
+      </c>
+      <c r="U11" t="s">
+        <v>124</v>
+      </c>
+      <c r="V11" s="24" t="s">
         <v>131</v>
       </c>
-      <c r="D11" t="s">
-        <v>127</v>
-      </c>
-      <c r="E11" s="29" t="s">
-        <v>140</v>
-      </c>
-      <c r="F11" s="29"/>
-      <c r="G11" s="29">
-        <v>11</v>
-      </c>
-      <c r="H11" s="29" t="s">
-        <v>141</v>
-      </c>
-      <c r="I11" t="s">
-        <v>128</v>
-      </c>
-      <c r="J11" s="30" t="s">
-        <v>132</v>
-      </c>
-      <c r="K11" t="s">
-        <v>128</v>
-      </c>
-      <c r="L11" s="30" t="s">
-        <v>140</v>
-      </c>
-      <c r="M11" s="30">
-        <v>1</v>
-      </c>
-      <c r="N11" s="30" t="s">
-        <v>145</v>
-      </c>
-      <c r="O11" t="s">
-        <v>128</v>
-      </c>
-      <c r="P11" s="30" t="s">
+      <c r="W11" t="s">
+        <v>124</v>
+      </c>
+      <c r="X11" s="24" t="s">
+        <v>139</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>124</v>
+      </c>
+      <c r="Z11" t="s">
         <v>133</v>
       </c>
-      <c r="Q11" t="s">
-        <v>128</v>
-      </c>
-      <c r="R11" t="s">
-        <v>134</v>
-      </c>
-      <c r="S11" t="s">
-        <v>128</v>
-      </c>
-      <c r="T11" t="s">
-        <v>134</v>
-      </c>
-      <c r="U11" t="s">
-        <v>128</v>
-      </c>
-      <c r="V11" s="30" t="s">
-        <v>135</v>
-      </c>
-      <c r="W11" t="s">
-        <v>128</v>
-      </c>
-      <c r="X11" s="30" t="s">
-        <v>143</v>
-      </c>
-      <c r="Y11" t="s">
-        <v>128</v>
-      </c>
-      <c r="Z11" t="s">
-        <v>137</v>
-      </c>
       <c r="AA11" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="AB11">
         <f t="shared" ca="1" si="0"/>
-        <v>183</v>
+        <v>170</v>
       </c>
       <c r="AC11" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="AD11">
         <f t="shared" ca="1" si="1"/>
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="AE11" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="AF11">
         <f t="shared" ca="1" si="2"/>
         <v>1</v>
       </c>
       <c r="AG11" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="AH11">
         <f t="shared" ca="1" si="3"/>
         <v>1</v>
       </c>
       <c r="AI11" t="s">
-        <v>128</v>
-      </c>
-      <c r="AJ11" s="30" t="s">
-        <v>138</v>
-      </c>
-      <c r="AK11" s="30" t="s">
-        <v>139</v>
+        <v>124</v>
+      </c>
+      <c r="AJ11" s="24" t="s">
+        <v>134</v>
+      </c>
+      <c r="AK11" s="24" t="s">
+        <v>135</v>
       </c>
       <c r="AL11" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>INSERT INTO user(email, pass, name, phone_num, user_reg_date, recent_login, main_foot, position, api_key, height, weight, was_pro, gender, born_date) VALUES('bioman11@gmail.com','1234','bioman1','010-1234-5678',sysdate(),sysdate(),'왼발','MF',null,183,78,1,1,'1995-06-01');</v>
+        <v>INSERT INTO user(email, pass, name, phone_num, user_reg_date, recent_login, main_foot, position, api_key, height, weight, was_pro, gender, born_date) VALUES('bioman11@gmail.com','1234','bioman1','010-1234-5678',sysdate(),sysdate(),'왼발','MF',null,170,74,1,1,'1995-06-01');</v>
       </c>
     </row>
     <row r="12" spans="1:38">
       <c r="A12" t="s">
+        <v>126</v>
+      </c>
+      <c r="B12" t="s">
+        <v>125</v>
+      </c>
+      <c r="C12" t="s">
+        <v>127</v>
+      </c>
+      <c r="D12" t="s">
+        <v>123</v>
+      </c>
+      <c r="E12" s="23" t="s">
+        <v>136</v>
+      </c>
+      <c r="F12" s="23"/>
+      <c r="G12" s="23">
+        <v>12</v>
+      </c>
+      <c r="H12" s="23" t="s">
+        <v>137</v>
+      </c>
+      <c r="I12" t="s">
+        <v>124</v>
+      </c>
+      <c r="J12" s="24" t="s">
+        <v>128</v>
+      </c>
+      <c r="K12" t="s">
+        <v>124</v>
+      </c>
+      <c r="L12" s="24" t="s">
+        <v>136</v>
+      </c>
+      <c r="M12" s="24">
+        <v>1</v>
+      </c>
+      <c r="N12" s="24" t="s">
+        <v>141</v>
+      </c>
+      <c r="O12" t="s">
+        <v>124</v>
+      </c>
+      <c r="P12" s="24" t="s">
+        <v>129</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>124</v>
+      </c>
+      <c r="R12" t="s">
         <v>130</v>
       </c>
-      <c r="B12" t="s">
-        <v>129</v>
-      </c>
-      <c r="C12" t="s">
-        <v>131</v>
-      </c>
-      <c r="D12" t="s">
-        <v>127</v>
-      </c>
-      <c r="E12" s="29" t="s">
+      <c r="S12" t="s">
+        <v>124</v>
+      </c>
+      <c r="T12" t="s">
+        <v>130</v>
+      </c>
+      <c r="U12" t="s">
+        <v>124</v>
+      </c>
+      <c r="V12" s="24" t="s">
+        <v>138</v>
+      </c>
+      <c r="W12" t="s">
+        <v>124</v>
+      </c>
+      <c r="X12" s="24" t="s">
         <v>140</v>
       </c>
-      <c r="F12" s="29"/>
-      <c r="G12" s="29">
-        <v>12</v>
-      </c>
-      <c r="H12" s="29" t="s">
-        <v>141</v>
-      </c>
-      <c r="I12" t="s">
-        <v>128</v>
-      </c>
-      <c r="J12" s="30" t="s">
-        <v>132</v>
-      </c>
-      <c r="K12" t="s">
-        <v>128</v>
-      </c>
-      <c r="L12" s="30" t="s">
-        <v>140</v>
-      </c>
-      <c r="M12" s="30">
-        <v>1</v>
-      </c>
-      <c r="N12" s="30" t="s">
-        <v>145</v>
-      </c>
-      <c r="O12" t="s">
-        <v>128</v>
-      </c>
-      <c r="P12" s="30" t="s">
+      <c r="Y12" t="s">
+        <v>124</v>
+      </c>
+      <c r="Z12" t="s">
         <v>133</v>
       </c>
-      <c r="Q12" t="s">
-        <v>128</v>
-      </c>
-      <c r="R12" t="s">
-        <v>134</v>
-      </c>
-      <c r="S12" t="s">
-        <v>128</v>
-      </c>
-      <c r="T12" t="s">
-        <v>134</v>
-      </c>
-      <c r="U12" t="s">
-        <v>128</v>
-      </c>
-      <c r="V12" s="30" t="s">
-        <v>142</v>
-      </c>
-      <c r="W12" t="s">
-        <v>128</v>
-      </c>
-      <c r="X12" s="30" t="s">
-        <v>144</v>
-      </c>
-      <c r="Y12" t="s">
-        <v>128</v>
-      </c>
-      <c r="Z12" t="s">
-        <v>137</v>
-      </c>
       <c r="AA12" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="AB12">
         <f t="shared" ca="1" si="0"/>
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="AC12" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="AD12">
         <f t="shared" ca="1" si="1"/>
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="AE12" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="AF12">
         <f t="shared" ca="1" si="2"/>
         <v>0</v>
       </c>
       <c r="AG12" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="AH12">
         <f t="shared" ca="1" si="3"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI12" t="s">
-        <v>128</v>
-      </c>
-      <c r="AJ12" s="30" t="s">
-        <v>138</v>
-      </c>
-      <c r="AK12" s="30" t="s">
-        <v>139</v>
+        <v>124</v>
+      </c>
+      <c r="AJ12" s="24" t="s">
+        <v>134</v>
+      </c>
+      <c r="AK12" s="24" t="s">
+        <v>135</v>
       </c>
       <c r="AL12" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>INSERT INTO user(email, pass, name, phone_num, user_reg_date, recent_login, main_foot, position, api_key, height, weight, was_pro, gender, born_date) VALUES('bioman12@gmail.com','1234','bioman1','010-1234-5678',sysdate(),sysdate(),'오른발','DF',null,177,75,0,1,'1995-06-01');</v>
+        <v>INSERT INTO user(email, pass, name, phone_num, user_reg_date, recent_login, main_foot, position, api_key, height, weight, was_pro, gender, born_date) VALUES('bioman12@gmail.com','1234','bioman1','010-1234-5678',sysdate(),sysdate(),'오른발','DF',null,170,77,0,0,'1995-06-01');</v>
       </c>
     </row>
     <row r="13" spans="1:38">
       <c r="A13" t="s">
+        <v>126</v>
+      </c>
+      <c r="B13" t="s">
+        <v>125</v>
+      </c>
+      <c r="C13" t="s">
+        <v>127</v>
+      </c>
+      <c r="D13" t="s">
+        <v>123</v>
+      </c>
+      <c r="E13" s="23" t="s">
+        <v>136</v>
+      </c>
+      <c r="F13" s="23"/>
+      <c r="G13" s="23">
+        <v>13</v>
+      </c>
+      <c r="H13" s="23" t="s">
+        <v>137</v>
+      </c>
+      <c r="I13" t="s">
+        <v>124</v>
+      </c>
+      <c r="J13" s="24" t="s">
+        <v>128</v>
+      </c>
+      <c r="K13" t="s">
+        <v>124</v>
+      </c>
+      <c r="L13" s="24" t="s">
+        <v>136</v>
+      </c>
+      <c r="M13" s="24">
+        <v>1</v>
+      </c>
+      <c r="N13" s="24" t="s">
+        <v>141</v>
+      </c>
+      <c r="O13" t="s">
+        <v>124</v>
+      </c>
+      <c r="P13" s="24" t="s">
+        <v>129</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>124</v>
+      </c>
+      <c r="R13" t="s">
         <v>130</v>
       </c>
-      <c r="B13" t="s">
-        <v>129</v>
-      </c>
-      <c r="C13" t="s">
+      <c r="S13" t="s">
+        <v>124</v>
+      </c>
+      <c r="T13" t="s">
+        <v>130</v>
+      </c>
+      <c r="U13" t="s">
+        <v>124</v>
+      </c>
+      <c r="V13" s="24" t="s">
         <v>131</v>
       </c>
-      <c r="D13" t="s">
-        <v>127</v>
-      </c>
-      <c r="E13" s="29" t="s">
-        <v>140</v>
-      </c>
-      <c r="F13" s="29"/>
-      <c r="G13" s="29">
-        <v>13</v>
-      </c>
-      <c r="H13" s="29" t="s">
-        <v>141</v>
-      </c>
-      <c r="I13" t="s">
-        <v>128</v>
-      </c>
-      <c r="J13" s="30" t="s">
+      <c r="W13" t="s">
+        <v>124</v>
+      </c>
+      <c r="X13" s="24" t="s">
         <v>132</v>
       </c>
-      <c r="K13" t="s">
-        <v>128</v>
-      </c>
-      <c r="L13" s="30" t="s">
-        <v>140</v>
-      </c>
-      <c r="M13" s="30">
-        <v>1</v>
-      </c>
-      <c r="N13" s="30" t="s">
-        <v>145</v>
-      </c>
-      <c r="O13" t="s">
-        <v>128</v>
-      </c>
-      <c r="P13" s="30" t="s">
+      <c r="Y13" t="s">
+        <v>124</v>
+      </c>
+      <c r="Z13" t="s">
         <v>133</v>
       </c>
-      <c r="Q13" t="s">
-        <v>128</v>
-      </c>
-      <c r="R13" t="s">
-        <v>134</v>
-      </c>
-      <c r="S13" t="s">
-        <v>128</v>
-      </c>
-      <c r="T13" t="s">
-        <v>134</v>
-      </c>
-      <c r="U13" t="s">
-        <v>128</v>
-      </c>
-      <c r="V13" s="30" t="s">
-        <v>135</v>
-      </c>
-      <c r="W13" t="s">
-        <v>128</v>
-      </c>
-      <c r="X13" s="30" t="s">
-        <v>136</v>
-      </c>
-      <c r="Y13" t="s">
-        <v>128</v>
-      </c>
-      <c r="Z13" t="s">
-        <v>137</v>
-      </c>
       <c r="AA13" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="AB13">
         <f t="shared" ca="1" si="0"/>
-        <v>184</v>
+        <v>173</v>
       </c>
       <c r="AC13" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="AD13">
         <f t="shared" ca="1" si="1"/>
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="AE13" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="AF13">
         <f t="shared" ca="1" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG13" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="AH13">
         <f t="shared" ca="1" si="3"/>
         <v>1</v>
       </c>
       <c r="AI13" t="s">
-        <v>128</v>
-      </c>
-      <c r="AJ13" s="30" t="s">
-        <v>138</v>
-      </c>
-      <c r="AK13" s="30" t="s">
-        <v>139</v>
+        <v>124</v>
+      </c>
+      <c r="AJ13" s="24" t="s">
+        <v>134</v>
+      </c>
+      <c r="AK13" s="24" t="s">
+        <v>135</v>
       </c>
       <c r="AL13" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>INSERT INTO user(email, pass, name, phone_num, user_reg_date, recent_login, main_foot, position, api_key, height, weight, was_pro, gender, born_date) VALUES('bioman13@gmail.com','1234','bioman1','010-1234-5678',sysdate(),sysdate(),'왼발','FW',null,184,80,0,1,'1995-06-01');</v>
+        <v>INSERT INTO user(email, pass, name, phone_num, user_reg_date, recent_login, main_foot, position, api_key, height, weight, was_pro, gender, born_date) VALUES('bioman13@gmail.com','1234','bioman1','010-1234-5678',sysdate(),sysdate(),'왼발','FW',null,173,71,1,1,'1995-06-01');</v>
       </c>
     </row>
     <row r="14" spans="1:38">
       <c r="A14" t="s">
+        <v>126</v>
+      </c>
+      <c r="B14" t="s">
+        <v>125</v>
+      </c>
+      <c r="C14" t="s">
+        <v>127</v>
+      </c>
+      <c r="D14" t="s">
+        <v>123</v>
+      </c>
+      <c r="E14" s="23" t="s">
+        <v>136</v>
+      </c>
+      <c r="F14" s="23"/>
+      <c r="G14" s="23">
+        <v>14</v>
+      </c>
+      <c r="H14" s="23" t="s">
+        <v>137</v>
+      </c>
+      <c r="I14" t="s">
+        <v>124</v>
+      </c>
+      <c r="J14" s="24" t="s">
+        <v>128</v>
+      </c>
+      <c r="K14" t="s">
+        <v>124</v>
+      </c>
+      <c r="L14" s="24" t="s">
+        <v>136</v>
+      </c>
+      <c r="M14" s="24">
+        <v>1</v>
+      </c>
+      <c r="N14" s="24" t="s">
+        <v>141</v>
+      </c>
+      <c r="O14" t="s">
+        <v>124</v>
+      </c>
+      <c r="P14" s="24" t="s">
+        <v>129</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>124</v>
+      </c>
+      <c r="R14" t="s">
         <v>130</v>
       </c>
-      <c r="B14" t="s">
-        <v>129</v>
-      </c>
-      <c r="C14" t="s">
-        <v>131</v>
-      </c>
-      <c r="D14" t="s">
-        <v>127</v>
-      </c>
-      <c r="E14" s="29" t="s">
-        <v>140</v>
-      </c>
-      <c r="F14" s="29"/>
-      <c r="G14" s="29">
-        <v>14</v>
-      </c>
-      <c r="H14" s="29" t="s">
-        <v>141</v>
-      </c>
-      <c r="I14" t="s">
-        <v>128</v>
-      </c>
-      <c r="J14" s="30" t="s">
-        <v>132</v>
-      </c>
-      <c r="K14" t="s">
-        <v>128</v>
-      </c>
-      <c r="L14" s="30" t="s">
-        <v>140</v>
-      </c>
-      <c r="M14" s="30">
-        <v>1</v>
-      </c>
-      <c r="N14" s="30" t="s">
-        <v>145</v>
-      </c>
-      <c r="O14" t="s">
-        <v>128</v>
-      </c>
-      <c r="P14" s="30" t="s">
+      <c r="S14" t="s">
+        <v>124</v>
+      </c>
+      <c r="T14" t="s">
+        <v>130</v>
+      </c>
+      <c r="U14" t="s">
+        <v>124</v>
+      </c>
+      <c r="V14" s="24" t="s">
+        <v>138</v>
+      </c>
+      <c r="W14" t="s">
+        <v>124</v>
+      </c>
+      <c r="X14" s="24" t="s">
+        <v>139</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>124</v>
+      </c>
+      <c r="Z14" t="s">
         <v>133</v>
       </c>
-      <c r="Q14" t="s">
-        <v>128</v>
-      </c>
-      <c r="R14" t="s">
-        <v>134</v>
-      </c>
-      <c r="S14" t="s">
-        <v>128</v>
-      </c>
-      <c r="T14" t="s">
-        <v>134</v>
-      </c>
-      <c r="U14" t="s">
-        <v>128</v>
-      </c>
-      <c r="V14" s="30" t="s">
-        <v>142</v>
-      </c>
-      <c r="W14" t="s">
-        <v>128</v>
-      </c>
-      <c r="X14" s="30" t="s">
-        <v>143</v>
-      </c>
-      <c r="Y14" t="s">
-        <v>128</v>
-      </c>
-      <c r="Z14" t="s">
-        <v>137</v>
-      </c>
       <c r="AA14" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="AB14">
         <f t="shared" ca="1" si="0"/>
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="AC14" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="AD14">
         <f t="shared" ca="1" si="1"/>
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AE14" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="AF14">
         <f t="shared" ca="1" si="2"/>
         <v>1</v>
       </c>
       <c r="AG14" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="AH14">
         <f t="shared" ca="1" si="3"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI14" t="s">
-        <v>128</v>
-      </c>
-      <c r="AJ14" s="30" t="s">
-        <v>138</v>
-      </c>
-      <c r="AK14" s="30" t="s">
-        <v>139</v>
+        <v>124</v>
+      </c>
+      <c r="AJ14" s="24" t="s">
+        <v>134</v>
+      </c>
+      <c r="AK14" s="24" t="s">
+        <v>135</v>
       </c>
       <c r="AL14" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>INSERT INTO user(email, pass, name, phone_num, user_reg_date, recent_login, main_foot, position, api_key, height, weight, was_pro, gender, born_date) VALUES('bioman14@gmail.com','1234','bioman1','010-1234-5678',sysdate(),sysdate(),'오른발','MF',null,174,73,1,1,'1995-06-01');</v>
+        <v>INSERT INTO user(email, pass, name, phone_num, user_reg_date, recent_login, main_foot, position, api_key, height, weight, was_pro, gender, born_date) VALUES('bioman14@gmail.com','1234','bioman1','010-1234-5678',sysdate(),sysdate(),'오른발','MF',null,173,75,1,0,'1995-06-01');</v>
       </c>
     </row>
     <row r="15" spans="1:38">
       <c r="A15" t="s">
+        <v>126</v>
+      </c>
+      <c r="B15" t="s">
+        <v>125</v>
+      </c>
+      <c r="C15" t="s">
+        <v>127</v>
+      </c>
+      <c r="D15" t="s">
+        <v>123</v>
+      </c>
+      <c r="E15" s="23" t="s">
+        <v>136</v>
+      </c>
+      <c r="F15" s="23"/>
+      <c r="G15" s="23">
+        <v>15</v>
+      </c>
+      <c r="H15" s="23" t="s">
+        <v>137</v>
+      </c>
+      <c r="I15" t="s">
+        <v>124</v>
+      </c>
+      <c r="J15" s="24" t="s">
+        <v>128</v>
+      </c>
+      <c r="K15" t="s">
+        <v>124</v>
+      </c>
+      <c r="L15" s="24" t="s">
+        <v>136</v>
+      </c>
+      <c r="M15" s="24">
+        <v>1</v>
+      </c>
+      <c r="N15" s="24" t="s">
+        <v>141</v>
+      </c>
+      <c r="O15" t="s">
+        <v>124</v>
+      </c>
+      <c r="P15" s="24" t="s">
+        <v>129</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>124</v>
+      </c>
+      <c r="R15" t="s">
         <v>130</v>
       </c>
-      <c r="B15" t="s">
-        <v>129</v>
-      </c>
-      <c r="C15" t="s">
+      <c r="S15" t="s">
+        <v>124</v>
+      </c>
+      <c r="T15" t="s">
+        <v>130</v>
+      </c>
+      <c r="U15" t="s">
+        <v>124</v>
+      </c>
+      <c r="V15" s="24" t="s">
         <v>131</v>
       </c>
-      <c r="D15" t="s">
-        <v>127</v>
-      </c>
-      <c r="E15" s="29" t="s">
+      <c r="W15" t="s">
+        <v>124</v>
+      </c>
+      <c r="X15" s="24" t="s">
         <v>140</v>
       </c>
-      <c r="F15" s="29"/>
-      <c r="G15" s="29">
-        <v>15</v>
-      </c>
-      <c r="H15" s="29" t="s">
-        <v>141</v>
-      </c>
-      <c r="I15" t="s">
-        <v>128</v>
-      </c>
-      <c r="J15" s="30" t="s">
-        <v>132</v>
-      </c>
-      <c r="K15" t="s">
-        <v>128</v>
-      </c>
-      <c r="L15" s="30" t="s">
-        <v>140</v>
-      </c>
-      <c r="M15" s="30">
-        <v>1</v>
-      </c>
-      <c r="N15" s="30" t="s">
-        <v>145</v>
-      </c>
-      <c r="O15" t="s">
-        <v>128</v>
-      </c>
-      <c r="P15" s="30" t="s">
+      <c r="Y15" t="s">
+        <v>124</v>
+      </c>
+      <c r="Z15" t="s">
         <v>133</v>
       </c>
-      <c r="Q15" t="s">
-        <v>128</v>
-      </c>
-      <c r="R15" t="s">
-        <v>134</v>
-      </c>
-      <c r="S15" t="s">
-        <v>128</v>
-      </c>
-      <c r="T15" t="s">
-        <v>134</v>
-      </c>
-      <c r="U15" t="s">
-        <v>128</v>
-      </c>
-      <c r="V15" s="30" t="s">
-        <v>135</v>
-      </c>
-      <c r="W15" t="s">
-        <v>128</v>
-      </c>
-      <c r="X15" s="30" t="s">
-        <v>144</v>
-      </c>
-      <c r="Y15" t="s">
-        <v>128</v>
-      </c>
-      <c r="Z15" t="s">
-        <v>137</v>
-      </c>
       <c r="AA15" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="AB15">
         <f t="shared" ca="1" si="0"/>
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="AC15" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="AD15">
         <f t="shared" ca="1" si="1"/>
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="AE15" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="AF15">
         <f t="shared" ca="1" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG15" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="AH15">
         <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
       <c r="AI15" t="s">
-        <v>128</v>
-      </c>
-      <c r="AJ15" s="30" t="s">
-        <v>138</v>
-      </c>
-      <c r="AK15" s="30" t="s">
-        <v>139</v>
+        <v>124</v>
+      </c>
+      <c r="AJ15" s="24" t="s">
+        <v>134</v>
+      </c>
+      <c r="AK15" s="24" t="s">
+        <v>135</v>
       </c>
       <c r="AL15" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>INSERT INTO user(email, pass, name, phone_num, user_reg_date, recent_login, main_foot, position, api_key, height, weight, was_pro, gender, born_date) VALUES('bioman15@gmail.com','1234','bioman1','010-1234-5678',sysdate(),sysdate(),'왼발','DF',null,182,78,0,0,'1995-06-01');</v>
+        <v>INSERT INTO user(email, pass, name, phone_num, user_reg_date, recent_login, main_foot, position, api_key, height, weight, was_pro, gender, born_date) VALUES('bioman15@gmail.com','1234','bioman1','010-1234-5678',sysdate(),sysdate(),'왼발','DF',null,174,76,1,0,'1995-06-01');</v>
       </c>
     </row>
     <row r="16" spans="1:38">
       <c r="A16" t="s">
+        <v>126</v>
+      </c>
+      <c r="B16" t="s">
+        <v>125</v>
+      </c>
+      <c r="C16" t="s">
+        <v>127</v>
+      </c>
+      <c r="D16" t="s">
+        <v>123</v>
+      </c>
+      <c r="E16" s="23" t="s">
+        <v>136</v>
+      </c>
+      <c r="F16" s="23"/>
+      <c r="G16" s="23">
+        <v>16</v>
+      </c>
+      <c r="H16" s="23" t="s">
+        <v>137</v>
+      </c>
+      <c r="I16" t="s">
+        <v>124</v>
+      </c>
+      <c r="J16" s="24" t="s">
+        <v>128</v>
+      </c>
+      <c r="K16" t="s">
+        <v>124</v>
+      </c>
+      <c r="L16" s="24" t="s">
+        <v>136</v>
+      </c>
+      <c r="M16" s="24">
+        <v>1</v>
+      </c>
+      <c r="N16" s="24" t="s">
+        <v>141</v>
+      </c>
+      <c r="O16" t="s">
+        <v>124</v>
+      </c>
+      <c r="P16" s="24" t="s">
+        <v>129</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>124</v>
+      </c>
+      <c r="R16" t="s">
         <v>130</v>
       </c>
-      <c r="B16" t="s">
-        <v>129</v>
-      </c>
-      <c r="C16" t="s">
-        <v>131</v>
-      </c>
-      <c r="D16" t="s">
-        <v>127</v>
-      </c>
-      <c r="E16" s="29" t="s">
-        <v>140</v>
-      </c>
-      <c r="F16" s="29"/>
-      <c r="G16" s="29">
-        <v>16</v>
-      </c>
-      <c r="H16" s="29" t="s">
-        <v>141</v>
-      </c>
-      <c r="I16" t="s">
-        <v>128</v>
-      </c>
-      <c r="J16" s="30" t="s">
+      <c r="S16" t="s">
+        <v>124</v>
+      </c>
+      <c r="T16" t="s">
+        <v>130</v>
+      </c>
+      <c r="U16" t="s">
+        <v>124</v>
+      </c>
+      <c r="V16" s="24" t="s">
+        <v>138</v>
+      </c>
+      <c r="W16" t="s">
+        <v>124</v>
+      </c>
+      <c r="X16" s="24" t="s">
         <v>132</v>
       </c>
-      <c r="K16" t="s">
-        <v>128</v>
-      </c>
-      <c r="L16" s="30" t="s">
-        <v>140</v>
-      </c>
-      <c r="M16" s="30">
-        <v>1</v>
-      </c>
-      <c r="N16" s="30" t="s">
-        <v>145</v>
-      </c>
-      <c r="O16" t="s">
-        <v>128</v>
-      </c>
-      <c r="P16" s="30" t="s">
+      <c r="Y16" t="s">
+        <v>124</v>
+      </c>
+      <c r="Z16" t="s">
         <v>133</v>
       </c>
-      <c r="Q16" t="s">
-        <v>128</v>
-      </c>
-      <c r="R16" t="s">
-        <v>134</v>
-      </c>
-      <c r="S16" t="s">
-        <v>128</v>
-      </c>
-      <c r="T16" t="s">
-        <v>134</v>
-      </c>
-      <c r="U16" t="s">
-        <v>128</v>
-      </c>
-      <c r="V16" s="30" t="s">
-        <v>142</v>
-      </c>
-      <c r="W16" t="s">
-        <v>128</v>
-      </c>
-      <c r="X16" s="30" t="s">
-        <v>136</v>
-      </c>
-      <c r="Y16" t="s">
-        <v>128</v>
-      </c>
-      <c r="Z16" t="s">
-        <v>137</v>
-      </c>
       <c r="AA16" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="AB16">
         <f t="shared" ca="1" si="0"/>
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="AC16" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="AD16">
         <f t="shared" ca="1" si="1"/>
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="AE16" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="AF16">
         <f t="shared" ca="1" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG16" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="AH16">
         <f t="shared" ca="1" si="3"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI16" t="s">
-        <v>128</v>
-      </c>
-      <c r="AJ16" s="30" t="s">
-        <v>138</v>
-      </c>
-      <c r="AK16" s="30" t="s">
-        <v>139</v>
+        <v>124</v>
+      </c>
+      <c r="AJ16" s="24" t="s">
+        <v>134</v>
+      </c>
+      <c r="AK16" s="24" t="s">
+        <v>135</v>
       </c>
       <c r="AL16" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>INSERT INTO user(email, pass, name, phone_num, user_reg_date, recent_login, main_foot, position, api_key, height, weight, was_pro, gender, born_date) VALUES('bioman16@gmail.com','1234','bioman1','010-1234-5678',sysdate(),sysdate(),'오른발','FW',null,179,72,0,1,'1995-06-01');</v>
+        <v>INSERT INTO user(email, pass, name, phone_num, user_reg_date, recent_login, main_foot, position, api_key, height, weight, was_pro, gender, born_date) VALUES('bioman16@gmail.com','1234','bioman1','010-1234-5678',sysdate(),sysdate(),'오른발','FW',null,180,74,1,0,'1995-06-01');</v>
       </c>
     </row>
     <row r="17" spans="1:38">
       <c r="A17" t="s">
+        <v>126</v>
+      </c>
+      <c r="B17" t="s">
+        <v>125</v>
+      </c>
+      <c r="C17" t="s">
+        <v>127</v>
+      </c>
+      <c r="D17" t="s">
+        <v>123</v>
+      </c>
+      <c r="E17" s="23" t="s">
+        <v>136</v>
+      </c>
+      <c r="F17" s="23"/>
+      <c r="G17" s="23">
+        <v>17</v>
+      </c>
+      <c r="H17" s="23" t="s">
+        <v>137</v>
+      </c>
+      <c r="I17" t="s">
+        <v>124</v>
+      </c>
+      <c r="J17" s="24" t="s">
+        <v>128</v>
+      </c>
+      <c r="K17" t="s">
+        <v>124</v>
+      </c>
+      <c r="L17" s="24" t="s">
+        <v>136</v>
+      </c>
+      <c r="M17" s="24">
+        <v>1</v>
+      </c>
+      <c r="N17" s="24" t="s">
+        <v>141</v>
+      </c>
+      <c r="O17" t="s">
+        <v>124</v>
+      </c>
+      <c r="P17" s="24" t="s">
+        <v>129</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>124</v>
+      </c>
+      <c r="R17" t="s">
         <v>130</v>
       </c>
-      <c r="B17" t="s">
-        <v>129</v>
-      </c>
-      <c r="C17" t="s">
+      <c r="S17" t="s">
+        <v>124</v>
+      </c>
+      <c r="T17" t="s">
+        <v>130</v>
+      </c>
+      <c r="U17" t="s">
+        <v>124</v>
+      </c>
+      <c r="V17" s="24" t="s">
         <v>131</v>
       </c>
-      <c r="D17" t="s">
-        <v>127</v>
-      </c>
-      <c r="E17" s="29" t="s">
-        <v>140</v>
-      </c>
-      <c r="F17" s="29"/>
-      <c r="G17" s="29">
-        <v>17</v>
-      </c>
-      <c r="H17" s="29" t="s">
-        <v>141</v>
-      </c>
-      <c r="I17" t="s">
-        <v>128</v>
-      </c>
-      <c r="J17" s="30" t="s">
-        <v>132</v>
-      </c>
-      <c r="K17" t="s">
-        <v>128</v>
-      </c>
-      <c r="L17" s="30" t="s">
-        <v>140</v>
-      </c>
-      <c r="M17" s="30">
-        <v>1</v>
-      </c>
-      <c r="N17" s="30" t="s">
-        <v>145</v>
-      </c>
-      <c r="O17" t="s">
-        <v>128</v>
-      </c>
-      <c r="P17" s="30" t="s">
+      <c r="W17" t="s">
+        <v>124</v>
+      </c>
+      <c r="X17" s="24" t="s">
+        <v>139</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>124</v>
+      </c>
+      <c r="Z17" t="s">
         <v>133</v>
       </c>
-      <c r="Q17" t="s">
-        <v>128</v>
-      </c>
-      <c r="R17" t="s">
-        <v>134</v>
-      </c>
-      <c r="S17" t="s">
-        <v>128</v>
-      </c>
-      <c r="T17" t="s">
-        <v>134</v>
-      </c>
-      <c r="U17" t="s">
-        <v>128</v>
-      </c>
-      <c r="V17" s="30" t="s">
-        <v>135</v>
-      </c>
-      <c r="W17" t="s">
-        <v>128</v>
-      </c>
-      <c r="X17" s="30" t="s">
-        <v>143</v>
-      </c>
-      <c r="Y17" t="s">
-        <v>128</v>
-      </c>
-      <c r="Z17" t="s">
-        <v>137</v>
-      </c>
       <c r="AA17" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="AB17">
         <f t="shared" ca="1" si="0"/>
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="AC17" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="AD17">
         <f t="shared" ca="1" si="1"/>
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="AE17" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="AF17">
         <f t="shared" ca="1" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG17" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="AH17">
         <f t="shared" ca="1" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI17" t="s">
-        <v>128</v>
-      </c>
-      <c r="AJ17" s="30" t="s">
-        <v>138</v>
-      </c>
-      <c r="AK17" s="30" t="s">
-        <v>139</v>
+        <v>124</v>
+      </c>
+      <c r="AJ17" s="24" t="s">
+        <v>134</v>
+      </c>
+      <c r="AK17" s="24" t="s">
+        <v>135</v>
       </c>
       <c r="AL17" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>INSERT INTO user(email, pass, name, phone_num, user_reg_date, recent_login, main_foot, position, api_key, height, weight, was_pro, gender, born_date) VALUES('bioman17@gmail.com','1234','bioman1','010-1234-5678',sysdate(),sysdate(),'왼발','MF',null,176,78,0,0,'1995-06-01');</v>
+        <v>INSERT INTO user(email, pass, name, phone_num, user_reg_date, recent_login, main_foot, position, api_key, height, weight, was_pro, gender, born_date) VALUES('bioman17@gmail.com','1234','bioman1','010-1234-5678',sysdate(),sysdate(),'왼발','MF',null,174,75,1,1,'1995-06-01');</v>
       </c>
     </row>
     <row r="20" spans="1:38">
       <c r="A20" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="B20" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="C20" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="D20" t="s">
-        <v>126</v>
-      </c>
-      <c r="E20" s="30" t="s">
-        <v>148</v>
-      </c>
-      <c r="F20" s="30" t="s">
-        <v>145</v>
+        <v>122</v>
+      </c>
+      <c r="E20" s="24" t="s">
+        <v>144</v>
+      </c>
+      <c r="F20" s="24" t="s">
+        <v>141</v>
       </c>
       <c r="G20" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="H20" t="str">
         <f>E20</f>
         <v>'왕십리FC</v>
       </c>
       <c r="I20" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="J20" t="s">
-        <v>128</v>
-      </c>
-      <c r="K20" s="30" t="s">
-        <v>150</v>
+        <v>124</v>
+      </c>
+      <c r="K20" s="24" t="s">
+        <v>146</v>
       </c>
       <c r="L20" t="s">
-        <v>128</v>
-      </c>
-      <c r="M20" s="30" t="s">
-        <v>151</v>
+        <v>124</v>
+      </c>
+      <c r="M20" s="24" t="s">
+        <v>147</v>
       </c>
       <c r="N20" t="s">
-        <v>128</v>
-      </c>
-      <c r="O20" s="30" t="s">
-        <v>152</v>
+        <v>124</v>
+      </c>
+      <c r="O20" s="24" t="s">
+        <v>148</v>
       </c>
       <c r="P20" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="Q20">
         <f ca="1">RANDBETWEEN(0,5)</f>
         <v>1</v>
       </c>
       <c r="R20" t="s">
-        <v>128</v>
-      </c>
-      <c r="S20" s="30" t="s">
-        <v>153</v>
+        <v>124</v>
+      </c>
+      <c r="S20" s="24" t="s">
+        <v>149</v>
       </c>
       <c r="T20" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="U20" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="V20" t="s">
-        <v>128</v>
-      </c>
-      <c r="W20" s="30" t="s">
-        <v>145</v>
+        <v>124</v>
+      </c>
+      <c r="W20" s="24" t="s">
+        <v>141</v>
       </c>
       <c r="X20">
         <v>1234</v>
       </c>
-      <c r="Y20" s="30" t="s">
-        <v>154</v>
-      </c>
-      <c r="Z20" s="30" t="s">
-        <v>155</v>
+      <c r="Y20" s="24" t="s">
+        <v>150</v>
+      </c>
+      <c r="Z20" s="24" t="s">
+        <v>151</v>
       </c>
       <c r="AA20" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="AB20" t="str">
         <f ca="1">_xlfn.CONCAT(A20:AA20)</f>
@@ -6991,176 +6837,176 @@
     </row>
     <row r="21" spans="1:38">
       <c r="A21" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="B21" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="C21" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="D21" t="s">
-        <v>126</v>
-      </c>
-      <c r="E21" s="30" t="s">
-        <v>156</v>
-      </c>
-      <c r="F21" s="30" t="s">
-        <v>145</v>
+        <v>122</v>
+      </c>
+      <c r="E21" s="24" t="s">
+        <v>152</v>
+      </c>
+      <c r="F21" s="24" t="s">
+        <v>141</v>
       </c>
       <c r="G21" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="H21" t="str">
         <f t="shared" ref="H21:H22" si="5">E21</f>
         <v>'답십리FC</v>
       </c>
       <c r="I21" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="J21" t="s">
-        <v>128</v>
-      </c>
-      <c r="K21" s="30" t="s">
-        <v>150</v>
+        <v>124</v>
+      </c>
+      <c r="K21" s="24" t="s">
+        <v>146</v>
       </c>
       <c r="L21" t="s">
-        <v>128</v>
-      </c>
-      <c r="M21" s="30" t="s">
-        <v>159</v>
+        <v>124</v>
+      </c>
+      <c r="M21" s="24" t="s">
+        <v>155</v>
       </c>
       <c r="N21" t="s">
-        <v>128</v>
-      </c>
-      <c r="O21" s="30" t="s">
-        <v>161</v>
+        <v>124</v>
+      </c>
+      <c r="O21" s="24" t="s">
+        <v>157</v>
       </c>
       <c r="P21" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="Q21">
         <f t="shared" ref="Q21:Q22" ca="1" si="6">RANDBETWEEN(0,5)</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R21" t="s">
-        <v>128</v>
-      </c>
-      <c r="S21" s="30" t="s">
-        <v>163</v>
+        <v>124</v>
+      </c>
+      <c r="S21" s="24" t="s">
+        <v>159</v>
       </c>
       <c r="T21" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="U21" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="V21" t="s">
-        <v>128</v>
-      </c>
-      <c r="W21" s="30" t="s">
-        <v>145</v>
+        <v>124</v>
+      </c>
+      <c r="W21" s="24" t="s">
+        <v>141</v>
       </c>
       <c r="X21">
         <v>5678</v>
       </c>
-      <c r="Y21" s="30" t="s">
-        <v>154</v>
-      </c>
-      <c r="Z21" s="30" t="s">
-        <v>165</v>
+      <c r="Y21" s="24" t="s">
+        <v>150</v>
+      </c>
+      <c r="Z21" s="24" t="s">
+        <v>161</v>
       </c>
       <c r="AA21" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="AB21" t="str">
         <f t="shared" ref="AB21:AB22" ca="1" si="7">_xlfn.CONCAT(A21:AA21)</f>
-        <v>INSERT INTO team(team_name, emblem, area, stadium_info, uniform_color, uniform_type, founding_date, team_reg_date, account, bank) VALUES('답십리FC','답십리FC201018.jpg','성동구','응봉동 구장','blue',4,'2017-01-01',sysdate(),'5678','하나');</v>
+        <v>INSERT INTO team(team_name, emblem, area, stadium_info, uniform_color, uniform_type, founding_date, team_reg_date, account, bank) VALUES('답십리FC','답십리FC201018.jpg','성동구','응봉동 구장','blue',5,'2017-01-01',sysdate(),'5678','하나');</v>
       </c>
     </row>
     <row r="22" spans="1:38">
       <c r="A22" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="B22" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="C22" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="D22" t="s">
-        <v>126</v>
-      </c>
-      <c r="E22" s="30" t="s">
-        <v>157</v>
-      </c>
-      <c r="F22" s="30" t="s">
-        <v>145</v>
+        <v>122</v>
+      </c>
+      <c r="E22" s="24" t="s">
+        <v>153</v>
+      </c>
+      <c r="F22" s="24" t="s">
+        <v>141</v>
       </c>
       <c r="G22" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="H22" t="str">
         <f t="shared" si="5"/>
         <v>'대구FC</v>
       </c>
       <c r="I22" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="J22" t="s">
-        <v>128</v>
-      </c>
-      <c r="K22" s="30" t="s">
+        <v>124</v>
+      </c>
+      <c r="K22" s="24" t="s">
+        <v>154</v>
+      </c>
+      <c r="L22" t="s">
+        <v>124</v>
+      </c>
+      <c r="M22" s="24" t="s">
+        <v>156</v>
+      </c>
+      <c r="N22" t="s">
+        <v>124</v>
+      </c>
+      <c r="O22" s="24" t="s">
         <v>158</v>
       </c>
-      <c r="L22" t="s">
-        <v>128</v>
-      </c>
-      <c r="M22" s="30" t="s">
-        <v>160</v>
-      </c>
-      <c r="N22" t="s">
-        <v>128</v>
-      </c>
-      <c r="O22" s="30" t="s">
-        <v>162</v>
-      </c>
       <c r="P22" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="Q22">
         <f t="shared" ca="1" si="6"/>
         <v>5</v>
       </c>
       <c r="R22" t="s">
-        <v>128</v>
-      </c>
-      <c r="S22" s="30" t="s">
-        <v>164</v>
+        <v>124</v>
+      </c>
+      <c r="S22" s="24" t="s">
+        <v>160</v>
       </c>
       <c r="T22" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="U22" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="V22" t="s">
-        <v>128</v>
-      </c>
-      <c r="W22" s="30" t="s">
-        <v>145</v>
+        <v>124</v>
+      </c>
+      <c r="W22" s="24" t="s">
+        <v>141</v>
       </c>
       <c r="X22">
         <v>2345</v>
       </c>
-      <c r="Y22" s="30" t="s">
-        <v>154</v>
-      </c>
-      <c r="Z22" s="30" t="s">
-        <v>155</v>
+      <c r="Y22" s="24" t="s">
+        <v>150</v>
+      </c>
+      <c r="Z22" s="24" t="s">
+        <v>151</v>
       </c>
       <c r="AA22" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="AB22" t="str">
         <f t="shared" ca="1" si="7"/>
@@ -7169,53 +7015,53 @@
     </row>
     <row r="24" spans="1:38">
       <c r="A24" t="s">
+        <v>126</v>
+      </c>
+      <c r="B24" t="s">
+        <v>162</v>
+      </c>
+      <c r="C24" t="s">
+        <v>122</v>
+      </c>
+      <c r="D24" t="s">
         <v>130</v>
       </c>
-      <c r="B24" t="s">
-        <v>166</v>
-      </c>
-      <c r="C24" t="s">
-        <v>126</v>
-      </c>
-      <c r="D24" t="s">
-        <v>134</v>
-      </c>
       <c r="E24" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="F24">
         <v>4</v>
       </c>
       <c r="G24" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="H24">
         <v>1</v>
       </c>
       <c r="I24" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="J24">
         <v>1</v>
       </c>
       <c r="K24" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="L24" t="str">
         <f>_xlfn.CONCAT(E1:H1)</f>
         <v>'bioman1@gmail.com'</v>
       </c>
       <c r="M24" t="s">
-        <v>128</v>
-      </c>
-      <c r="N24" s="30" t="s">
-        <v>167</v>
+        <v>124</v>
+      </c>
+      <c r="N24" s="24" t="s">
+        <v>163</v>
       </c>
       <c r="O24">
         <v>1</v>
       </c>
-      <c r="P24" s="30" t="s">
-        <v>168</v>
+      <c r="P24" s="24" t="s">
+        <v>164</v>
       </c>
       <c r="Q24" t="str">
         <f>_xlfn.CONCAT(A24:P24)</f>
@@ -7224,53 +7070,53 @@
     </row>
     <row r="25" spans="1:38">
       <c r="A25" t="s">
+        <v>126</v>
+      </c>
+      <c r="B25" t="s">
+        <v>162</v>
+      </c>
+      <c r="C25" t="s">
+        <v>122</v>
+      </c>
+      <c r="D25" t="s">
         <v>130</v>
       </c>
-      <c r="B25" t="s">
-        <v>166</v>
-      </c>
-      <c r="C25" t="s">
-        <v>126</v>
-      </c>
-      <c r="D25" t="s">
-        <v>134</v>
-      </c>
       <c r="E25" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="F25">
         <v>3</v>
       </c>
       <c r="G25" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="H25">
         <v>1</v>
       </c>
       <c r="I25" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="J25">
         <v>1</v>
       </c>
       <c r="K25" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="L25" t="str">
         <f t="shared" ref="L25:L28" si="8">_xlfn.CONCAT(E2:H2)</f>
         <v>'bioman2@gmail.com'</v>
       </c>
       <c r="M25" t="s">
-        <v>128</v>
-      </c>
-      <c r="N25" s="30" t="s">
-        <v>167</v>
+        <v>124</v>
+      </c>
+      <c r="N25" s="24" t="s">
+        <v>163</v>
       </c>
       <c r="O25">
         <v>2</v>
       </c>
-      <c r="P25" s="30" t="s">
-        <v>168</v>
+      <c r="P25" s="24" t="s">
+        <v>164</v>
       </c>
       <c r="Q25" t="str">
         <f t="shared" ref="Q25:Q28" si="9">_xlfn.CONCAT(A25:P25)</f>
@@ -7279,53 +7125,53 @@
     </row>
     <row r="26" spans="1:38">
       <c r="A26" t="s">
+        <v>126</v>
+      </c>
+      <c r="B26" t="s">
+        <v>162</v>
+      </c>
+      <c r="C26" t="s">
+        <v>122</v>
+      </c>
+      <c r="D26" t="s">
         <v>130</v>
       </c>
-      <c r="B26" t="s">
-        <v>166</v>
-      </c>
-      <c r="C26" t="s">
-        <v>126</v>
-      </c>
-      <c r="D26" t="s">
-        <v>134</v>
-      </c>
       <c r="E26" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="F26">
         <v>2</v>
       </c>
       <c r="G26" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="H26">
         <v>1</v>
       </c>
       <c r="I26" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="J26">
         <v>1</v>
       </c>
       <c r="K26" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="L26" t="str">
         <f t="shared" si="8"/>
         <v>'bioman3@gmail.com'</v>
       </c>
       <c r="M26" t="s">
-        <v>128</v>
-      </c>
-      <c r="N26" s="30" t="s">
-        <v>167</v>
+        <v>124</v>
+      </c>
+      <c r="N26" s="24" t="s">
+        <v>163</v>
       </c>
       <c r="O26">
         <v>3</v>
       </c>
-      <c r="P26" s="30" t="s">
-        <v>168</v>
+      <c r="P26" s="24" t="s">
+        <v>164</v>
       </c>
       <c r="Q26" t="str">
         <f t="shared" si="9"/>
@@ -7334,53 +7180,53 @@
     </row>
     <row r="27" spans="1:38">
       <c r="A27" t="s">
+        <v>126</v>
+      </c>
+      <c r="B27" t="s">
+        <v>162</v>
+      </c>
+      <c r="C27" t="s">
+        <v>122</v>
+      </c>
+      <c r="D27" t="s">
         <v>130</v>
       </c>
-      <c r="B27" t="s">
-        <v>166</v>
-      </c>
-      <c r="C27" t="s">
-        <v>126</v>
-      </c>
-      <c r="D27" t="s">
-        <v>134</v>
-      </c>
       <c r="E27" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="F27">
         <v>1</v>
       </c>
       <c r="G27" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="H27">
         <v>1</v>
       </c>
       <c r="I27" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="J27">
         <v>1</v>
       </c>
       <c r="K27" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="L27" t="str">
         <f t="shared" si="8"/>
         <v>'bioman4@gmail.com'</v>
       </c>
       <c r="M27" t="s">
-        <v>128</v>
-      </c>
-      <c r="N27" s="30" t="s">
-        <v>167</v>
+        <v>124</v>
+      </c>
+      <c r="N27" s="24" t="s">
+        <v>163</v>
       </c>
       <c r="O27">
         <v>4</v>
       </c>
-      <c r="P27" s="30" t="s">
-        <v>168</v>
+      <c r="P27" s="24" t="s">
+        <v>164</v>
       </c>
       <c r="Q27" t="str">
         <f t="shared" si="9"/>
@@ -7389,53 +7235,53 @@
     </row>
     <row r="28" spans="1:38">
       <c r="A28" t="s">
+        <v>126</v>
+      </c>
+      <c r="B28" t="s">
+        <v>162</v>
+      </c>
+      <c r="C28" t="s">
+        <v>122</v>
+      </c>
+      <c r="D28" t="s">
         <v>130</v>
       </c>
-      <c r="B28" t="s">
-        <v>166</v>
-      </c>
-      <c r="C28" t="s">
-        <v>126</v>
-      </c>
-      <c r="D28" t="s">
-        <v>134</v>
-      </c>
       <c r="E28" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="F28">
         <v>0</v>
       </c>
       <c r="G28" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="H28">
         <v>1</v>
       </c>
       <c r="I28" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="J28">
         <v>1</v>
       </c>
       <c r="K28" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="L28" t="str">
         <f t="shared" si="8"/>
         <v>'bioman5@gmail.com'</v>
       </c>
       <c r="M28" t="s">
-        <v>128</v>
-      </c>
-      <c r="N28" s="30" t="s">
-        <v>167</v>
+        <v>124</v>
+      </c>
+      <c r="N28" s="24" t="s">
+        <v>163</v>
       </c>
       <c r="O28">
         <v>5</v>
       </c>
-      <c r="P28" s="30" t="s">
-        <v>168</v>
+      <c r="P28" s="24" t="s">
+        <v>164</v>
       </c>
       <c r="Q28" t="str">
         <f t="shared" si="9"/>
@@ -7444,53 +7290,53 @@
     </row>
     <row r="29" spans="1:38">
       <c r="A29" t="s">
+        <v>126</v>
+      </c>
+      <c r="B29" t="s">
+        <v>162</v>
+      </c>
+      <c r="C29" t="s">
+        <v>122</v>
+      </c>
+      <c r="D29" t="s">
         <v>130</v>
       </c>
-      <c r="B29" t="s">
-        <v>166</v>
-      </c>
-      <c r="C29" t="s">
-        <v>126</v>
-      </c>
-      <c r="D29" t="s">
-        <v>134</v>
-      </c>
       <c r="E29" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="F29">
         <v>4</v>
       </c>
       <c r="G29" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="H29">
         <v>1</v>
       </c>
       <c r="I29" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="J29">
         <v>2</v>
       </c>
       <c r="K29" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="L29" t="str">
         <f>_xlfn.CONCAT(E6:H6)</f>
         <v>'bioman6@gmail.com'</v>
       </c>
       <c r="M29" t="s">
-        <v>128</v>
-      </c>
-      <c r="N29" s="30" t="s">
-        <v>167</v>
+        <v>124</v>
+      </c>
+      <c r="N29" s="24" t="s">
+        <v>163</v>
       </c>
       <c r="O29">
         <v>1</v>
       </c>
-      <c r="P29" s="30" t="s">
-        <v>168</v>
+      <c r="P29" s="24" t="s">
+        <v>164</v>
       </c>
       <c r="Q29" t="str">
         <f>_xlfn.CONCAT(A29:P29)</f>
@@ -7499,53 +7345,53 @@
     </row>
     <row r="30" spans="1:38">
       <c r="A30" t="s">
+        <v>126</v>
+      </c>
+      <c r="B30" t="s">
+        <v>162</v>
+      </c>
+      <c r="C30" t="s">
+        <v>122</v>
+      </c>
+      <c r="D30" t="s">
         <v>130</v>
       </c>
-      <c r="B30" t="s">
-        <v>166</v>
-      </c>
-      <c r="C30" t="s">
-        <v>126</v>
-      </c>
-      <c r="D30" t="s">
-        <v>134</v>
-      </c>
       <c r="E30" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="F30">
         <v>3</v>
       </c>
       <c r="G30" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="H30">
         <v>1</v>
       </c>
       <c r="I30" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="J30">
         <v>2</v>
       </c>
       <c r="K30" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="L30" t="str">
         <f t="shared" ref="L30:L33" si="10">_xlfn.CONCAT(E7:H7)</f>
         <v>'bioman7@gmail.com'</v>
       </c>
       <c r="M30" t="s">
-        <v>128</v>
-      </c>
-      <c r="N30" s="30" t="s">
-        <v>167</v>
+        <v>124</v>
+      </c>
+      <c r="N30" s="24" t="s">
+        <v>163</v>
       </c>
       <c r="O30">
         <v>2</v>
       </c>
-      <c r="P30" s="30" t="s">
-        <v>168</v>
+      <c r="P30" s="24" t="s">
+        <v>164</v>
       </c>
       <c r="Q30" t="str">
         <f t="shared" ref="Q30:Q33" si="11">_xlfn.CONCAT(A30:P30)</f>
@@ -7554,53 +7400,53 @@
     </row>
     <row r="31" spans="1:38">
       <c r="A31" t="s">
+        <v>126</v>
+      </c>
+      <c r="B31" t="s">
+        <v>162</v>
+      </c>
+      <c r="C31" t="s">
+        <v>122</v>
+      </c>
+      <c r="D31" t="s">
         <v>130</v>
       </c>
-      <c r="B31" t="s">
-        <v>166</v>
-      </c>
-      <c r="C31" t="s">
-        <v>126</v>
-      </c>
-      <c r="D31" t="s">
-        <v>134</v>
-      </c>
       <c r="E31" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="F31">
         <v>2</v>
       </c>
       <c r="G31" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="H31">
         <v>1</v>
       </c>
       <c r="I31" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="J31">
         <v>2</v>
       </c>
       <c r="K31" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="L31" t="str">
         <f t="shared" si="10"/>
         <v>'bioman8@gmail.com'</v>
       </c>
       <c r="M31" t="s">
-        <v>128</v>
-      </c>
-      <c r="N31" s="30" t="s">
-        <v>167</v>
+        <v>124</v>
+      </c>
+      <c r="N31" s="24" t="s">
+        <v>163</v>
       </c>
       <c r="O31">
         <v>3</v>
       </c>
-      <c r="P31" s="30" t="s">
-        <v>168</v>
+      <c r="P31" s="24" t="s">
+        <v>164</v>
       </c>
       <c r="Q31" t="str">
         <f t="shared" si="11"/>
@@ -7609,53 +7455,53 @@
     </row>
     <row r="32" spans="1:38">
       <c r="A32" t="s">
+        <v>126</v>
+      </c>
+      <c r="B32" t="s">
+        <v>162</v>
+      </c>
+      <c r="C32" t="s">
+        <v>122</v>
+      </c>
+      <c r="D32" t="s">
         <v>130</v>
       </c>
-      <c r="B32" t="s">
-        <v>166</v>
-      </c>
-      <c r="C32" t="s">
-        <v>126</v>
-      </c>
-      <c r="D32" t="s">
-        <v>134</v>
-      </c>
       <c r="E32" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="F32">
         <v>1</v>
       </c>
       <c r="G32" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="H32">
         <v>1</v>
       </c>
       <c r="I32" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="J32">
         <v>2</v>
       </c>
       <c r="K32" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="L32" t="str">
         <f t="shared" si="10"/>
         <v>'bioman9@gmail.com'</v>
       </c>
       <c r="M32" t="s">
-        <v>128</v>
-      </c>
-      <c r="N32" s="30" t="s">
-        <v>167</v>
+        <v>124</v>
+      </c>
+      <c r="N32" s="24" t="s">
+        <v>163</v>
       </c>
       <c r="O32">
         <v>4</v>
       </c>
-      <c r="P32" s="30" t="s">
-        <v>168</v>
+      <c r="P32" s="24" t="s">
+        <v>164</v>
       </c>
       <c r="Q32" t="str">
         <f t="shared" si="11"/>
@@ -7664,53 +7510,53 @@
     </row>
     <row r="33" spans="1:17">
       <c r="A33" t="s">
+        <v>126</v>
+      </c>
+      <c r="B33" t="s">
+        <v>162</v>
+      </c>
+      <c r="C33" t="s">
+        <v>122</v>
+      </c>
+      <c r="D33" t="s">
         <v>130</v>
       </c>
-      <c r="B33" t="s">
-        <v>166</v>
-      </c>
-      <c r="C33" t="s">
-        <v>126</v>
-      </c>
-      <c r="D33" t="s">
-        <v>134</v>
-      </c>
       <c r="E33" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="F33">
         <v>0</v>
       </c>
       <c r="G33" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="H33">
         <v>1</v>
       </c>
       <c r="I33" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="J33">
         <v>2</v>
       </c>
       <c r="K33" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="L33" t="str">
         <f t="shared" si="10"/>
         <v>'bioman10@gmail.com'</v>
       </c>
       <c r="M33" t="s">
-        <v>128</v>
-      </c>
-      <c r="N33" s="30" t="s">
-        <v>167</v>
+        <v>124</v>
+      </c>
+      <c r="N33" s="24" t="s">
+        <v>163</v>
       </c>
       <c r="O33">
         <v>5</v>
       </c>
-      <c r="P33" s="30" t="s">
-        <v>168</v>
+      <c r="P33" s="24" t="s">
+        <v>164</v>
       </c>
       <c r="Q33" t="str">
         <f t="shared" si="11"/>
@@ -7719,53 +7565,53 @@
     </row>
     <row r="34" spans="1:17">
       <c r="A34" t="s">
+        <v>126</v>
+      </c>
+      <c r="B34" t="s">
+        <v>162</v>
+      </c>
+      <c r="C34" t="s">
+        <v>122</v>
+      </c>
+      <c r="D34" t="s">
         <v>130</v>
       </c>
-      <c r="B34" t="s">
-        <v>166</v>
-      </c>
-      <c r="C34" t="s">
-        <v>126</v>
-      </c>
-      <c r="D34" t="s">
-        <v>134</v>
-      </c>
       <c r="E34" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="F34">
         <v>4</v>
       </c>
       <c r="G34" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="H34">
         <v>1</v>
       </c>
       <c r="I34" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="J34">
         <v>3</v>
       </c>
       <c r="K34" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="L34" t="str">
         <f>_xlfn.CONCAT(E11:H11)</f>
         <v>'bioman11@gmail.com'</v>
       </c>
       <c r="M34" t="s">
-        <v>128</v>
-      </c>
-      <c r="N34" s="30" t="s">
-        <v>167</v>
+        <v>124</v>
+      </c>
+      <c r="N34" s="24" t="s">
+        <v>163</v>
       </c>
       <c r="O34">
         <v>1</v>
       </c>
-      <c r="P34" s="30" t="s">
-        <v>168</v>
+      <c r="P34" s="24" t="s">
+        <v>164</v>
       </c>
       <c r="Q34" t="str">
         <f>_xlfn.CONCAT(A34:P34)</f>
@@ -7774,53 +7620,53 @@
     </row>
     <row r="35" spans="1:17">
       <c r="A35" t="s">
+        <v>126</v>
+      </c>
+      <c r="B35" t="s">
+        <v>162</v>
+      </c>
+      <c r="C35" t="s">
+        <v>122</v>
+      </c>
+      <c r="D35" t="s">
         <v>130</v>
       </c>
-      <c r="B35" t="s">
-        <v>166</v>
-      </c>
-      <c r="C35" t="s">
-        <v>126</v>
-      </c>
-      <c r="D35" t="s">
-        <v>134</v>
-      </c>
       <c r="E35" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="F35">
         <v>3</v>
       </c>
       <c r="G35" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="H35">
         <v>1</v>
       </c>
       <c r="I35" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="J35">
         <v>3</v>
       </c>
       <c r="K35" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="L35" t="str">
         <f t="shared" ref="L35:L38" si="12">_xlfn.CONCAT(E12:H12)</f>
         <v>'bioman12@gmail.com'</v>
       </c>
       <c r="M35" t="s">
-        <v>128</v>
-      </c>
-      <c r="N35" s="30" t="s">
-        <v>167</v>
+        <v>124</v>
+      </c>
+      <c r="N35" s="24" t="s">
+        <v>163</v>
       </c>
       <c r="O35">
         <v>2</v>
       </c>
-      <c r="P35" s="30" t="s">
-        <v>168</v>
+      <c r="P35" s="24" t="s">
+        <v>164</v>
       </c>
       <c r="Q35" t="str">
         <f t="shared" ref="Q35:Q38" si="13">_xlfn.CONCAT(A35:P35)</f>
@@ -7829,53 +7675,53 @@
     </row>
     <row r="36" spans="1:17">
       <c r="A36" t="s">
+        <v>126</v>
+      </c>
+      <c r="B36" t="s">
+        <v>162</v>
+      </c>
+      <c r="C36" t="s">
+        <v>122</v>
+      </c>
+      <c r="D36" t="s">
         <v>130</v>
       </c>
-      <c r="B36" t="s">
-        <v>166</v>
-      </c>
-      <c r="C36" t="s">
-        <v>126</v>
-      </c>
-      <c r="D36" t="s">
-        <v>134</v>
-      </c>
       <c r="E36" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="F36">
         <v>2</v>
       </c>
       <c r="G36" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="H36">
         <v>1</v>
       </c>
       <c r="I36" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="J36">
         <v>3</v>
       </c>
       <c r="K36" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="L36" t="str">
         <f t="shared" si="12"/>
         <v>'bioman13@gmail.com'</v>
       </c>
       <c r="M36" t="s">
-        <v>128</v>
-      </c>
-      <c r="N36" s="30" t="s">
-        <v>167</v>
+        <v>124</v>
+      </c>
+      <c r="N36" s="24" t="s">
+        <v>163</v>
       </c>
       <c r="O36">
         <v>3</v>
       </c>
-      <c r="P36" s="30" t="s">
-        <v>168</v>
+      <c r="P36" s="24" t="s">
+        <v>164</v>
       </c>
       <c r="Q36" t="str">
         <f t="shared" si="13"/>
@@ -7884,53 +7730,53 @@
     </row>
     <row r="37" spans="1:17">
       <c r="A37" t="s">
+        <v>126</v>
+      </c>
+      <c r="B37" t="s">
+        <v>162</v>
+      </c>
+      <c r="C37" t="s">
+        <v>122</v>
+      </c>
+      <c r="D37" t="s">
         <v>130</v>
       </c>
-      <c r="B37" t="s">
-        <v>166</v>
-      </c>
-      <c r="C37" t="s">
-        <v>126</v>
-      </c>
-      <c r="D37" t="s">
-        <v>134</v>
-      </c>
       <c r="E37" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="F37">
         <v>1</v>
       </c>
       <c r="G37" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="H37">
         <v>1</v>
       </c>
       <c r="I37" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="J37">
         <v>3</v>
       </c>
       <c r="K37" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="L37" t="str">
         <f t="shared" si="12"/>
         <v>'bioman14@gmail.com'</v>
       </c>
       <c r="M37" t="s">
-        <v>128</v>
-      </c>
-      <c r="N37" s="30" t="s">
-        <v>167</v>
+        <v>124</v>
+      </c>
+      <c r="N37" s="24" t="s">
+        <v>163</v>
       </c>
       <c r="O37">
         <v>4</v>
       </c>
-      <c r="P37" s="30" t="s">
-        <v>168</v>
+      <c r="P37" s="24" t="s">
+        <v>164</v>
       </c>
       <c r="Q37" t="str">
         <f t="shared" si="13"/>
@@ -7939,53 +7785,53 @@
     </row>
     <row r="38" spans="1:17">
       <c r="A38" t="s">
+        <v>126</v>
+      </c>
+      <c r="B38" t="s">
+        <v>162</v>
+      </c>
+      <c r="C38" t="s">
+        <v>122</v>
+      </c>
+      <c r="D38" t="s">
         <v>130</v>
       </c>
-      <c r="B38" t="s">
-        <v>166</v>
-      </c>
-      <c r="C38" t="s">
-        <v>126</v>
-      </c>
-      <c r="D38" t="s">
-        <v>134</v>
-      </c>
       <c r="E38" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="F38">
         <v>0</v>
       </c>
       <c r="G38" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="H38">
         <v>1</v>
       </c>
       <c r="I38" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="J38">
         <v>3</v>
       </c>
       <c r="K38" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="L38" t="str">
         <f t="shared" si="12"/>
         <v>'bioman15@gmail.com'</v>
       </c>
       <c r="M38" t="s">
-        <v>128</v>
-      </c>
-      <c r="N38" s="30" t="s">
-        <v>167</v>
+        <v>124</v>
+      </c>
+      <c r="N38" s="24" t="s">
+        <v>163</v>
       </c>
       <c r="O38">
         <v>5</v>
       </c>
-      <c r="P38" s="30" t="s">
-        <v>168</v>
+      <c r="P38" s="24" t="s">
+        <v>164</v>
       </c>
       <c r="Q38" t="str">
         <f t="shared" si="13"/>
@@ -8014,5 +7860,6 @@
     <hyperlink ref="E17" r:id="rId17" display="bioman1@gmail.com" xr:uid="{B171FD32-C2D4-4F6D-A937-2D8211AA25D8}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId18"/>
 </worksheet>
 </file>